--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75DA3A7-D9E7-4378-9588-0EDBAED4996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CC71E-CD02-401C-A079-C18368B048CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2670" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5340" yWindow="4095" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -489,12 +489,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="103.25" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -2873,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61" s="1">
-        <v>500000</v>
+        <v>2</v>
       </c>
       <c r="L61" s="1">
         <v>9</v>
@@ -3262,11 +3262,11 @@
       <c r="I71" s="2">
         <v>1</v>
       </c>
-      <c r="J71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1">
-        <v>500000</v>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2">
+        <v>3</v>
       </c>
       <c r="L71" s="2">
         <v>10</v>
@@ -3656,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L81" s="1">
         <v>11</v>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CC71E-CD02-401C-A079-C18368B048CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB9A61B-7599-460D-8421-59320209B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="4095" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="390" yWindow="2070" windowWidth="39315" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +503,7 @@
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -3121,7 +3122,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B81" si="1">B67*1.3</f>
+        <f t="shared" ref="B68:B101" si="1">B67*1.3</f>
         <v>3.4020137907735425E+19</v>
       </c>
       <c r="C68" s="2">
@@ -3660,6 +3661,786 @@
       </c>
       <c r="L81" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3395008763615078E+21</v>
+      </c>
+      <c r="C82" s="2">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>13</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>800</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7413511392699603E+21</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2">
+        <v>13</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>800</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2637564810509484E+21</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>13</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>800</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9428834253662328E+21</v>
+      </c>
+      <c r="C85" s="2">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2">
+        <v>13</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>800</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="1"/>
+        <v>3.825748452976103E+21</v>
+      </c>
+      <c r="C86" s="2">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2">
+        <v>13</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>800</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9734729888689344E+21</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>13</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>800</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4655148855296147E+21</v>
+      </c>
+      <c r="C88" s="2">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3</v>
+      </c>
+      <c r="F88" s="2">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <v>800</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4051693511884994E+21</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>13</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>800</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="1"/>
+        <v>1.092672015654505E+22</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
+        <v>13</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>800</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4204736203508565E+22</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>800</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" s="2">
+        <v>2</v>
+      </c>
+      <c r="L91" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8466157064561137E+22</v>
+      </c>
+      <c r="C92" s="1">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="1"/>
+        <v>2.400600418392948E+22</v>
+      </c>
+      <c r="C93" s="1">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1207805439108327E+22</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0570147070840828E+22</v>
+      </c>
+      <c r="C95" s="1">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2741191192093074E+22</v>
+      </c>
+      <c r="C96" s="1">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8563548549720996E+22</v>
+      </c>
+      <c r="C97" s="1">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9132613114637299E+22</v>
+      </c>
+      <c r="C98" s="1">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>14</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1587239704902849E+23</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5063411616373705E+23</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9582435101285816E+23</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E101" s="1">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>14</v>
+      </c>
+      <c r="K101" s="1">
+        <v>3</v>
+      </c>
+      <c r="L101" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB9A61B-7599-460D-8421-59320209B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DA9B8-59D9-426D-AB69-F6DCF6772854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2070" windowWidth="39315" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -488,25 +488,25 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.25" customWidth="1"/>
+    <col min="2" max="2" width="103.19921875" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="26.125" customWidth="1"/>
+    <col min="11" max="11" width="22.69921875" customWidth="1"/>
+    <col min="12" max="12" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3117,12 +3117,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B101" si="1">B67*1.3</f>
+        <f t="shared" ref="B68:B80" si="1">B67*1.3</f>
         <v>3.4020137907735425E+19</v>
       </c>
       <c r="C68" s="2">
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3624,12 +3624,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
+        <f>B80*1.3</f>
         <v>1.0303852895088521E+21</v>
       </c>
       <c r="C81" s="1">
@@ -3663,19 +3663,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3395008763615078E+21</v>
+        <f>B81*1.32</f>
+        <v>1.3601085821516849E+21</v>
       </c>
       <c r="C82" s="2">
         <v>8</v>
       </c>
       <c r="D82" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
@@ -3702,19 +3702,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7413511392699603E+21</v>
+        <f t="shared" ref="B83:B91" si="2">B82*1.32</f>
+        <v>1.7953433284402241E+21</v>
       </c>
       <c r="C83" s="2">
         <v>8</v>
       </c>
       <c r="D83" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
@@ -3741,19 +3741,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2637564810509484E+21</v>
+        <f t="shared" si="2"/>
+        <v>2.3698531935410958E+21</v>
       </c>
       <c r="C84" s="2">
         <v>8</v>
       </c>
       <c r="D84" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
@@ -3780,19 +3780,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
-        <v>2.9428834253662328E+21</v>
+        <f t="shared" si="2"/>
+        <v>3.1282062154742466E+21</v>
       </c>
       <c r="C85" s="2">
         <v>8</v>
       </c>
       <c r="D85" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
@@ -3819,19 +3819,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
-        <v>3.825748452976103E+21</v>
+        <f t="shared" si="2"/>
+        <v>4.1292322044260054E+21</v>
       </c>
       <c r="C86" s="2">
         <v>8</v>
       </c>
       <c r="D86" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
@@ -3858,19 +3858,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
-        <v>4.9734729888689344E+21</v>
+        <f t="shared" si="2"/>
+        <v>5.4505865098423278E+21</v>
       </c>
       <c r="C87" s="2">
         <v>8</v>
       </c>
       <c r="D87" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
@@ -3897,19 +3897,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4655148855296147E+21</v>
+        <f t="shared" si="2"/>
+        <v>7.1947741929918735E+21</v>
       </c>
       <c r="C88" s="2">
         <v>8</v>
       </c>
       <c r="D88" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
@@ -3936,19 +3936,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
-        <v>8.4051693511884994E+21</v>
+        <f t="shared" si="2"/>
+        <v>9.4971019347492738E+21</v>
       </c>
       <c r="C89" s="2">
         <v>8</v>
       </c>
       <c r="D89" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E89" s="2">
         <v>3</v>
@@ -3975,19 +3975,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
-        <v>1.092672015654505E+22</v>
+        <f t="shared" si="2"/>
+        <v>1.2536174553869041E+22</v>
       </c>
       <c r="C90" s="2">
         <v>8</v>
       </c>
       <c r="D90" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E90" s="2">
         <v>3</v>
@@ -4014,19 +4014,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4204736203508565E+22</v>
+        <f t="shared" si="2"/>
+        <v>1.6547750411107136E+22</v>
       </c>
       <c r="C91" s="2">
         <v>8</v>
       </c>
       <c r="D91" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E91" s="2">
         <v>3</v>
@@ -4053,19 +4053,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8466157064561137E+22</v>
+        <f>B91*1.33</f>
+        <v>2.2008508046772491E+22</v>
       </c>
       <c r="C92" s="1">
         <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -4092,19 +4092,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
-        <v>2.400600418392948E+22</v>
+        <f t="shared" ref="B93:B101" si="3">B92*1.33</f>
+        <v>2.9271315702207415E+22</v>
       </c>
       <c r="C93" s="1">
         <v>10</v>
       </c>
       <c r="D93" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -4131,19 +4131,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1207805439108327E+22</v>
+        <f t="shared" si="3"/>
+        <v>3.8930849883935864E+22</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -4170,19 +4170,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0570147070840828E+22</v>
+        <f t="shared" si="3"/>
+        <v>5.1778030345634699E+22</v>
       </c>
       <c r="C95" s="1">
         <v>10</v>
       </c>
       <c r="D95" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -4209,19 +4209,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2741191192093074E+22</v>
+        <f t="shared" si="3"/>
+        <v>6.8864780359694153E+22</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
       </c>
       <c r="D96" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
@@ -4248,19 +4248,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="1"/>
-        <v>6.8563548549720996E+22</v>
+        <f t="shared" si="3"/>
+        <v>9.1590157878393221E+22</v>
       </c>
       <c r="C97" s="1">
         <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -4287,19 +4287,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9132613114637299E+22</v>
+        <f t="shared" si="3"/>
+        <v>1.2181490997826298E+23</v>
       </c>
       <c r="C98" s="1">
         <v>10</v>
       </c>
       <c r="D98" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -4326,19 +4326,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1587239704902849E+23</v>
+        <f t="shared" si="3"/>
+        <v>1.6201383027108976E+23</v>
       </c>
       <c r="C99" s="1">
         <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -4365,19 +4365,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5063411616373705E+23</v>
+        <f t="shared" si="3"/>
+        <v>2.1547839426054938E+23</v>
       </c>
       <c r="C100" s="1">
         <v>10</v>
       </c>
       <c r="D100" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -4404,19 +4404,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9582435101285816E+23</v>
+        <f t="shared" si="3"/>
+        <v>2.8658626436653069E+23</v>
       </c>
       <c r="C101" s="1">
         <v>10</v>
       </c>
       <c r="D101" s="1">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DA9B8-59D9-426D-AB69-F6DCF6772854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF3D8F-F6F4-4918-9C68-09C82FC4DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -485,28 +485,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="103.19921875" customWidth="1"/>
+    <col min="2" max="2" width="103.25" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" customWidth="1"/>
-    <col min="12" max="12" width="26.09765625" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4440,6 +4440,3906 @@
         <v>3</v>
       </c>
       <c r="L101" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <f>B101*1.8</f>
+        <v>5.1585527585975528E+23</v>
+      </c>
+      <c r="C102" s="2">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" ref="B103:B166" si="4">B102*1.8</f>
+        <v>9.2853949654755954E+23</v>
+      </c>
+      <c r="C103" s="2">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6713710937856071E+24</v>
+      </c>
+      <c r="C104" s="2">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0084679688140928E+24</v>
+      </c>
+      <c r="C105" s="2">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1">
+        <v>14</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="4"/>
+        <v>5.415242343865367E+24</v>
+      </c>
+      <c r="C106" s="2">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="4"/>
+        <v>9.747436218957661E+24</v>
+      </c>
+      <c r="C107" s="2">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1">
+        <v>14</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7545385194123791E+25</v>
+      </c>
+      <c r="C108" s="2">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1">
+        <v>14</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K108" s="2">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1581693349422824E+25</v>
+      </c>
+      <c r="C109" s="2">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1">
+        <v>14</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="4"/>
+        <v>5.6847048028961084E+25</v>
+      </c>
+      <c r="C110" s="2">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1">
+        <v>14</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0232468645212996E+26</v>
+      </c>
+      <c r="C111" s="2">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E111" s="1">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1">
+        <v>14</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="2">
+        <v>14</v>
+      </c>
+      <c r="K111" s="2">
+        <v>3</v>
+      </c>
+      <c r="L111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8418443561383394E+26</v>
+      </c>
+      <c r="C112" s="1">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E112" s="1">
+        <v>3</v>
+      </c>
+      <c r="F112" s="1">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3153198410490107E+26</v>
+      </c>
+      <c r="C113" s="1">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3</v>
+      </c>
+      <c r="F113" s="1">
+        <v>14</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="4"/>
+        <v>5.9675757138882196E+26</v>
+      </c>
+      <c r="C114" s="1">
+        <v>14</v>
+      </c>
+      <c r="D114" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E114" s="1">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1">
+        <v>14</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0741636284998795E+27</v>
+      </c>
+      <c r="C115" s="1">
+        <v>14</v>
+      </c>
+      <c r="D115" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E115" s="1">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9334945312997832E+27</v>
+      </c>
+      <c r="C116" s="1">
+        <v>14</v>
+      </c>
+      <c r="D116" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E116" s="1">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1">
+        <v>14</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4802901563396101E+27</v>
+      </c>
+      <c r="C117" s="1">
+        <v>14</v>
+      </c>
+      <c r="D117" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1">
+        <v>14</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="4"/>
+        <v>6.2645222814112985E+27</v>
+      </c>
+      <c r="C118" s="1">
+        <v>14</v>
+      </c>
+      <c r="D118" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E118" s="1">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1">
+        <v>14</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1276140106540338E+28</v>
+      </c>
+      <c r="C119" s="1">
+        <v>14</v>
+      </c>
+      <c r="D119" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E119" s="1">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0297052191772608E+28</v>
+      </c>
+      <c r="C120" s="1">
+        <v>14</v>
+      </c>
+      <c r="D120" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E120" s="1">
+        <v>3</v>
+      </c>
+      <c r="F120" s="1">
+        <v>14</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="4"/>
+        <v>3.6534693945190697E+28</v>
+      </c>
+      <c r="C121" s="1">
+        <v>14</v>
+      </c>
+      <c r="D121" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E121" s="1">
+        <v>3</v>
+      </c>
+      <c r="F121" s="1">
+        <v>14</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>14</v>
+      </c>
+      <c r="K121" s="1">
+        <v>3</v>
+      </c>
+      <c r="L121" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5762449101343259E+28</v>
+      </c>
+      <c r="C122" s="2">
+        <v>16</v>
+      </c>
+      <c r="D122" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3</v>
+      </c>
+      <c r="F122" s="1">
+        <v>14</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1837240838241788E+29</v>
+      </c>
+      <c r="C123" s="2">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1">
+        <v>14</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1307033508835218E+29</v>
+      </c>
+      <c r="C124" s="2">
+        <v>16</v>
+      </c>
+      <c r="D124" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1">
+        <v>14</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K124" s="2">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="4"/>
+        <v>3.8352660315903393E+29</v>
+      </c>
+      <c r="C125" s="2">
+        <v>16</v>
+      </c>
+      <c r="D125" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1">
+        <v>14</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9034788568626114E+29</v>
+      </c>
+      <c r="C126" s="2">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3</v>
+      </c>
+      <c r="F126" s="1">
+        <v>14</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K126" s="2">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="4"/>
+        <v>1.24262619423527E+30</v>
+      </c>
+      <c r="C127" s="2">
+        <v>16</v>
+      </c>
+      <c r="D127" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3</v>
+      </c>
+      <c r="F127" s="1">
+        <v>14</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K127" s="2">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2367271496234862E+30</v>
+      </c>
+      <c r="C128" s="2">
+        <v>16</v>
+      </c>
+      <c r="D128" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1">
+        <v>14</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0261088693222753E+30</v>
+      </c>
+      <c r="C129" s="2">
+        <v>16</v>
+      </c>
+      <c r="D129" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1">
+        <v>14</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2469959647800959E+30</v>
+      </c>
+      <c r="C130" s="2">
+        <v>16</v>
+      </c>
+      <c r="D130" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1">
+        <v>14</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3044592736604173E+31</v>
+      </c>
+      <c r="C131" s="2">
+        <v>16</v>
+      </c>
+      <c r="D131" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1">
+        <v>14</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I131" s="1">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>14</v>
+      </c>
+      <c r="K131" s="2">
+        <v>3</v>
+      </c>
+      <c r="L131" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3480266925887512E+31</v>
+      </c>
+      <c r="C132" s="1">
+        <v>18</v>
+      </c>
+      <c r="D132" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1">
+        <v>14</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2264480466597524E+31</v>
+      </c>
+      <c r="C133" s="1">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>14</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6076064839875542E+31</v>
+      </c>
+      <c r="C134" s="1">
+        <v>18</v>
+      </c>
+      <c r="D134" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3</v>
+      </c>
+      <c r="F134" s="1">
+        <v>14</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3693691671177599E+32</v>
+      </c>
+      <c r="C135" s="1">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1">
+        <v>14</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1</v>
+      </c>
+      <c r="J135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4648645008119679E+32</v>
+      </c>
+      <c r="C136" s="1">
+        <v>18</v>
+      </c>
+      <c r="D136" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>14</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1</v>
+      </c>
+      <c r="J136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="4"/>
+        <v>4.4367561014615421E+32</v>
+      </c>
+      <c r="C137" s="1">
+        <v>18</v>
+      </c>
+      <c r="D137" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1">
+        <v>14</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9861609826307757E+32</v>
+      </c>
+      <c r="C138" s="1">
+        <v>18</v>
+      </c>
+      <c r="D138" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <v>14</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1</v>
+      </c>
+      <c r="J138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4375089768735398E+33</v>
+      </c>
+      <c r="C139" s="1">
+        <v>18</v>
+      </c>
+      <c r="D139" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1">
+        <v>14</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5875161583723716E+33</v>
+      </c>
+      <c r="C140" s="1">
+        <v>18</v>
+      </c>
+      <c r="D140" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="1">
+        <v>14</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6575290850702689E+33</v>
+      </c>
+      <c r="C141" s="1">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="E141" s="1">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1">
+        <v>14</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>14</v>
+      </c>
+      <c r="K141" s="1">
+        <v>3</v>
+      </c>
+      <c r="L141" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3835523531264847E+33</v>
+      </c>
+      <c r="C142" s="2">
+        <v>20</v>
+      </c>
+      <c r="D142" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3</v>
+      </c>
+      <c r="F142" s="1">
+        <v>14</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5090394235627672E+34</v>
+      </c>
+      <c r="C143" s="2">
+        <v>20</v>
+      </c>
+      <c r="D143" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
+      <c r="F143" s="1">
+        <v>14</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K143" s="2">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="4"/>
+        <v>2.716270962412981E+34</v>
+      </c>
+      <c r="C144" s="2">
+        <v>20</v>
+      </c>
+      <c r="D144" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>14</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1</v>
+      </c>
+      <c r="J144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8892877323433661E+34</v>
+      </c>
+      <c r="C145" s="2">
+        <v>20</v>
+      </c>
+      <c r="D145" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3</v>
+      </c>
+      <c r="F145" s="1">
+        <v>14</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="4"/>
+        <v>8.8007179182180595E+34</v>
+      </c>
+      <c r="C146" s="2">
+        <v>20</v>
+      </c>
+      <c r="D146" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>14</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5841292252792508E+35</v>
+      </c>
+      <c r="C147" s="2">
+        <v>20</v>
+      </c>
+      <c r="D147" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1">
+        <v>14</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8514326055026516E+35</v>
+      </c>
+      <c r="C148" s="2">
+        <v>20</v>
+      </c>
+      <c r="D148" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>3</v>
+      </c>
+      <c r="F148" s="1">
+        <v>14</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+      <c r="J148" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K148" s="2">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1325786899047731E+35</v>
+      </c>
+      <c r="C149" s="2">
+        <v>20</v>
+      </c>
+      <c r="D149" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3</v>
+      </c>
+      <c r="F149" s="1">
+        <v>14</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1</v>
+      </c>
+      <c r="J149" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="4"/>
+        <v>9.2386416418285915E+35</v>
+      </c>
+      <c r="C150" s="2">
+        <v>20</v>
+      </c>
+      <c r="D150" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="1">
+        <v>14</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6629554955291466E+36</v>
+      </c>
+      <c r="C151" s="2">
+        <v>20</v>
+      </c>
+      <c r="D151" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="E151" s="1">
+        <v>3</v>
+      </c>
+      <c r="F151" s="1">
+        <v>14</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1</v>
+      </c>
+      <c r="J151" s="2">
+        <v>14</v>
+      </c>
+      <c r="K151" s="2">
+        <v>3</v>
+      </c>
+      <c r="L151" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9933198919524641E+36</v>
+      </c>
+      <c r="C152" s="1">
+        <v>22</v>
+      </c>
+      <c r="D152" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3</v>
+      </c>
+      <c r="F152" s="1">
+        <v>14</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="4"/>
+        <v>5.3879758055144352E+36</v>
+      </c>
+      <c r="C153" s="1">
+        <v>22</v>
+      </c>
+      <c r="D153" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1">
+        <v>14</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J153" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="4"/>
+        <v>9.6983564499259834E+36</v>
+      </c>
+      <c r="C154" s="1">
+        <v>22</v>
+      </c>
+      <c r="D154" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F154" s="1">
+        <v>14</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="4"/>
+        <v>1.745704160986677E+37</v>
+      </c>
+      <c r="C155" s="1">
+        <v>22</v>
+      </c>
+      <c r="D155" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>14</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1</v>
+      </c>
+      <c r="H155" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I155" s="1">
+        <v>1</v>
+      </c>
+      <c r="J155" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1422674897760187E+37</v>
+      </c>
+      <c r="C156" s="1">
+        <v>22</v>
+      </c>
+      <c r="D156" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E156" s="1">
+        <v>3</v>
+      </c>
+      <c r="F156" s="1">
+        <v>14</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1</v>
+      </c>
+      <c r="H156" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1</v>
+      </c>
+      <c r="J156" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="4"/>
+        <v>5.656081481596834E+37</v>
+      </c>
+      <c r="C157" s="1">
+        <v>22</v>
+      </c>
+      <c r="D157" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E157" s="1">
+        <v>3</v>
+      </c>
+      <c r="F157" s="1">
+        <v>14</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H157" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0180946666874302E+38</v>
+      </c>
+      <c r="C158" s="1">
+        <v>22</v>
+      </c>
+      <c r="D158" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E158" s="1">
+        <v>3</v>
+      </c>
+      <c r="F158" s="1">
+        <v>14</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1</v>
+      </c>
+      <c r="H158" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8325704000373746E+38</v>
+      </c>
+      <c r="C159" s="1">
+        <v>22</v>
+      </c>
+      <c r="D159" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3</v>
+      </c>
+      <c r="F159" s="1">
+        <v>14</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+      <c r="H159" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L159" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2986267200672743E+38</v>
+      </c>
+      <c r="C160" s="1">
+        <v>22</v>
+      </c>
+      <c r="D160" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E160" s="1">
+        <v>3</v>
+      </c>
+      <c r="F160" s="1">
+        <v>14</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L160" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="4"/>
+        <v>5.937528096121094E+38</v>
+      </c>
+      <c r="C161" s="1">
+        <v>22</v>
+      </c>
+      <c r="D161" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="E161" s="1">
+        <v>3</v>
+      </c>
+      <c r="F161" s="1">
+        <v>14</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
+        <v>14</v>
+      </c>
+      <c r="K161" s="1">
+        <v>3</v>
+      </c>
+      <c r="L161" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="4"/>
+        <v>1.068755057301797E+39</v>
+      </c>
+      <c r="C162" s="2">
+        <v>24</v>
+      </c>
+      <c r="D162" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F162" s="1">
+        <v>14</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9237591031432347E+39</v>
+      </c>
+      <c r="C163" s="2">
+        <v>24</v>
+      </c>
+      <c r="D163" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>3</v>
+      </c>
+      <c r="F163" s="1">
+        <v>14</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K163" s="2">
+        <v>0</v>
+      </c>
+      <c r="L163" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4627663856578228E+39</v>
+      </c>
+      <c r="C164" s="2">
+        <v>24</v>
+      </c>
+      <c r="D164" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E164" s="1">
+        <v>3</v>
+      </c>
+      <c r="F164" s="1">
+        <v>14</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+      <c r="H164" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1</v>
+      </c>
+      <c r="J164" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="4"/>
+        <v>6.2329794941840813E+39</v>
+      </c>
+      <c r="C165" s="2">
+        <v>24</v>
+      </c>
+      <c r="D165" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>14</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+      <c r="H165" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K165" s="2">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1219363089531346E+40</v>
+      </c>
+      <c r="C166" s="2">
+        <v>24</v>
+      </c>
+      <c r="D166" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E166" s="1">
+        <v>3</v>
+      </c>
+      <c r="F166" s="1">
+        <v>14</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1</v>
+      </c>
+      <c r="H166" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J166" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
+      <c r="L166" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" ref="B167:B201" si="5">B166*1.8</f>
+        <v>2.0194853561156423E+40</v>
+      </c>
+      <c r="C167" s="2">
+        <v>24</v>
+      </c>
+      <c r="D167" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E167" s="1">
+        <v>3</v>
+      </c>
+      <c r="F167" s="1">
+        <v>14</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
+      <c r="H167" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J167" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="5"/>
+        <v>3.6350736410081561E+40</v>
+      </c>
+      <c r="C168" s="2">
+        <v>24</v>
+      </c>
+      <c r="D168" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>3</v>
+      </c>
+      <c r="F168" s="1">
+        <v>14</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1</v>
+      </c>
+      <c r="H168" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I168" s="1">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L168" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="5"/>
+        <v>6.5431325538146808E+40</v>
+      </c>
+      <c r="C169" s="2">
+        <v>24</v>
+      </c>
+      <c r="D169" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F169" s="1">
+        <v>14</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+      <c r="H169" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1777638596866426E+41</v>
+      </c>
+      <c r="C170" s="2">
+        <v>24</v>
+      </c>
+      <c r="D170" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E170" s="1">
+        <v>3</v>
+      </c>
+      <c r="F170" s="1">
+        <v>14</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
+      </c>
+      <c r="H170" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J170" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="5"/>
+        <v>2.119974947435957E+41</v>
+      </c>
+      <c r="C171" s="2">
+        <v>24</v>
+      </c>
+      <c r="D171" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="E171" s="1">
+        <v>3</v>
+      </c>
+      <c r="F171" s="1">
+        <v>14</v>
+      </c>
+      <c r="G171" s="1">
+        <v>1</v>
+      </c>
+      <c r="H171" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I171" s="1">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2">
+        <v>14</v>
+      </c>
+      <c r="K171" s="2">
+        <v>3</v>
+      </c>
+      <c r="L171" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="5"/>
+        <v>3.815954905384723E+41</v>
+      </c>
+      <c r="C172" s="1">
+        <v>26</v>
+      </c>
+      <c r="D172" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>3</v>
+      </c>
+      <c r="F172" s="1">
+        <v>14</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I172" s="1">
+        <v>1</v>
+      </c>
+      <c r="J172" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K172" s="1">
+        <v>0</v>
+      </c>
+      <c r="L172" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="5"/>
+        <v>6.8687188296925018E+41</v>
+      </c>
+      <c r="C173" s="1">
+        <v>26</v>
+      </c>
+      <c r="D173" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>3</v>
+      </c>
+      <c r="F173" s="1">
+        <v>14</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I173" s="1">
+        <v>1</v>
+      </c>
+      <c r="J173" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0</v>
+      </c>
+      <c r="L173" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2363693893446503E+42</v>
+      </c>
+      <c r="C174" s="1">
+        <v>26</v>
+      </c>
+      <c r="D174" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>3</v>
+      </c>
+      <c r="F174" s="1">
+        <v>14</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1</v>
+      </c>
+      <c r="H174" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I174" s="1">
+        <v>1</v>
+      </c>
+      <c r="J174" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K174" s="1">
+        <v>0</v>
+      </c>
+      <c r="L174" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2254649008203706E+42</v>
+      </c>
+      <c r="C175" s="1">
+        <v>26</v>
+      </c>
+      <c r="D175" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3</v>
+      </c>
+      <c r="F175" s="1">
+        <v>14</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1</v>
+      </c>
+      <c r="H175" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J175" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K175" s="1">
+        <v>0</v>
+      </c>
+      <c r="L175" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <f t="shared" si="5"/>
+        <v>4.0058368214766669E+42</v>
+      </c>
+      <c r="C176" s="1">
+        <v>26</v>
+      </c>
+      <c r="D176" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E176" s="1">
+        <v>3</v>
+      </c>
+      <c r="F176" s="1">
+        <v>14</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H176" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J176" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K176" s="1">
+        <v>0</v>
+      </c>
+      <c r="L176" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <f t="shared" si="5"/>
+        <v>7.2105062786580005E+42</v>
+      </c>
+      <c r="C177" s="1">
+        <v>26</v>
+      </c>
+      <c r="D177" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>3</v>
+      </c>
+      <c r="F177" s="1">
+        <v>14</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+      <c r="H177" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I177" s="1">
+        <v>1</v>
+      </c>
+      <c r="J177" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2978911301584402E+43</v>
+      </c>
+      <c r="C178" s="1">
+        <v>26</v>
+      </c>
+      <c r="D178" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3</v>
+      </c>
+      <c r="F178" s="1">
+        <v>14</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+      <c r="H178" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I178" s="1">
+        <v>1</v>
+      </c>
+      <c r="J178" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K178" s="1">
+        <v>0</v>
+      </c>
+      <c r="L178" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3362040342851923E+43</v>
+      </c>
+      <c r="C179" s="1">
+        <v>26</v>
+      </c>
+      <c r="D179" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3</v>
+      </c>
+      <c r="F179" s="1">
+        <v>14</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I179" s="1">
+        <v>1</v>
+      </c>
+      <c r="J179" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K179" s="1">
+        <v>0</v>
+      </c>
+      <c r="L179" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2051672617133464E+43</v>
+      </c>
+      <c r="C180" s="1">
+        <v>26</v>
+      </c>
+      <c r="D180" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>3</v>
+      </c>
+      <c r="F180" s="1">
+        <v>14</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H180" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I180" s="1">
+        <v>1</v>
+      </c>
+      <c r="J180" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <f t="shared" si="5"/>
+        <v>7.5693010710840237E+43</v>
+      </c>
+      <c r="C181" s="1">
+        <v>26</v>
+      </c>
+      <c r="D181" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="E181" s="1">
+        <v>3</v>
+      </c>
+      <c r="F181" s="1">
+        <v>14</v>
+      </c>
+      <c r="G181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H181" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1">
+        <v>14</v>
+      </c>
+      <c r="K181" s="1">
+        <v>3</v>
+      </c>
+      <c r="L181" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3624741927951242E+44</v>
+      </c>
+      <c r="C182" s="2">
+        <v>28</v>
+      </c>
+      <c r="D182" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>3</v>
+      </c>
+      <c r="F182" s="1">
+        <v>14</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K182" s="2">
+        <v>0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4524535470312239E+44</v>
+      </c>
+      <c r="C183" s="2">
+        <v>28</v>
+      </c>
+      <c r="D183" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F183" s="1">
+        <v>14</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I183" s="1">
+        <v>1</v>
+      </c>
+      <c r="J183" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K183" s="2">
+        <v>0</v>
+      </c>
+      <c r="L183" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <f t="shared" si="5"/>
+        <v>4.4144163846562033E+44</v>
+      </c>
+      <c r="C184" s="2">
+        <v>28</v>
+      </c>
+      <c r="D184" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E184" s="1">
+        <v>3</v>
+      </c>
+      <c r="F184" s="1">
+        <v>14</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J184" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K184" s="2">
+        <v>0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <f t="shared" si="5"/>
+        <v>7.9459494923811665E+44</v>
+      </c>
+      <c r="C185" s="2">
+        <v>28</v>
+      </c>
+      <c r="D185" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E185" s="1">
+        <v>3</v>
+      </c>
+      <c r="F185" s="1">
+        <v>14</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J185" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K185" s="2">
+        <v>0</v>
+      </c>
+      <c r="L185" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4302709086286099E+45</v>
+      </c>
+      <c r="C186" s="2">
+        <v>28</v>
+      </c>
+      <c r="D186" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3</v>
+      </c>
+      <c r="F186" s="1">
+        <v>14</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+      <c r="H186" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I186" s="1">
+        <v>1</v>
+      </c>
+      <c r="J186" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K186" s="2">
+        <v>0</v>
+      </c>
+      <c r="L186" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5744876355314979E+45</v>
+      </c>
+      <c r="C187" s="2">
+        <v>28</v>
+      </c>
+      <c r="D187" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>3</v>
+      </c>
+      <c r="F187" s="1">
+        <v>14</v>
+      </c>
+      <c r="G187" s="1">
+        <v>1</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I187" s="1">
+        <v>1</v>
+      </c>
+      <c r="J187" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K187" s="2">
+        <v>0</v>
+      </c>
+      <c r="L187" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6340777439566962E+45</v>
+      </c>
+      <c r="C188" s="2">
+        <v>28</v>
+      </c>
+      <c r="D188" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>3</v>
+      </c>
+      <c r="F188" s="1">
+        <v>14</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1</v>
+      </c>
+      <c r="H188" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I188" s="1">
+        <v>1</v>
+      </c>
+      <c r="J188" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K188" s="2">
+        <v>0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3413399391220527E+45</v>
+      </c>
+      <c r="C189" s="2">
+        <v>28</v>
+      </c>
+      <c r="D189" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E189" s="1">
+        <v>3</v>
+      </c>
+      <c r="F189" s="1">
+        <v>14</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I189" s="1">
+        <v>1</v>
+      </c>
+      <c r="J189" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K189" s="2">
+        <v>0</v>
+      </c>
+      <c r="L189" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5014411890419695E+46</v>
+      </c>
+      <c r="C190" s="2">
+        <v>28</v>
+      </c>
+      <c r="D190" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E190" s="1">
+        <v>3</v>
+      </c>
+      <c r="F190" s="1">
+        <v>14</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I190" s="1">
+        <v>1</v>
+      </c>
+      <c r="J190" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K190" s="2">
+        <v>0</v>
+      </c>
+      <c r="L190" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <f t="shared" si="5"/>
+        <v>2.7025941402755453E+46</v>
+      </c>
+      <c r="C191" s="2">
+        <v>28</v>
+      </c>
+      <c r="D191" s="1">
+        <v>240000000</v>
+      </c>
+      <c r="E191" s="1">
+        <v>3</v>
+      </c>
+      <c r="F191" s="1">
+        <v>14</v>
+      </c>
+      <c r="G191" s="1">
+        <v>1</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I191" s="1">
+        <v>1</v>
+      </c>
+      <c r="J191" s="2">
+        <v>14</v>
+      </c>
+      <c r="K191" s="2">
+        <v>3</v>
+      </c>
+      <c r="L191" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" si="5"/>
+        <v>4.8646694524959817E+46</v>
+      </c>
+      <c r="C192" s="1">
+        <v>30</v>
+      </c>
+      <c r="D192" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1">
+        <v>14</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1</v>
+      </c>
+      <c r="H192" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I192" s="1">
+        <v>1</v>
+      </c>
+      <c r="J192" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K192" s="1">
+        <v>0</v>
+      </c>
+      <c r="L192" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" si="5"/>
+        <v>8.756405014492767E+46</v>
+      </c>
+      <c r="C193" s="1">
+        <v>30</v>
+      </c>
+      <c r="D193" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3</v>
+      </c>
+      <c r="F193" s="1">
+        <v>14</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+      <c r="H193" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K193" s="1">
+        <v>0</v>
+      </c>
+      <c r="L193" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5761529026086981E+47</v>
+      </c>
+      <c r="C194" s="1">
+        <v>30</v>
+      </c>
+      <c r="D194" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1">
+        <v>14</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1</v>
+      </c>
+      <c r="H194" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I194" s="1">
+        <v>1</v>
+      </c>
+      <c r="J194" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0</v>
+      </c>
+      <c r="L194" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8370752246956568E+47</v>
+      </c>
+      <c r="C195" s="1">
+        <v>30</v>
+      </c>
+      <c r="D195" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E195" s="1">
+        <v>3</v>
+      </c>
+      <c r="F195" s="1">
+        <v>14</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1</v>
+      </c>
+      <c r="H195" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J195" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0</v>
+      </c>
+      <c r="L195" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <f t="shared" si="5"/>
+        <v>5.1067354044521825E+47</v>
+      </c>
+      <c r="C196" s="1">
+        <v>30</v>
+      </c>
+      <c r="D196" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E196" s="1">
+        <v>3</v>
+      </c>
+      <c r="F196" s="1">
+        <v>14</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1</v>
+      </c>
+      <c r="H196" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0</v>
+      </c>
+      <c r="L196" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <f t="shared" si="5"/>
+        <v>9.1921237280139284E+47</v>
+      </c>
+      <c r="C197" s="1">
+        <v>30</v>
+      </c>
+      <c r="D197" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>3</v>
+      </c>
+      <c r="F197" s="1">
+        <v>14</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1</v>
+      </c>
+      <c r="H197" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0</v>
+      </c>
+      <c r="L197" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <f t="shared" si="5"/>
+        <v>1.6545822710425073E+48</v>
+      </c>
+      <c r="C198" s="1">
+        <v>30</v>
+      </c>
+      <c r="D198" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E198" s="1">
+        <v>3</v>
+      </c>
+      <c r="F198" s="1">
+        <v>14</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1</v>
+      </c>
+      <c r="H198" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I198" s="1">
+        <v>1</v>
+      </c>
+      <c r="J198" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0</v>
+      </c>
+      <c r="L198" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9782480878765134E+48</v>
+      </c>
+      <c r="C199" s="1">
+        <v>30</v>
+      </c>
+      <c r="D199" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E199" s="1">
+        <v>3</v>
+      </c>
+      <c r="F199" s="1">
+        <v>14</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1</v>
+      </c>
+      <c r="H199" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K199" s="1">
+        <v>0</v>
+      </c>
+      <c r="L199" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <f t="shared" si="5"/>
+        <v>5.360846558177724E+48</v>
+      </c>
+      <c r="C200" s="1">
+        <v>30</v>
+      </c>
+      <c r="D200" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E200" s="1">
+        <v>3</v>
+      </c>
+      <c r="F200" s="1">
+        <v>14</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1</v>
+      </c>
+      <c r="H200" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I200" s="1">
+        <v>1</v>
+      </c>
+      <c r="J200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K200" s="1">
+        <v>0</v>
+      </c>
+      <c r="L200" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <f t="shared" si="5"/>
+        <v>9.6495238047199036E+48</v>
+      </c>
+      <c r="C201" s="1">
+        <v>30</v>
+      </c>
+      <c r="D201" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E201" s="1">
+        <v>3</v>
+      </c>
+      <c r="F201" s="1">
+        <v>14</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1</v>
+      </c>
+      <c r="H201" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I201" s="1">
+        <v>1</v>
+      </c>
+      <c r="J201" s="1">
+        <v>14</v>
+      </c>
+      <c r="K201" s="1">
+        <v>3</v>
+      </c>
+      <c r="L201" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF3D8F-F6F4-4918-9C68-09C82FC4DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D7AC7-0E69-4CA7-B009-D82F0216A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -488,8 +488,8 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K103" sqref="K103"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="2">
         <v>4</v>
@@ -924,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="L11" s="2">
         <v>4</v>
@@ -962,10 +962,10 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="1">
@@ -1001,10 +1001,10 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="1">
@@ -1040,10 +1040,10 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="1">
@@ -1079,10 +1079,10 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="1">
@@ -1118,11 +1118,11 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100000</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -1157,10 +1157,10 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="1">
@@ -1196,10 +1196,10 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="J18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -1235,10 +1235,10 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="J19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="1">
@@ -1274,10 +1274,10 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="J20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="1">
@@ -1313,10 +1313,10 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>100000</v>
       </c>
       <c r="L21" s="1">
@@ -1509,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L26" s="2">
         <v>6</v>
@@ -1704,10 +1704,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="L31" s="2">
         <v>6</v>
@@ -1742,10 +1742,10 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="J32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="1">
@@ -1781,10 +1781,10 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="J33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="1">
@@ -1820,10 +1820,10 @@
       <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="J34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="1">
@@ -1859,10 +1859,10 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="J35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="1">
@@ -1898,11 +1898,11 @@
       <c r="I36" s="1">
         <v>1</v>
       </c>
-      <c r="J36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>100000</v>
       </c>
       <c r="L36" s="1">
         <v>7</v>
@@ -1937,10 +1937,10 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="J37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="1">
@@ -1976,10 +1976,10 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="J38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="1">
@@ -2015,10 +2015,10 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="J39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="1">
@@ -2054,10 +2054,10 @@
       <c r="I40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="J40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="1">
@@ -2093,10 +2093,10 @@
       <c r="I41" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="2">
         <v>5</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="2">
         <v>100000</v>
       </c>
       <c r="L41" s="1">
@@ -2289,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L46" s="2">
         <v>8</v>
@@ -2484,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K51" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="L51" s="2">
         <v>8</v>
@@ -2522,10 +2522,10 @@
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="J52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="1">
@@ -2561,10 +2561,10 @@
       <c r="I53" s="1">
         <v>1</v>
       </c>
-      <c r="J53" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="J53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="1">
@@ -2600,10 +2600,10 @@
       <c r="I54" s="1">
         <v>1</v>
       </c>
-      <c r="J54" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K54" s="1">
+      <c r="J54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="1">
@@ -2639,10 +2639,10 @@
       <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K55" s="1">
+      <c r="J55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="1">
@@ -2678,11 +2678,11 @@
       <c r="I56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
+      <c r="J56" s="2">
+        <v>5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>100000</v>
       </c>
       <c r="L56" s="1">
         <v>9</v>
@@ -2717,10 +2717,10 @@
       <c r="I57" s="1">
         <v>1</v>
       </c>
-      <c r="J57" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K57" s="1">
+      <c r="J57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="1">
@@ -2756,10 +2756,10 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="J58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="1">
@@ -2795,10 +2795,10 @@
       <c r="I59" s="1">
         <v>1</v>
       </c>
-      <c r="J59" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="J59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="1">
@@ -2834,10 +2834,10 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="J60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="1">
@@ -2873,11 +2873,11 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="J61" s="1">
-        <v>4</v>
-      </c>
-      <c r="K61" s="1">
-        <v>2</v>
+      <c r="J61" s="2">
+        <v>5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>100000</v>
       </c>
       <c r="L61" s="1">
         <v>9</v>
@@ -3069,10 +3069,10 @@
         <v>1</v>
       </c>
       <c r="J66" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K66" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L66" s="2">
         <v>10</v>
@@ -3264,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="J71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K71" s="2">
-        <v>3</v>
+        <v>100000</v>
       </c>
       <c r="L71" s="2">
         <v>10</v>
@@ -3302,10 +3302,10 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J72" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K72" s="1">
+      <c r="J72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K72" s="2">
         <v>0</v>
       </c>
       <c r="L72" s="1">
@@ -3341,10 +3341,10 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K73" s="1">
+      <c r="J73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K73" s="2">
         <v>0</v>
       </c>
       <c r="L73" s="1">
@@ -3380,10 +3380,10 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="J74" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="J74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K74" s="2">
         <v>0</v>
       </c>
       <c r="L74" s="1">
@@ -3419,10 +3419,10 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="J75" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="J75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K75" s="2">
         <v>0</v>
       </c>
       <c r="L75" s="1">
@@ -3458,11 +3458,11 @@
       <c r="I76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
+      <c r="J76" s="2">
+        <v>5</v>
+      </c>
+      <c r="K76" s="2">
+        <v>100000</v>
       </c>
       <c r="L76" s="1">
         <v>11</v>
@@ -3497,10 +3497,10 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="J77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K77" s="2">
         <v>0</v>
       </c>
       <c r="L77" s="1">
@@ -3536,10 +3536,10 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="J78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K78" s="2">
         <v>0</v>
       </c>
       <c r="L78" s="1">
@@ -3575,10 +3575,10 @@
       <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K79" s="1">
+      <c r="J79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K79" s="2">
         <v>0</v>
       </c>
       <c r="L79" s="1">
@@ -3614,10 +3614,10 @@
       <c r="I80" s="1">
         <v>1</v>
       </c>
-      <c r="J80" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K80" s="1">
+      <c r="J80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K80" s="2">
         <v>0</v>
       </c>
       <c r="L80" s="1">
@@ -3653,11 +3653,11 @@
       <c r="I81" s="1">
         <v>1</v>
       </c>
-      <c r="J81" s="1">
-        <v>4</v>
-      </c>
-      <c r="K81" s="1">
+      <c r="J81" s="2">
         <v>5</v>
+      </c>
+      <c r="K81" s="2">
+        <v>100000</v>
       </c>
       <c r="L81" s="1">
         <v>11</v>
@@ -3849,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="J86" s="2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K86" s="2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L86" s="2">
         <v>12</v>
@@ -4044,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="J91" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K91" s="2">
-        <v>2</v>
+        <v>100000</v>
       </c>
       <c r="L91" s="2">
         <v>12</v>
@@ -4082,10 +4082,10 @@
       <c r="I92" s="1">
         <v>1</v>
       </c>
-      <c r="J92" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K92" s="1">
+      <c r="J92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K92" s="2">
         <v>0</v>
       </c>
       <c r="L92" s="1">
@@ -4121,10 +4121,10 @@
       <c r="I93" s="1">
         <v>1</v>
       </c>
-      <c r="J93" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K93" s="1">
+      <c r="J93" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K93" s="2">
         <v>0</v>
       </c>
       <c r="L93" s="1">
@@ -4160,10 +4160,10 @@
       <c r="I94" s="1">
         <v>1</v>
       </c>
-      <c r="J94" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K94" s="1">
+      <c r="J94" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K94" s="2">
         <v>0</v>
       </c>
       <c r="L94" s="1">
@@ -4199,10 +4199,10 @@
       <c r="I95" s="1">
         <v>1</v>
       </c>
-      <c r="J95" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K95" s="1">
+      <c r="J95" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K95" s="2">
         <v>0</v>
       </c>
       <c r="L95" s="1">
@@ -4238,11 +4238,11 @@
       <c r="I96" s="1">
         <v>1</v>
       </c>
-      <c r="J96" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K96" s="1">
-        <v>0</v>
+      <c r="J96" s="2">
+        <v>5</v>
+      </c>
+      <c r="K96" s="2">
+        <v>100000</v>
       </c>
       <c r="L96" s="1">
         <v>13</v>
@@ -4277,10 +4277,10 @@
       <c r="I97" s="1">
         <v>1</v>
       </c>
-      <c r="J97" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K97" s="1">
+      <c r="J97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K97" s="2">
         <v>0</v>
       </c>
       <c r="L97" s="1">
@@ -4316,10 +4316,10 @@
       <c r="I98" s="1">
         <v>1</v>
       </c>
-      <c r="J98" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K98" s="1">
+      <c r="J98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K98" s="2">
         <v>0</v>
       </c>
       <c r="L98" s="1">
@@ -4355,10 +4355,10 @@
       <c r="I99" s="1">
         <v>1</v>
       </c>
-      <c r="J99" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K99" s="1">
+      <c r="J99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K99" s="2">
         <v>0</v>
       </c>
       <c r="L99" s="1">
@@ -4394,10 +4394,10 @@
       <c r="I100" s="1">
         <v>1</v>
       </c>
-      <c r="J100" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K100" s="1">
+      <c r="J100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K100" s="2">
         <v>0</v>
       </c>
       <c r="L100" s="1">
@@ -4433,11 +4433,11 @@
       <c r="I101" s="1">
         <v>1</v>
       </c>
-      <c r="J101" s="1">
-        <v>14</v>
-      </c>
-      <c r="K101" s="1">
-        <v>3</v>
+      <c r="J101" s="2">
+        <v>5</v>
+      </c>
+      <c r="K101" s="2">
+        <v>100000</v>
       </c>
       <c r="L101" s="1">
         <v>13</v>
@@ -4629,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="J106" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K106" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106" s="1">
         <v>13</v>
@@ -4827,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="K111" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111" s="1">
         <v>13</v>
@@ -4862,10 +4862,10 @@
       <c r="I112" s="1">
         <v>1</v>
       </c>
-      <c r="J112" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K112" s="1">
+      <c r="J112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K112" s="2">
         <v>0</v>
       </c>
       <c r="L112" s="1">
@@ -4901,10 +4901,10 @@
       <c r="I113" s="1">
         <v>1</v>
       </c>
-      <c r="J113" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K113" s="1">
+      <c r="J113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K113" s="2">
         <v>0</v>
       </c>
       <c r="L113" s="1">
@@ -4940,10 +4940,10 @@
       <c r="I114" s="1">
         <v>1</v>
       </c>
-      <c r="J114" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K114" s="1">
+      <c r="J114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K114" s="2">
         <v>0</v>
       </c>
       <c r="L114" s="1">
@@ -4979,10 +4979,10 @@
       <c r="I115" s="1">
         <v>1</v>
       </c>
-      <c r="J115" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K115" s="1">
+      <c r="J115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K115" s="2">
         <v>0</v>
       </c>
       <c r="L115" s="1">
@@ -5018,11 +5018,11 @@
       <c r="I116" s="1">
         <v>1</v>
       </c>
-      <c r="J116" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K116" s="1">
-        <v>0</v>
+      <c r="J116" s="2">
+        <v>14</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2</v>
       </c>
       <c r="L116" s="1">
         <v>13</v>
@@ -5057,10 +5057,10 @@
       <c r="I117" s="1">
         <v>1</v>
       </c>
-      <c r="J117" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K117" s="1">
+      <c r="J117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K117" s="2">
         <v>0</v>
       </c>
       <c r="L117" s="1">
@@ -5096,10 +5096,10 @@
       <c r="I118" s="1">
         <v>1</v>
       </c>
-      <c r="J118" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K118" s="1">
+      <c r="J118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K118" s="2">
         <v>0</v>
       </c>
       <c r="L118" s="1">
@@ -5135,10 +5135,10 @@
       <c r="I119" s="1">
         <v>1</v>
       </c>
-      <c r="J119" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K119" s="1">
+      <c r="J119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K119" s="2">
         <v>0</v>
       </c>
       <c r="L119" s="1">
@@ -5174,10 +5174,10 @@
       <c r="I120" s="1">
         <v>1</v>
       </c>
-      <c r="J120" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K120" s="1">
+      <c r="J120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K120" s="2">
         <v>0</v>
       </c>
       <c r="L120" s="1">
@@ -5213,11 +5213,11 @@
       <c r="I121" s="1">
         <v>1</v>
       </c>
-      <c r="J121" s="1">
-        <v>14</v>
-      </c>
-      <c r="K121" s="1">
-        <v>3</v>
+      <c r="J121" s="2">
+        <v>14</v>
+      </c>
+      <c r="K121" s="2">
+        <v>2</v>
       </c>
       <c r="L121" s="1">
         <v>13</v>
@@ -5409,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K126" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L126" s="1">
         <v>13</v>
@@ -5607,7 +5607,7 @@
         <v>14</v>
       </c>
       <c r="K131" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L131" s="1">
         <v>13</v>
@@ -5642,10 +5642,10 @@
       <c r="I132" s="1">
         <v>1</v>
       </c>
-      <c r="J132" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K132" s="1">
+      <c r="J132" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K132" s="2">
         <v>0</v>
       </c>
       <c r="L132" s="1">
@@ -5681,10 +5681,10 @@
       <c r="I133" s="1">
         <v>1</v>
       </c>
-      <c r="J133" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K133" s="1">
+      <c r="J133" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K133" s="2">
         <v>0</v>
       </c>
       <c r="L133" s="1">
@@ -5720,10 +5720,10 @@
       <c r="I134" s="1">
         <v>1</v>
       </c>
-      <c r="J134" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K134" s="1">
+      <c r="J134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K134" s="2">
         <v>0</v>
       </c>
       <c r="L134" s="1">
@@ -5759,10 +5759,10 @@
       <c r="I135" s="1">
         <v>1</v>
       </c>
-      <c r="J135" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K135" s="1">
+      <c r="J135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K135" s="2">
         <v>0</v>
       </c>
       <c r="L135" s="1">
@@ -5798,11 +5798,11 @@
       <c r="I136" s="1">
         <v>1</v>
       </c>
-      <c r="J136" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K136" s="1">
-        <v>0</v>
+      <c r="J136" s="2">
+        <v>14</v>
+      </c>
+      <c r="K136" s="2">
+        <v>2</v>
       </c>
       <c r="L136" s="1">
         <v>13</v>
@@ -5837,10 +5837,10 @@
       <c r="I137" s="1">
         <v>1</v>
       </c>
-      <c r="J137" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K137" s="1">
+      <c r="J137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K137" s="2">
         <v>0</v>
       </c>
       <c r="L137" s="1">
@@ -5876,10 +5876,10 @@
       <c r="I138" s="1">
         <v>1</v>
       </c>
-      <c r="J138" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K138" s="1">
+      <c r="J138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K138" s="2">
         <v>0</v>
       </c>
       <c r="L138" s="1">
@@ -5915,10 +5915,10 @@
       <c r="I139" s="1">
         <v>1</v>
       </c>
-      <c r="J139" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K139" s="1">
+      <c r="J139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K139" s="2">
         <v>0</v>
       </c>
       <c r="L139" s="1">
@@ -5954,10 +5954,10 @@
       <c r="I140" s="1">
         <v>1</v>
       </c>
-      <c r="J140" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K140" s="1">
+      <c r="J140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K140" s="2">
         <v>0</v>
       </c>
       <c r="L140" s="1">
@@ -5993,11 +5993,11 @@
       <c r="I141" s="1">
         <v>1</v>
       </c>
-      <c r="J141" s="1">
-        <v>14</v>
-      </c>
-      <c r="K141" s="1">
-        <v>3</v>
+      <c r="J141" s="2">
+        <v>14</v>
+      </c>
+      <c r="K141" s="2">
+        <v>2</v>
       </c>
       <c r="L141" s="1">
         <v>13</v>
@@ -6189,10 +6189,10 @@
         <v>1</v>
       </c>
       <c r="J146" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K146" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L146" s="1">
         <v>13</v>
@@ -6387,7 +6387,7 @@
         <v>14</v>
       </c>
       <c r="K151" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L151" s="1">
         <v>13</v>
@@ -6422,10 +6422,10 @@
       <c r="I152" s="1">
         <v>1</v>
       </c>
-      <c r="J152" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K152" s="1">
+      <c r="J152" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K152" s="2">
         <v>0</v>
       </c>
       <c r="L152" s="1">
@@ -6461,10 +6461,10 @@
       <c r="I153" s="1">
         <v>1</v>
       </c>
-      <c r="J153" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K153" s="1">
+      <c r="J153" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K153" s="2">
         <v>0</v>
       </c>
       <c r="L153" s="1">
@@ -6500,10 +6500,10 @@
       <c r="I154" s="1">
         <v>1</v>
       </c>
-      <c r="J154" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K154" s="1">
+      <c r="J154" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K154" s="2">
         <v>0</v>
       </c>
       <c r="L154" s="1">
@@ -6539,10 +6539,10 @@
       <c r="I155" s="1">
         <v>1</v>
       </c>
-      <c r="J155" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K155" s="1">
+      <c r="J155" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K155" s="2">
         <v>0</v>
       </c>
       <c r="L155" s="1">
@@ -6578,11 +6578,11 @@
       <c r="I156" s="1">
         <v>1</v>
       </c>
-      <c r="J156" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K156" s="1">
-        <v>0</v>
+      <c r="J156" s="2">
+        <v>14</v>
+      </c>
+      <c r="K156" s="2">
+        <v>2</v>
       </c>
       <c r="L156" s="1">
         <v>13</v>
@@ -6617,10 +6617,10 @@
       <c r="I157" s="1">
         <v>1</v>
       </c>
-      <c r="J157" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K157" s="1">
+      <c r="J157" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K157" s="2">
         <v>0</v>
       </c>
       <c r="L157" s="1">
@@ -6656,10 +6656,10 @@
       <c r="I158" s="1">
         <v>1</v>
       </c>
-      <c r="J158" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K158" s="1">
+      <c r="J158" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K158" s="2">
         <v>0</v>
       </c>
       <c r="L158" s="1">
@@ -6695,10 +6695,10 @@
       <c r="I159" s="1">
         <v>1</v>
       </c>
-      <c r="J159" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K159" s="1">
+      <c r="J159" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K159" s="2">
         <v>0</v>
       </c>
       <c r="L159" s="1">
@@ -6734,10 +6734,10 @@
       <c r="I160" s="1">
         <v>1</v>
       </c>
-      <c r="J160" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K160" s="1">
+      <c r="J160" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K160" s="2">
         <v>0</v>
       </c>
       <c r="L160" s="1">
@@ -6773,11 +6773,11 @@
       <c r="I161" s="1">
         <v>1</v>
       </c>
-      <c r="J161" s="1">
-        <v>14</v>
-      </c>
-      <c r="K161" s="1">
-        <v>3</v>
+      <c r="J161" s="2">
+        <v>14</v>
+      </c>
+      <c r="K161" s="2">
+        <v>2</v>
       </c>
       <c r="L161" s="1">
         <v>13</v>
@@ -6969,10 +6969,10 @@
         <v>1</v>
       </c>
       <c r="J166" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K166" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L166" s="1">
         <v>13</v>
@@ -7167,7 +7167,7 @@
         <v>14</v>
       </c>
       <c r="K171" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L171" s="1">
         <v>13</v>
@@ -7202,10 +7202,10 @@
       <c r="I172" s="1">
         <v>1</v>
       </c>
-      <c r="J172" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K172" s="1">
+      <c r="J172" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K172" s="2">
         <v>0</v>
       </c>
       <c r="L172" s="1">
@@ -7241,10 +7241,10 @@
       <c r="I173" s="1">
         <v>1</v>
       </c>
-      <c r="J173" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K173" s="1">
+      <c r="J173" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K173" s="2">
         <v>0</v>
       </c>
       <c r="L173" s="1">
@@ -7280,10 +7280,10 @@
       <c r="I174" s="1">
         <v>1</v>
       </c>
-      <c r="J174" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K174" s="1">
+      <c r="J174" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K174" s="2">
         <v>0</v>
       </c>
       <c r="L174" s="1">
@@ -7319,10 +7319,10 @@
       <c r="I175" s="1">
         <v>1</v>
       </c>
-      <c r="J175" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K175" s="1">
+      <c r="J175" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K175" s="2">
         <v>0</v>
       </c>
       <c r="L175" s="1">
@@ -7358,11 +7358,11 @@
       <c r="I176" s="1">
         <v>1</v>
       </c>
-      <c r="J176" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K176" s="1">
-        <v>0</v>
+      <c r="J176" s="2">
+        <v>14</v>
+      </c>
+      <c r="K176" s="2">
+        <v>2</v>
       </c>
       <c r="L176" s="1">
         <v>13</v>
@@ -7397,10 +7397,10 @@
       <c r="I177" s="1">
         <v>1</v>
       </c>
-      <c r="J177" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K177" s="1">
+      <c r="J177" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K177" s="2">
         <v>0</v>
       </c>
       <c r="L177" s="1">
@@ -7436,10 +7436,10 @@
       <c r="I178" s="1">
         <v>1</v>
       </c>
-      <c r="J178" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K178" s="1">
+      <c r="J178" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K178" s="2">
         <v>0</v>
       </c>
       <c r="L178" s="1">
@@ -7475,10 +7475,10 @@
       <c r="I179" s="1">
         <v>1</v>
       </c>
-      <c r="J179" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K179" s="1">
+      <c r="J179" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K179" s="2">
         <v>0</v>
       </c>
       <c r="L179" s="1">
@@ -7514,10 +7514,10 @@
       <c r="I180" s="1">
         <v>1</v>
       </c>
-      <c r="J180" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K180" s="1">
+      <c r="J180" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K180" s="2">
         <v>0</v>
       </c>
       <c r="L180" s="1">
@@ -7553,11 +7553,11 @@
       <c r="I181" s="1">
         <v>1</v>
       </c>
-      <c r="J181" s="1">
-        <v>14</v>
-      </c>
-      <c r="K181" s="1">
-        <v>3</v>
+      <c r="J181" s="2">
+        <v>14</v>
+      </c>
+      <c r="K181" s="2">
+        <v>2</v>
       </c>
       <c r="L181" s="1">
         <v>13</v>
@@ -7749,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="J186" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K186" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L186" s="1">
         <v>13</v>
@@ -7947,7 +7947,7 @@
         <v>14</v>
       </c>
       <c r="K191" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L191" s="1">
         <v>13</v>
@@ -7982,10 +7982,10 @@
       <c r="I192" s="1">
         <v>1</v>
       </c>
-      <c r="J192" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K192" s="1">
+      <c r="J192" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K192" s="2">
         <v>0</v>
       </c>
       <c r="L192" s="1">
@@ -8021,10 +8021,10 @@
       <c r="I193" s="1">
         <v>1</v>
       </c>
-      <c r="J193" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K193" s="1">
+      <c r="J193" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K193" s="2">
         <v>0</v>
       </c>
       <c r="L193" s="1">
@@ -8060,10 +8060,10 @@
       <c r="I194" s="1">
         <v>1</v>
       </c>
-      <c r="J194" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K194" s="1">
+      <c r="J194" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K194" s="2">
         <v>0</v>
       </c>
       <c r="L194" s="1">
@@ -8099,10 +8099,10 @@
       <c r="I195" s="1">
         <v>1</v>
       </c>
-      <c r="J195" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K195" s="1">
+      <c r="J195" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K195" s="2">
         <v>0</v>
       </c>
       <c r="L195" s="1">
@@ -8138,11 +8138,11 @@
       <c r="I196" s="1">
         <v>1</v>
       </c>
-      <c r="J196" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K196" s="1">
-        <v>0</v>
+      <c r="J196" s="2">
+        <v>14</v>
+      </c>
+      <c r="K196" s="2">
+        <v>2</v>
       </c>
       <c r="L196" s="1">
         <v>13</v>
@@ -8177,10 +8177,10 @@
       <c r="I197" s="1">
         <v>1</v>
       </c>
-      <c r="J197" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K197" s="1">
+      <c r="J197" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K197" s="2">
         <v>0</v>
       </c>
       <c r="L197" s="1">
@@ -8216,10 +8216,10 @@
       <c r="I198" s="1">
         <v>1</v>
       </c>
-      <c r="J198" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K198" s="1">
+      <c r="J198" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K198" s="2">
         <v>0</v>
       </c>
       <c r="L198" s="1">
@@ -8255,10 +8255,10 @@
       <c r="I199" s="1">
         <v>1</v>
       </c>
-      <c r="J199" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K199" s="1">
+      <c r="J199" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K199" s="2">
         <v>0</v>
       </c>
       <c r="L199" s="1">
@@ -8294,10 +8294,10 @@
       <c r="I200" s="1">
         <v>1</v>
       </c>
-      <c r="J200" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K200" s="1">
+      <c r="J200" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K200" s="2">
         <v>0</v>
       </c>
       <c r="L200" s="1">
@@ -8333,11 +8333,11 @@
       <c r="I201" s="1">
         <v>1</v>
       </c>
-      <c r="J201" s="1">
-        <v>14</v>
-      </c>
-      <c r="K201" s="1">
-        <v>3</v>
+      <c r="J201" s="2">
+        <v>14</v>
+      </c>
+      <c r="K201" s="2">
+        <v>2</v>
       </c>
       <c r="L201" s="1">
         <v>13</v>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D7AC7-0E69-4CA7-B009-D82F0216A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D4810-C681-42C8-AE51-C38F438F9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J188" sqref="J188"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6983,7 +6983,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" ref="B167:B201" si="5">B166*1.8</f>
+        <f t="shared" ref="B167:B191" si="5">B166*1.8</f>
         <v>2.0194853561156423E+40</v>
       </c>
       <c r="C167" s="2">
@@ -7958,8 +7958,8 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <f t="shared" si="5"/>
-        <v>4.8646694524959817E+46</v>
+        <f>B191*1.3</f>
+        <v>3.5133723823582091E+46</v>
       </c>
       <c r="C192" s="1">
         <v>30</v>
@@ -7997,8 +7997,8 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" si="5"/>
-        <v>8.756405014492767E+46</v>
+        <f t="shared" ref="B193:B251" si="6">B192*1.3</f>
+        <v>4.5673840970656724E+46</v>
       </c>
       <c r="C193" s="1">
         <v>30</v>
@@ -8036,8 +8036,8 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5761529026086981E+47</v>
+        <f t="shared" si="6"/>
+        <v>5.9375993261853742E+46</v>
       </c>
       <c r="C194" s="1">
         <v>30</v>
@@ -8075,8 +8075,8 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" si="5"/>
-        <v>2.8370752246956568E+47</v>
+        <f t="shared" si="6"/>
+        <v>7.7188791240409864E+46</v>
       </c>
       <c r="C195" s="1">
         <v>30</v>
@@ -8114,8 +8114,8 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" si="5"/>
-        <v>5.1067354044521825E+47</v>
+        <f t="shared" si="6"/>
+        <v>1.0034542861253284E+47</v>
       </c>
       <c r="C196" s="1">
         <v>30</v>
@@ -8153,8 +8153,8 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <f t="shared" si="5"/>
-        <v>9.1921237280139284E+47</v>
+        <f t="shared" si="6"/>
+        <v>1.3044905719629269E+47</v>
       </c>
       <c r="C197" s="1">
         <v>30</v>
@@ -8192,8 +8192,8 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6545822710425073E+48</v>
+        <f t="shared" si="6"/>
+        <v>1.6958377435518049E+47</v>
       </c>
       <c r="C198" s="1">
         <v>30</v>
@@ -8231,8 +8231,8 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <f t="shared" si="5"/>
-        <v>2.9782480878765134E+48</v>
+        <f t="shared" si="6"/>
+        <v>2.2045890666173463E+47</v>
       </c>
       <c r="C199" s="1">
         <v>30</v>
@@ -8270,8 +8270,8 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <f t="shared" si="5"/>
-        <v>5.360846558177724E+48</v>
+        <f t="shared" si="6"/>
+        <v>2.8659657866025503E+47</v>
       </c>
       <c r="C200" s="1">
         <v>30</v>
@@ -8309,8 +8309,8 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <f t="shared" si="5"/>
-        <v>9.6495238047199036E+48</v>
+        <f t="shared" si="6"/>
+        <v>3.7257555225833156E+47</v>
       </c>
       <c r="C201" s="1">
         <v>30</v>
@@ -8340,6 +8340,1956 @@
         <v>2</v>
       </c>
       <c r="L201" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <f t="shared" si="6"/>
+        <v>4.8434821793583104E+47</v>
+      </c>
+      <c r="C202" s="1">
+        <v>30</v>
+      </c>
+      <c r="D202" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>3</v>
+      </c>
+      <c r="F202" s="1">
+        <v>14</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
+      <c r="H202" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I202" s="1">
+        <v>1</v>
+      </c>
+      <c r="J202" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K202" s="2">
+        <v>0</v>
+      </c>
+      <c r="L202" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2965268331658037E+47</v>
+      </c>
+      <c r="C203" s="1">
+        <v>30</v>
+      </c>
+      <c r="D203" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E203" s="1">
+        <v>3</v>
+      </c>
+      <c r="F203" s="1">
+        <v>14</v>
+      </c>
+      <c r="G203" s="1">
+        <v>1</v>
+      </c>
+      <c r="H203" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J203" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K203" s="2">
+        <v>0</v>
+      </c>
+      <c r="L203" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <f t="shared" si="6"/>
+        <v>8.1854848831155449E+47</v>
+      </c>
+      <c r="C204" s="1">
+        <v>30</v>
+      </c>
+      <c r="D204" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>3</v>
+      </c>
+      <c r="F204" s="1">
+        <v>14</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1</v>
+      </c>
+      <c r="H204" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K204" s="2">
+        <v>0</v>
+      </c>
+      <c r="L204" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0641130348050208E+48</v>
+      </c>
+      <c r="C205" s="1">
+        <v>30</v>
+      </c>
+      <c r="D205" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E205" s="1">
+        <v>3</v>
+      </c>
+      <c r="F205" s="1">
+        <v>14</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1</v>
+      </c>
+      <c r="H205" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K205" s="2">
+        <v>0</v>
+      </c>
+      <c r="L205" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3833469452465271E+48</v>
+      </c>
+      <c r="C206" s="1">
+        <v>30</v>
+      </c>
+      <c r="D206" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E206" s="1">
+        <v>3</v>
+      </c>
+      <c r="F206" s="1">
+        <v>14</v>
+      </c>
+      <c r="G206" s="1">
+        <v>1</v>
+      </c>
+      <c r="H206" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I206" s="1">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2">
+        <v>14</v>
+      </c>
+      <c r="K206" s="2">
+        <v>2</v>
+      </c>
+      <c r="L206" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7983510288204853E+48</v>
+      </c>
+      <c r="C207" s="1">
+        <v>30</v>
+      </c>
+      <c r="D207" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>3</v>
+      </c>
+      <c r="F207" s="1">
+        <v>14</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+      <c r="H207" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K207" s="2">
+        <v>0</v>
+      </c>
+      <c r="L207" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <f t="shared" si="6"/>
+        <v>2.337856337466631E+48</v>
+      </c>
+      <c r="C208" s="1">
+        <v>30</v>
+      </c>
+      <c r="D208" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>3</v>
+      </c>
+      <c r="F208" s="1">
+        <v>14</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
+      </c>
+      <c r="H208" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I208" s="1">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K208" s="2">
+        <v>0</v>
+      </c>
+      <c r="L208" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0392132387066205E+48</v>
+      </c>
+      <c r="C209" s="1">
+        <v>30</v>
+      </c>
+      <c r="D209" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E209" s="1">
+        <v>3</v>
+      </c>
+      <c r="F209" s="1">
+        <v>14</v>
+      </c>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+      <c r="H209" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I209" s="1">
+        <v>1</v>
+      </c>
+      <c r="J209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K209" s="2">
+        <v>0</v>
+      </c>
+      <c r="L209" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9509772103186065E+48</v>
+      </c>
+      <c r="C210" s="1">
+        <v>30</v>
+      </c>
+      <c r="D210" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>3</v>
+      </c>
+      <c r="F210" s="1">
+        <v>14</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+      <c r="H210" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I210" s="1">
+        <v>1</v>
+      </c>
+      <c r="J210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K210" s="2">
+        <v>0</v>
+      </c>
+      <c r="L210" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <f t="shared" si="6"/>
+        <v>5.1362703734141884E+48</v>
+      </c>
+      <c r="C211" s="1">
+        <v>30</v>
+      </c>
+      <c r="D211" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E211" s="1">
+        <v>3</v>
+      </c>
+      <c r="F211" s="1">
+        <v>14</v>
+      </c>
+      <c r="G211" s="1">
+        <v>1</v>
+      </c>
+      <c r="H211" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I211" s="1">
+        <v>1</v>
+      </c>
+      <c r="J211" s="2">
+        <v>14</v>
+      </c>
+      <c r="K211" s="2">
+        <v>2</v>
+      </c>
+      <c r="L211" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <f t="shared" si="6"/>
+        <v>6.6771514854384457E+48</v>
+      </c>
+      <c r="C212" s="1">
+        <v>30</v>
+      </c>
+      <c r="D212" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>14</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1</v>
+      </c>
+      <c r="H212" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I212" s="1">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K212" s="2">
+        <v>0</v>
+      </c>
+      <c r="L212" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <f t="shared" si="6"/>
+        <v>8.6802969310699797E+48</v>
+      </c>
+      <c r="C213" s="1">
+        <v>30</v>
+      </c>
+      <c r="D213" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>3</v>
+      </c>
+      <c r="F213" s="1">
+        <v>14</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+      <c r="H213" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I213" s="1">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K213" s="2">
+        <v>0</v>
+      </c>
+      <c r="L213" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1284386010390974E+49</v>
+      </c>
+      <c r="C214" s="1">
+        <v>30</v>
+      </c>
+      <c r="D214" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>3</v>
+      </c>
+      <c r="F214" s="1">
+        <v>14</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1</v>
+      </c>
+      <c r="H214" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K214" s="2">
+        <v>0</v>
+      </c>
+      <c r="L214" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4669701813508267E+49</v>
+      </c>
+      <c r="C215" s="1">
+        <v>30</v>
+      </c>
+      <c r="D215" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E215" s="1">
+        <v>3</v>
+      </c>
+      <c r="F215" s="1">
+        <v>14</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1</v>
+      </c>
+      <c r="H215" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I215" s="1">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K215" s="2">
+        <v>0</v>
+      </c>
+      <c r="L215" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9070612357560748E+49</v>
+      </c>
+      <c r="C216" s="1">
+        <v>30</v>
+      </c>
+      <c r="D216" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E216" s="1">
+        <v>3</v>
+      </c>
+      <c r="F216" s="1">
+        <v>14</v>
+      </c>
+      <c r="G216" s="1">
+        <v>1</v>
+      </c>
+      <c r="H216" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I216" s="1">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2">
+        <v>14</v>
+      </c>
+      <c r="K216" s="2">
+        <v>2</v>
+      </c>
+      <c r="L216" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4791796064828975E+49</v>
+      </c>
+      <c r="C217" s="1">
+        <v>30</v>
+      </c>
+      <c r="D217" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>3</v>
+      </c>
+      <c r="F217" s="1">
+        <v>14</v>
+      </c>
+      <c r="G217" s="1">
+        <v>1</v>
+      </c>
+      <c r="H217" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I217" s="1">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K217" s="2">
+        <v>0</v>
+      </c>
+      <c r="L217" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2229334884277668E+49</v>
+      </c>
+      <c r="C218" s="1">
+        <v>30</v>
+      </c>
+      <c r="D218" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>3</v>
+      </c>
+      <c r="F218" s="1">
+        <v>14</v>
+      </c>
+      <c r="G218" s="1">
+        <v>1</v>
+      </c>
+      <c r="H218" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I218" s="1">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K218" s="2">
+        <v>0</v>
+      </c>
+      <c r="L218" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <f t="shared" si="6"/>
+        <v>4.189813534956097E+49</v>
+      </c>
+      <c r="C219" s="1">
+        <v>30</v>
+      </c>
+      <c r="D219" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E219" s="1">
+        <v>3</v>
+      </c>
+      <c r="F219" s="1">
+        <v>14</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1</v>
+      </c>
+      <c r="H219" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K219" s="2">
+        <v>0</v>
+      </c>
+      <c r="L219" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <f t="shared" si="6"/>
+        <v>5.4467575954429265E+49</v>
+      </c>
+      <c r="C220" s="1">
+        <v>30</v>
+      </c>
+      <c r="D220" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E220" s="1">
+        <v>3</v>
+      </c>
+      <c r="F220" s="1">
+        <v>14</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1</v>
+      </c>
+      <c r="H220" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K220" s="2">
+        <v>0</v>
+      </c>
+      <c r="L220" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <f t="shared" si="6"/>
+        <v>7.080784874075805E+49</v>
+      </c>
+      <c r="C221" s="1">
+        <v>30</v>
+      </c>
+      <c r="D221" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E221" s="1">
+        <v>3</v>
+      </c>
+      <c r="F221" s="1">
+        <v>14</v>
+      </c>
+      <c r="G221" s="1">
+        <v>1</v>
+      </c>
+      <c r="H221" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2">
+        <v>14</v>
+      </c>
+      <c r="K221" s="2">
+        <v>2</v>
+      </c>
+      <c r="L221" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2050203362985472E+49</v>
+      </c>
+      <c r="C222" s="1">
+        <v>30</v>
+      </c>
+      <c r="D222" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3</v>
+      </c>
+      <c r="F222" s="1">
+        <v>14</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="H222" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I222" s="1">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K222" s="2">
+        <v>0</v>
+      </c>
+      <c r="L222" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1966526437188112E+50</v>
+      </c>
+      <c r="C223" s="1">
+        <v>30</v>
+      </c>
+      <c r="D223" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E223" s="1">
+        <v>3</v>
+      </c>
+      <c r="F223" s="1">
+        <v>14</v>
+      </c>
+      <c r="G223" s="1">
+        <v>1</v>
+      </c>
+      <c r="H223" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I223" s="1">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K223" s="2">
+        <v>0</v>
+      </c>
+      <c r="L223" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5556484368344546E+50</v>
+      </c>
+      <c r="C224" s="1">
+        <v>30</v>
+      </c>
+      <c r="D224" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E224" s="1">
+        <v>3</v>
+      </c>
+      <c r="F224" s="1">
+        <v>14</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1</v>
+      </c>
+      <c r="H224" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I224" s="1">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K224" s="2">
+        <v>0</v>
+      </c>
+      <c r="L224" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0223429678847913E+50</v>
+      </c>
+      <c r="C225" s="1">
+        <v>30</v>
+      </c>
+      <c r="D225" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>3</v>
+      </c>
+      <c r="F225" s="1">
+        <v>14</v>
+      </c>
+      <c r="G225" s="1">
+        <v>1</v>
+      </c>
+      <c r="H225" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I225" s="1">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+      <c r="L225" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6290458582502288E+50</v>
+      </c>
+      <c r="C226" s="1">
+        <v>30</v>
+      </c>
+      <c r="D226" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E226" s="1">
+        <v>3</v>
+      </c>
+      <c r="F226" s="1">
+        <v>14</v>
+      </c>
+      <c r="G226" s="1">
+        <v>1</v>
+      </c>
+      <c r="H226" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1</v>
+      </c>
+      <c r="J226" s="2">
+        <v>14</v>
+      </c>
+      <c r="K226" s="2">
+        <v>2</v>
+      </c>
+      <c r="L226" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4177596157252977E+50</v>
+      </c>
+      <c r="C227" s="1">
+        <v>30</v>
+      </c>
+      <c r="D227" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>3</v>
+      </c>
+      <c r="F227" s="1">
+        <v>14</v>
+      </c>
+      <c r="G227" s="1">
+        <v>1</v>
+      </c>
+      <c r="H227" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I227" s="1">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K227" s="2">
+        <v>0</v>
+      </c>
+      <c r="L227" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4430875004428869E+50</v>
+      </c>
+      <c r="C228" s="1">
+        <v>30</v>
+      </c>
+      <c r="D228" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>3</v>
+      </c>
+      <c r="F228" s="1">
+        <v>14</v>
+      </c>
+      <c r="G228" s="1">
+        <v>1</v>
+      </c>
+      <c r="H228" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I228" s="1">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K228" s="2">
+        <v>0</v>
+      </c>
+      <c r="L228" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7760137505757534E+50</v>
+      </c>
+      <c r="C229" s="1">
+        <v>30</v>
+      </c>
+      <c r="D229" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E229" s="1">
+        <v>3</v>
+      </c>
+      <c r="F229" s="1">
+        <v>14</v>
+      </c>
+      <c r="G229" s="1">
+        <v>1</v>
+      </c>
+      <c r="H229" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I229" s="1">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K229" s="2">
+        <v>0</v>
+      </c>
+      <c r="L229" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <f t="shared" si="6"/>
+        <v>7.5088178757484806E+50</v>
+      </c>
+      <c r="C230" s="1">
+        <v>30</v>
+      </c>
+      <c r="D230" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E230" s="1">
+        <v>3</v>
+      </c>
+      <c r="F230" s="1">
+        <v>14</v>
+      </c>
+      <c r="G230" s="1">
+        <v>1</v>
+      </c>
+      <c r="H230" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I230" s="1">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K230" s="2">
+        <v>0</v>
+      </c>
+      <c r="L230" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <f t="shared" si="6"/>
+        <v>9.7614632384730249E+50</v>
+      </c>
+      <c r="C231" s="1">
+        <v>30</v>
+      </c>
+      <c r="D231" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E231" s="1">
+        <v>3</v>
+      </c>
+      <c r="F231" s="1">
+        <v>14</v>
+      </c>
+      <c r="G231" s="1">
+        <v>1</v>
+      </c>
+      <c r="H231" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I231" s="1">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2">
+        <v>14</v>
+      </c>
+      <c r="K231" s="2">
+        <v>2</v>
+      </c>
+      <c r="L231" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2689902210014932E+51</v>
+      </c>
+      <c r="C232" s="1">
+        <v>30</v>
+      </c>
+      <c r="D232" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>3</v>
+      </c>
+      <c r="F232" s="1">
+        <v>14</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1</v>
+      </c>
+      <c r="H232" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I232" s="1">
+        <v>1</v>
+      </c>
+      <c r="J232" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K232" s="2">
+        <v>0</v>
+      </c>
+      <c r="L232" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6496872873019411E+51</v>
+      </c>
+      <c r="C233" s="1">
+        <v>30</v>
+      </c>
+      <c r="D233" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>3</v>
+      </c>
+      <c r="F233" s="1">
+        <v>14</v>
+      </c>
+      <c r="G233" s="1">
+        <v>1</v>
+      </c>
+      <c r="H233" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I233" s="1">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K233" s="2">
+        <v>0</v>
+      </c>
+      <c r="L233" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1445934734925235E+51</v>
+      </c>
+      <c r="C234" s="1">
+        <v>30</v>
+      </c>
+      <c r="D234" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>3</v>
+      </c>
+      <c r="F234" s="1">
+        <v>14</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1</v>
+      </c>
+      <c r="H234" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I234" s="1">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K234" s="2">
+        <v>0</v>
+      </c>
+      <c r="L234" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7879715155402806E+51</v>
+      </c>
+      <c r="C235" s="1">
+        <v>30</v>
+      </c>
+      <c r="D235" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E235" s="1">
+        <v>3</v>
+      </c>
+      <c r="F235" s="1">
+        <v>14</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1</v>
+      </c>
+      <c r="H235" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I235" s="1">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K235" s="2">
+        <v>0</v>
+      </c>
+      <c r="L235" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <f t="shared" si="6"/>
+        <v>3.6243629702023647E+51</v>
+      </c>
+      <c r="C236" s="1">
+        <v>30</v>
+      </c>
+      <c r="D236" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E236" s="1">
+        <v>3</v>
+      </c>
+      <c r="F236" s="1">
+        <v>14</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1</v>
+      </c>
+      <c r="H236" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I236" s="1">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2">
+        <v>14</v>
+      </c>
+      <c r="K236" s="2">
+        <v>2</v>
+      </c>
+      <c r="L236" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <f t="shared" si="6"/>
+        <v>4.7116718612630743E+51</v>
+      </c>
+      <c r="C237" s="1">
+        <v>30</v>
+      </c>
+      <c r="D237" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>3</v>
+      </c>
+      <c r="F237" s="1">
+        <v>14</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1</v>
+      </c>
+      <c r="H237" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I237" s="1">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K237" s="2">
+        <v>0</v>
+      </c>
+      <c r="L237" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <f t="shared" si="6"/>
+        <v>6.1251734196419969E+51</v>
+      </c>
+      <c r="C238" s="1">
+        <v>30</v>
+      </c>
+      <c r="D238" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>3</v>
+      </c>
+      <c r="F238" s="1">
+        <v>14</v>
+      </c>
+      <c r="G238" s="1">
+        <v>1</v>
+      </c>
+      <c r="H238" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I238" s="1">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K238" s="2">
+        <v>0</v>
+      </c>
+      <c r="L238" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <f t="shared" si="6"/>
+        <v>7.962725445534596E+51</v>
+      </c>
+      <c r="C239" s="1">
+        <v>30</v>
+      </c>
+      <c r="D239" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E239" s="1">
+        <v>3</v>
+      </c>
+      <c r="F239" s="1">
+        <v>14</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1</v>
+      </c>
+      <c r="H239" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K239" s="2">
+        <v>0</v>
+      </c>
+      <c r="L239" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0351543079194975E+52</v>
+      </c>
+      <c r="C240" s="1">
+        <v>30</v>
+      </c>
+      <c r="D240" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E240" s="1">
+        <v>3</v>
+      </c>
+      <c r="F240" s="1">
+        <v>14</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1</v>
+      </c>
+      <c r="H240" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I240" s="1">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K240" s="2">
+        <v>0</v>
+      </c>
+      <c r="L240" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3457006002953468E+52</v>
+      </c>
+      <c r="C241" s="1">
+        <v>30</v>
+      </c>
+      <c r="D241" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E241" s="1">
+        <v>3</v>
+      </c>
+      <c r="F241" s="1">
+        <v>14</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1</v>
+      </c>
+      <c r="H241" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I241" s="1">
+        <v>1</v>
+      </c>
+      <c r="J241" s="2">
+        <v>14</v>
+      </c>
+      <c r="K241" s="2">
+        <v>2</v>
+      </c>
+      <c r="L241" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7494107803839509E+52</v>
+      </c>
+      <c r="C242" s="1">
+        <v>30</v>
+      </c>
+      <c r="D242" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>3</v>
+      </c>
+      <c r="F242" s="1">
+        <v>14</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1</v>
+      </c>
+      <c r="H242" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I242" s="1">
+        <v>1</v>
+      </c>
+      <c r="J242" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
+      <c r="L242" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2742340144991362E+52</v>
+      </c>
+      <c r="C243" s="1">
+        <v>30</v>
+      </c>
+      <c r="D243" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E243" s="1">
+        <v>3</v>
+      </c>
+      <c r="F243" s="1">
+        <v>14</v>
+      </c>
+      <c r="G243" s="1">
+        <v>1</v>
+      </c>
+      <c r="H243" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I243" s="1">
+        <v>1</v>
+      </c>
+      <c r="J243" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K243" s="2">
+        <v>0</v>
+      </c>
+      <c r="L243" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9565042188488771E+52</v>
+      </c>
+      <c r="C244" s="1">
+        <v>30</v>
+      </c>
+      <c r="D244" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E244" s="1">
+        <v>3</v>
+      </c>
+      <c r="F244" s="1">
+        <v>14</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1</v>
+      </c>
+      <c r="H244" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I244" s="1">
+        <v>1</v>
+      </c>
+      <c r="J244" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K244" s="2">
+        <v>0</v>
+      </c>
+      <c r="L244" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8434554845035401E+52</v>
+      </c>
+      <c r="C245" s="1">
+        <v>30</v>
+      </c>
+      <c r="D245" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E245" s="1">
+        <v>3</v>
+      </c>
+      <c r="F245" s="1">
+        <v>14</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1</v>
+      </c>
+      <c r="H245" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I245" s="1">
+        <v>1</v>
+      </c>
+      <c r="J245" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K245" s="2">
+        <v>0</v>
+      </c>
+      <c r="L245" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9964921298546028E+52</v>
+      </c>
+      <c r="C246" s="1">
+        <v>30</v>
+      </c>
+      <c r="D246" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E246" s="1">
+        <v>3</v>
+      </c>
+      <c r="F246" s="1">
+        <v>14</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1</v>
+      </c>
+      <c r="H246" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I246" s="1">
+        <v>1</v>
+      </c>
+      <c r="J246" s="2">
+        <v>14</v>
+      </c>
+      <c r="K246" s="2">
+        <v>2</v>
+      </c>
+      <c r="L246" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <f t="shared" si="6"/>
+        <v>6.4954397688109835E+52</v>
+      </c>
+      <c r="C247" s="1">
+        <v>30</v>
+      </c>
+      <c r="D247" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>3</v>
+      </c>
+      <c r="F247" s="1">
+        <v>14</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1</v>
+      </c>
+      <c r="H247" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I247" s="1">
+        <v>1</v>
+      </c>
+      <c r="J247" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K247" s="2">
+        <v>0</v>
+      </c>
+      <c r="L247" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <f t="shared" si="6"/>
+        <v>8.4440716994542788E+52</v>
+      </c>
+      <c r="C248" s="1">
+        <v>30</v>
+      </c>
+      <c r="D248" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>3</v>
+      </c>
+      <c r="F248" s="1">
+        <v>14</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1</v>
+      </c>
+      <c r="H248" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I248" s="1">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K248" s="2">
+        <v>0</v>
+      </c>
+      <c r="L248" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0977293209290563E+53</v>
+      </c>
+      <c r="C249" s="1">
+        <v>30</v>
+      </c>
+      <c r="D249" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>3</v>
+      </c>
+      <c r="F249" s="1">
+        <v>14</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1</v>
+      </c>
+      <c r="H249" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I249" s="1">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K249" s="2">
+        <v>0</v>
+      </c>
+      <c r="L249" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4270481172077732E+53</v>
+      </c>
+      <c r="C250" s="1">
+        <v>30</v>
+      </c>
+      <c r="D250" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E250" s="1">
+        <v>3</v>
+      </c>
+      <c r="F250" s="1">
+        <v>14</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1</v>
+      </c>
+      <c r="H250" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I250" s="1">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K250" s="2">
+        <v>0</v>
+      </c>
+      <c r="L250" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8551625523701052E+53</v>
+      </c>
+      <c r="C251" s="1">
+        <v>30</v>
+      </c>
+      <c r="D251" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E251" s="1">
+        <v>3</v>
+      </c>
+      <c r="F251" s="1">
+        <v>14</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1</v>
+      </c>
+      <c r="H251" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I251" s="1">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2">
+        <v>14</v>
+      </c>
+      <c r="K251" s="2">
+        <v>2</v>
+      </c>
+      <c r="L251" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D4810-C681-42C8-AE51-C38F438F9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE7348-DC25-4D09-BC98-8E341F6D7010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10293,6 +10293,786 @@
         <v>13</v>
       </c>
     </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <f>B251*1.5</f>
+        <v>2.7827438285551577E+53</v>
+      </c>
+      <c r="C252" s="1">
+        <v>30</v>
+      </c>
+      <c r="D252" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>3</v>
+      </c>
+      <c r="F252" s="1">
+        <v>14</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1</v>
+      </c>
+      <c r="H252" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I252" s="1">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K252" s="2">
+        <v>0</v>
+      </c>
+      <c r="L252" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <f t="shared" ref="B253:B271" si="7">B252*1.5</f>
+        <v>4.1741157428327365E+53</v>
+      </c>
+      <c r="C253" s="1">
+        <v>30</v>
+      </c>
+      <c r="D253" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>3</v>
+      </c>
+      <c r="F253" s="1">
+        <v>14</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1</v>
+      </c>
+      <c r="H253" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I253" s="1">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K253" s="2">
+        <v>0</v>
+      </c>
+      <c r="L253" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <f t="shared" si="7"/>
+        <v>6.2611736142491048E+53</v>
+      </c>
+      <c r="C254" s="1">
+        <v>30</v>
+      </c>
+      <c r="D254" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>3</v>
+      </c>
+      <c r="F254" s="1">
+        <v>14</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1</v>
+      </c>
+      <c r="H254" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I254" s="1">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K254" s="2">
+        <v>0</v>
+      </c>
+      <c r="L254" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <f t="shared" si="7"/>
+        <v>9.3917604213736567E+53</v>
+      </c>
+      <c r="C255" s="1">
+        <v>30</v>
+      </c>
+      <c r="D255" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E255" s="1">
+        <v>3</v>
+      </c>
+      <c r="F255" s="1">
+        <v>14</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1</v>
+      </c>
+      <c r="H255" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I255" s="1">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K255" s="2">
+        <v>0</v>
+      </c>
+      <c r="L255" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4087640632060485E+54</v>
+      </c>
+      <c r="C256" s="1">
+        <v>30</v>
+      </c>
+      <c r="D256" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E256" s="1">
+        <v>3</v>
+      </c>
+      <c r="F256" s="1">
+        <v>14</v>
+      </c>
+      <c r="G256" s="1">
+        <v>1</v>
+      </c>
+      <c r="H256" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I256" s="1">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2">
+        <v>14</v>
+      </c>
+      <c r="K256" s="2">
+        <v>2</v>
+      </c>
+      <c r="L256" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1131460948090729E+54</v>
+      </c>
+      <c r="C257" s="1">
+        <v>30</v>
+      </c>
+      <c r="D257" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>3</v>
+      </c>
+      <c r="F257" s="1">
+        <v>14</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1</v>
+      </c>
+      <c r="H257" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I257" s="1">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K257" s="2">
+        <v>0</v>
+      </c>
+      <c r="L257" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1697191422136094E+54</v>
+      </c>
+      <c r="C258" s="1">
+        <v>30</v>
+      </c>
+      <c r="D258" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>3</v>
+      </c>
+      <c r="F258" s="1">
+        <v>14</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1</v>
+      </c>
+      <c r="H258" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I258" s="1">
+        <v>1</v>
+      </c>
+      <c r="J258" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K258" s="2">
+        <v>0</v>
+      </c>
+      <c r="L258" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <f t="shared" si="7"/>
+        <v>4.7545787133204141E+54</v>
+      </c>
+      <c r="C259" s="1">
+        <v>30</v>
+      </c>
+      <c r="D259" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E259" s="1">
+        <v>3</v>
+      </c>
+      <c r="F259" s="1">
+        <v>14</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1</v>
+      </c>
+      <c r="H259" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I259" s="1">
+        <v>1</v>
+      </c>
+      <c r="J259" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K259" s="2">
+        <v>0</v>
+      </c>
+      <c r="L259" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <f t="shared" si="7"/>
+        <v>7.1318680699806208E+54</v>
+      </c>
+      <c r="C260" s="1">
+        <v>30</v>
+      </c>
+      <c r="D260" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E260" s="1">
+        <v>3</v>
+      </c>
+      <c r="F260" s="1">
+        <v>14</v>
+      </c>
+      <c r="G260" s="1">
+        <v>1</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I260" s="1">
+        <v>1</v>
+      </c>
+      <c r="J260" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K260" s="2">
+        <v>0</v>
+      </c>
+      <c r="L260" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0697802104970931E+55</v>
+      </c>
+      <c r="C261" s="1">
+        <v>30</v>
+      </c>
+      <c r="D261" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E261" s="1">
+        <v>3</v>
+      </c>
+      <c r="F261" s="1">
+        <v>14</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1</v>
+      </c>
+      <c r="H261" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I261" s="1">
+        <v>1</v>
+      </c>
+      <c r="J261" s="2">
+        <v>14</v>
+      </c>
+      <c r="K261" s="2">
+        <v>2</v>
+      </c>
+      <c r="L261" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6046703157456398E+55</v>
+      </c>
+      <c r="C262" s="1">
+        <v>30</v>
+      </c>
+      <c r="D262" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>3</v>
+      </c>
+      <c r="F262" s="1">
+        <v>14</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1</v>
+      </c>
+      <c r="H262" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I262" s="1">
+        <v>1</v>
+      </c>
+      <c r="J262" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K262" s="2">
+        <v>0</v>
+      </c>
+      <c r="L262" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4070054736184597E+55</v>
+      </c>
+      <c r="C263" s="1">
+        <v>30</v>
+      </c>
+      <c r="D263" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E263" s="1">
+        <v>3</v>
+      </c>
+      <c r="F263" s="1">
+        <v>14</v>
+      </c>
+      <c r="G263" s="1">
+        <v>1</v>
+      </c>
+      <c r="H263" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I263" s="1">
+        <v>1</v>
+      </c>
+      <c r="J263" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K263" s="2">
+        <v>0</v>
+      </c>
+      <c r="L263" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <f t="shared" si="7"/>
+        <v>3.6105082104276895E+55</v>
+      </c>
+      <c r="C264" s="1">
+        <v>30</v>
+      </c>
+      <c r="D264" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E264" s="1">
+        <v>3</v>
+      </c>
+      <c r="F264" s="1">
+        <v>14</v>
+      </c>
+      <c r="G264" s="1">
+        <v>1</v>
+      </c>
+      <c r="H264" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I264" s="1">
+        <v>1</v>
+      </c>
+      <c r="J264" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K264" s="2">
+        <v>0</v>
+      </c>
+      <c r="L264" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <f t="shared" si="7"/>
+        <v>5.4157623156415342E+55</v>
+      </c>
+      <c r="C265" s="1">
+        <v>30</v>
+      </c>
+      <c r="D265" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E265" s="1">
+        <v>3</v>
+      </c>
+      <c r="F265" s="1">
+        <v>14</v>
+      </c>
+      <c r="G265" s="1">
+        <v>1</v>
+      </c>
+      <c r="H265" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I265" s="1">
+        <v>1</v>
+      </c>
+      <c r="J265" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K265" s="2">
+        <v>0</v>
+      </c>
+      <c r="L265" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <f t="shared" si="7"/>
+        <v>8.1236434734623018E+55</v>
+      </c>
+      <c r="C266" s="1">
+        <v>30</v>
+      </c>
+      <c r="D266" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E266" s="1">
+        <v>3</v>
+      </c>
+      <c r="F266" s="1">
+        <v>14</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H266" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I266" s="1">
+        <v>1</v>
+      </c>
+      <c r="J266" s="2">
+        <v>14</v>
+      </c>
+      <c r="K266" s="2">
+        <v>2</v>
+      </c>
+      <c r="L266" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2185465210193453E+56</v>
+      </c>
+      <c r="C267" s="1">
+        <v>30</v>
+      </c>
+      <c r="D267" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>3</v>
+      </c>
+      <c r="F267" s="1">
+        <v>14</v>
+      </c>
+      <c r="G267" s="1">
+        <v>1</v>
+      </c>
+      <c r="H267" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I267" s="1">
+        <v>1</v>
+      </c>
+      <c r="J267" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K267" s="2">
+        <v>0</v>
+      </c>
+      <c r="L267" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8278197815290179E+56</v>
+      </c>
+      <c r="C268" s="1">
+        <v>30</v>
+      </c>
+      <c r="D268" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E268" s="1">
+        <v>3</v>
+      </c>
+      <c r="F268" s="1">
+        <v>14</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1</v>
+      </c>
+      <c r="H268" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I268" s="1">
+        <v>1</v>
+      </c>
+      <c r="J268" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K268" s="2">
+        <v>0</v>
+      </c>
+      <c r="L268" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7417296722935268E+56</v>
+      </c>
+      <c r="C269" s="1">
+        <v>30</v>
+      </c>
+      <c r="D269" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E269" s="1">
+        <v>3</v>
+      </c>
+      <c r="F269" s="1">
+        <v>14</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1</v>
+      </c>
+      <c r="H269" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I269" s="1">
+        <v>1</v>
+      </c>
+      <c r="J269" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K269" s="2">
+        <v>0</v>
+      </c>
+      <c r="L269" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <f>B269*1.5</f>
+        <v>4.1125945084402899E+56</v>
+      </c>
+      <c r="C270" s="1">
+        <v>30</v>
+      </c>
+      <c r="D270" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E270" s="1">
+        <v>3</v>
+      </c>
+      <c r="F270" s="1">
+        <v>14</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1</v>
+      </c>
+      <c r="H270" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I270" s="1">
+        <v>1</v>
+      </c>
+      <c r="J270" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K270" s="2">
+        <v>0</v>
+      </c>
+      <c r="L270" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <f t="shared" si="7"/>
+        <v>6.1688917626604349E+56</v>
+      </c>
+      <c r="C271" s="1">
+        <v>30</v>
+      </c>
+      <c r="D271" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E271" s="1">
+        <v>3</v>
+      </c>
+      <c r="F271" s="1">
+        <v>14</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1</v>
+      </c>
+      <c r="H271" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I271" s="1">
+        <v>1</v>
+      </c>
+      <c r="J271" s="2">
+        <v>14</v>
+      </c>
+      <c r="K271" s="2">
+        <v>2</v>
+      </c>
+      <c r="L271" s="1">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE7348-DC25-4D09-BC98-8E341F6D7010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233375E-C01E-4FEE-9843-6A5A4DFD36F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L271"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G270" sqref="G270"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J297" sqref="J297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10337,7 +10337,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" ref="B253:B271" si="7">B252*1.5</f>
+        <f t="shared" ref="B253:B300" si="7">B252*1.5</f>
         <v>4.1741157428327365E+53</v>
       </c>
       <c r="C253" s="1">
@@ -11070,6 +11070,1137 @@
         <v>2</v>
       </c>
       <c r="L271" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2533376439906527E+56</v>
+      </c>
+      <c r="C272" s="1">
+        <v>30</v>
+      </c>
+      <c r="D272" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>3</v>
+      </c>
+      <c r="F272" s="1">
+        <v>14</v>
+      </c>
+      <c r="G272" s="1">
+        <v>1</v>
+      </c>
+      <c r="H272" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I272" s="1">
+        <v>1</v>
+      </c>
+      <c r="J272" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K272" s="2">
+        <v>0</v>
+      </c>
+      <c r="L272" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3880006465985978E+57</v>
+      </c>
+      <c r="C273" s="1">
+        <v>30</v>
+      </c>
+      <c r="D273" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E273" s="1">
+        <v>3</v>
+      </c>
+      <c r="F273" s="1">
+        <v>14</v>
+      </c>
+      <c r="G273" s="1">
+        <v>1</v>
+      </c>
+      <c r="H273" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I273" s="1">
+        <v>1</v>
+      </c>
+      <c r="J273" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K273" s="2">
+        <v>0</v>
+      </c>
+      <c r="L273" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0820009698978966E+57</v>
+      </c>
+      <c r="C274" s="1">
+        <v>30</v>
+      </c>
+      <c r="D274" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E274" s="1">
+        <v>3</v>
+      </c>
+      <c r="F274" s="1">
+        <v>14</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1</v>
+      </c>
+      <c r="H274" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I274" s="1">
+        <v>1</v>
+      </c>
+      <c r="J274" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K274" s="2">
+        <v>0</v>
+      </c>
+      <c r="L274" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1230014548468448E+57</v>
+      </c>
+      <c r="C275" s="1">
+        <v>30</v>
+      </c>
+      <c r="D275" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E275" s="1">
+        <v>3</v>
+      </c>
+      <c r="F275" s="1">
+        <v>14</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1</v>
+      </c>
+      <c r="H275" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I275" s="1">
+        <v>1</v>
+      </c>
+      <c r="J275" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K275" s="2">
+        <v>0</v>
+      </c>
+      <c r="L275" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6845021822702674E+57</v>
+      </c>
+      <c r="C276" s="1">
+        <v>30</v>
+      </c>
+      <c r="D276" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E276" s="1">
+        <v>3</v>
+      </c>
+      <c r="F276" s="1">
+        <v>14</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1</v>
+      </c>
+      <c r="H276" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I276" s="1">
+        <v>1</v>
+      </c>
+      <c r="J276" s="2">
+        <v>14</v>
+      </c>
+      <c r="K276" s="2">
+        <v>2</v>
+      </c>
+      <c r="L276" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <f t="shared" si="7"/>
+        <v>7.0267532734054019E+57</v>
+      </c>
+      <c r="C277" s="1">
+        <v>30</v>
+      </c>
+      <c r="D277" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E277" s="1">
+        <v>3</v>
+      </c>
+      <c r="F277" s="1">
+        <v>14</v>
+      </c>
+      <c r="G277" s="1">
+        <v>1</v>
+      </c>
+      <c r="H277" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I277" s="1">
+        <v>1</v>
+      </c>
+      <c r="J277" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K277" s="2">
+        <v>0</v>
+      </c>
+      <c r="L277" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0540129910108103E+58</v>
+      </c>
+      <c r="C278" s="1">
+        <v>30</v>
+      </c>
+      <c r="D278" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E278" s="1">
+        <v>3</v>
+      </c>
+      <c r="F278" s="1">
+        <v>14</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1</v>
+      </c>
+      <c r="H278" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I278" s="1">
+        <v>1</v>
+      </c>
+      <c r="J278" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K278" s="2">
+        <v>0</v>
+      </c>
+      <c r="L278" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5810194865162155E+58</v>
+      </c>
+      <c r="C279" s="1">
+        <v>30</v>
+      </c>
+      <c r="D279" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E279" s="1">
+        <v>3</v>
+      </c>
+      <c r="F279" s="1">
+        <v>14</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1</v>
+      </c>
+      <c r="H279" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I279" s="1">
+        <v>1</v>
+      </c>
+      <c r="J279" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K279" s="2">
+        <v>0</v>
+      </c>
+      <c r="L279" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3715292297743232E+58</v>
+      </c>
+      <c r="C280" s="1">
+        <v>30</v>
+      </c>
+      <c r="D280" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E280" s="1">
+        <v>3</v>
+      </c>
+      <c r="F280" s="1">
+        <v>14</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1</v>
+      </c>
+      <c r="H280" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I280" s="1">
+        <v>1</v>
+      </c>
+      <c r="J280" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K280" s="2">
+        <v>0</v>
+      </c>
+      <c r="L280" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <f t="shared" si="7"/>
+        <v>3.557293844661485E+58</v>
+      </c>
+      <c r="C281" s="1">
+        <v>30</v>
+      </c>
+      <c r="D281" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E281" s="1">
+        <v>3</v>
+      </c>
+      <c r="F281" s="1">
+        <v>14</v>
+      </c>
+      <c r="G281" s="1">
+        <v>1</v>
+      </c>
+      <c r="H281" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I281" s="1">
+        <v>1</v>
+      </c>
+      <c r="J281" s="2">
+        <v>14</v>
+      </c>
+      <c r="K281" s="2">
+        <v>2</v>
+      </c>
+      <c r="L281" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <f t="shared" si="7"/>
+        <v>5.3359407669922278E+58</v>
+      </c>
+      <c r="C282" s="1">
+        <v>30</v>
+      </c>
+      <c r="D282" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>3</v>
+      </c>
+      <c r="F282" s="1">
+        <v>14</v>
+      </c>
+      <c r="G282" s="1">
+        <v>1</v>
+      </c>
+      <c r="H282" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I282" s="1">
+        <v>1</v>
+      </c>
+      <c r="J282" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K282" s="2">
+        <v>0</v>
+      </c>
+      <c r="L282" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0039111504883422E+58</v>
+      </c>
+      <c r="C283" s="1">
+        <v>30</v>
+      </c>
+      <c r="D283" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E283" s="1">
+        <v>3</v>
+      </c>
+      <c r="F283" s="1">
+        <v>14</v>
+      </c>
+      <c r="G283" s="1">
+        <v>1</v>
+      </c>
+      <c r="H283" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I283" s="1">
+        <v>1</v>
+      </c>
+      <c r="J283" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K283" s="2">
+        <v>0</v>
+      </c>
+      <c r="L283" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <f t="shared" si="7"/>
+        <v>1.2005866725732513E+59</v>
+      </c>
+      <c r="C284" s="1">
+        <v>30</v>
+      </c>
+      <c r="D284" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E284" s="1">
+        <v>3</v>
+      </c>
+      <c r="F284" s="1">
+        <v>14</v>
+      </c>
+      <c r="G284" s="1">
+        <v>1</v>
+      </c>
+      <c r="H284" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I284" s="1">
+        <v>1</v>
+      </c>
+      <c r="J284" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K284" s="2">
+        <v>0</v>
+      </c>
+      <c r="L284" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8008800088598771E+59</v>
+      </c>
+      <c r="C285" s="1">
+        <v>30</v>
+      </c>
+      <c r="D285" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E285" s="1">
+        <v>3</v>
+      </c>
+      <c r="F285" s="1">
+        <v>14</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1</v>
+      </c>
+      <c r="H285" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I285" s="1">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K285" s="2">
+        <v>0</v>
+      </c>
+      <c r="L285" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7013200132898157E+59</v>
+      </c>
+      <c r="C286" s="1">
+        <v>30</v>
+      </c>
+      <c r="D286" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E286" s="1">
+        <v>3</v>
+      </c>
+      <c r="F286" s="1">
+        <v>14</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1</v>
+      </c>
+      <c r="H286" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I286" s="1">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2">
+        <v>14</v>
+      </c>
+      <c r="K286" s="2">
+        <v>2</v>
+      </c>
+      <c r="L286" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0519800199347237E+59</v>
+      </c>
+      <c r="C287" s="1">
+        <v>30</v>
+      </c>
+      <c r="D287" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E287" s="1">
+        <v>3</v>
+      </c>
+      <c r="F287" s="1">
+        <v>14</v>
+      </c>
+      <c r="G287" s="1">
+        <v>1</v>
+      </c>
+      <c r="H287" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I287" s="1">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K287" s="2">
+        <v>0</v>
+      </c>
+      <c r="L287" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <f t="shared" si="7"/>
+        <v>6.0779700299020856E+59</v>
+      </c>
+      <c r="C288" s="1">
+        <v>30</v>
+      </c>
+      <c r="D288" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E288" s="1">
+        <v>3</v>
+      </c>
+      <c r="F288" s="1">
+        <v>14</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1</v>
+      </c>
+      <c r="H288" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I288" s="1">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K288" s="2">
+        <v>0</v>
+      </c>
+      <c r="L288" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1169550448531284E+59</v>
+      </c>
+      <c r="C289" s="1">
+        <v>30</v>
+      </c>
+      <c r="D289" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E289" s="1">
+        <v>3</v>
+      </c>
+      <c r="F289" s="1">
+        <v>14</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1</v>
+      </c>
+      <c r="H289" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I289" s="1">
+        <v>1</v>
+      </c>
+      <c r="J289" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K289" s="2">
+        <v>0</v>
+      </c>
+      <c r="L289" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3675432567279693E+60</v>
+      </c>
+      <c r="C290" s="1">
+        <v>30</v>
+      </c>
+      <c r="D290" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E290" s="1">
+        <v>3</v>
+      </c>
+      <c r="F290" s="1">
+        <v>14</v>
+      </c>
+      <c r="G290" s="1">
+        <v>1</v>
+      </c>
+      <c r="H290" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I290" s="1">
+        <v>1</v>
+      </c>
+      <c r="J290" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K290" s="2">
+        <v>0</v>
+      </c>
+      <c r="L290" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0513148850919542E+60</v>
+      </c>
+      <c r="C291" s="1">
+        <v>30</v>
+      </c>
+      <c r="D291" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E291" s="1">
+        <v>3</v>
+      </c>
+      <c r="F291" s="1">
+        <v>14</v>
+      </c>
+      <c r="G291" s="1">
+        <v>1</v>
+      </c>
+      <c r="H291" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I291" s="1">
+        <v>1</v>
+      </c>
+      <c r="J291" s="2">
+        <v>14</v>
+      </c>
+      <c r="K291" s="2">
+        <v>2</v>
+      </c>
+      <c r="L291" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0769723276379313E+60</v>
+      </c>
+      <c r="C292" s="1">
+        <v>30</v>
+      </c>
+      <c r="D292" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E292" s="1">
+        <v>3</v>
+      </c>
+      <c r="F292" s="1">
+        <v>14</v>
+      </c>
+      <c r="G292" s="1">
+        <v>1</v>
+      </c>
+      <c r="H292" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I292" s="1">
+        <v>1</v>
+      </c>
+      <c r="J292" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K292" s="2">
+        <v>0</v>
+      </c>
+      <c r="L292" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6154584914568966E+60</v>
+      </c>
+      <c r="C293" s="1">
+        <v>30</v>
+      </c>
+      <c r="D293" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E293" s="1">
+        <v>3</v>
+      </c>
+      <c r="F293" s="1">
+        <v>14</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1</v>
+      </c>
+      <c r="H293" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I293" s="1">
+        <v>1</v>
+      </c>
+      <c r="J293" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K293" s="2">
+        <v>0</v>
+      </c>
+      <c r="L293" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9231877371853441E+60</v>
+      </c>
+      <c r="C294" s="1">
+        <v>30</v>
+      </c>
+      <c r="D294" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E294" s="1">
+        <v>3</v>
+      </c>
+      <c r="F294" s="1">
+        <v>14</v>
+      </c>
+      <c r="G294" s="1">
+        <v>1</v>
+      </c>
+      <c r="H294" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I294" s="1">
+        <v>1</v>
+      </c>
+      <c r="J294" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K294" s="2">
+        <v>0</v>
+      </c>
+      <c r="L294" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0384781605778016E+61</v>
+      </c>
+      <c r="C295" s="1">
+        <v>30</v>
+      </c>
+      <c r="D295" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E295" s="1">
+        <v>3</v>
+      </c>
+      <c r="F295" s="1">
+        <v>14</v>
+      </c>
+      <c r="G295" s="1">
+        <v>1</v>
+      </c>
+      <c r="H295" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I295" s="1">
+        <v>1</v>
+      </c>
+      <c r="J295" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K295" s="2">
+        <v>0</v>
+      </c>
+      <c r="L295" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5577172408667024E+61</v>
+      </c>
+      <c r="C296" s="1">
+        <v>30</v>
+      </c>
+      <c r="D296" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E296" s="1">
+        <v>3</v>
+      </c>
+      <c r="F296" s="1">
+        <v>14</v>
+      </c>
+      <c r="G296" s="1">
+        <v>1</v>
+      </c>
+      <c r="H296" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I296" s="1">
+        <v>1</v>
+      </c>
+      <c r="J296" s="2">
+        <v>14</v>
+      </c>
+      <c r="K296" s="2">
+        <v>2</v>
+      </c>
+      <c r="L296" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3365758613000534E+61</v>
+      </c>
+      <c r="C297" s="1">
+        <v>30</v>
+      </c>
+      <c r="D297" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3</v>
+      </c>
+      <c r="F297" s="1">
+        <v>14</v>
+      </c>
+      <c r="G297" s="1">
+        <v>1</v>
+      </c>
+      <c r="H297" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I297" s="1">
+        <v>1</v>
+      </c>
+      <c r="J297" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K297" s="2">
+        <v>0</v>
+      </c>
+      <c r="L297" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <f t="shared" si="7"/>
+        <v>3.5048637919500801E+61</v>
+      </c>
+      <c r="C298" s="1">
+        <v>30</v>
+      </c>
+      <c r="D298" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E298" s="1">
+        <v>3</v>
+      </c>
+      <c r="F298" s="1">
+        <v>14</v>
+      </c>
+      <c r="G298" s="1">
+        <v>1</v>
+      </c>
+      <c r="H298" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I298" s="1">
+        <v>1</v>
+      </c>
+      <c r="J298" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K298" s="2">
+        <v>0</v>
+      </c>
+      <c r="L298" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2572956879251202E+61</v>
+      </c>
+      <c r="C299" s="1">
+        <v>30</v>
+      </c>
+      <c r="D299" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E299" s="1">
+        <v>3</v>
+      </c>
+      <c r="F299" s="1">
+        <v>14</v>
+      </c>
+      <c r="G299" s="1">
+        <v>1</v>
+      </c>
+      <c r="H299" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I299" s="1">
+        <v>1</v>
+      </c>
+      <c r="J299" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K299" s="2">
+        <v>0</v>
+      </c>
+      <c r="L299" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <f t="shared" si="7"/>
+        <v>7.8859435318876802E+61</v>
+      </c>
+      <c r="C300" s="1">
+        <v>30</v>
+      </c>
+      <c r="D300" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3</v>
+      </c>
+      <c r="F300" s="1">
+        <v>14</v>
+      </c>
+      <c r="G300" s="1">
+        <v>1</v>
+      </c>
+      <c r="H300" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I300" s="1">
+        <v>1</v>
+      </c>
+      <c r="J300" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K300" s="2">
+        <v>0</v>
+      </c>
+      <c r="L300" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233375E-C01E-4FEE-9843-6A5A4DFD36F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22AF21-9153-497D-95C4-7D924C9ED411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -485,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J297" sqref="J297"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10337,7 +10337,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" ref="B253:B300" si="7">B252*1.5</f>
+        <f t="shared" ref="B253:B310" si="7">B252*1.5</f>
         <v>4.1741157428327365E+53</v>
       </c>
       <c r="C253" s="1">
@@ -12201,6 +12201,396 @@
         <v>0</v>
       </c>
       <c r="L300" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <f t="shared" si="7"/>
+        <v>1.182891529783152E+62</v>
+      </c>
+      <c r="C301" s="1">
+        <v>30</v>
+      </c>
+      <c r="D301" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E301" s="1">
+        <v>3</v>
+      </c>
+      <c r="F301" s="1">
+        <v>14</v>
+      </c>
+      <c r="G301" s="1">
+        <v>1</v>
+      </c>
+      <c r="H301" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I301" s="1">
+        <v>1</v>
+      </c>
+      <c r="J301" s="2">
+        <v>14</v>
+      </c>
+      <c r="K301" s="2">
+        <v>2</v>
+      </c>
+      <c r="L301" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7743372946747281E+62</v>
+      </c>
+      <c r="C302" s="1">
+        <v>30</v>
+      </c>
+      <c r="D302" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E302" s="1">
+        <v>3</v>
+      </c>
+      <c r="F302" s="1">
+        <v>14</v>
+      </c>
+      <c r="G302" s="1">
+        <v>1</v>
+      </c>
+      <c r="H302" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I302" s="1">
+        <v>1</v>
+      </c>
+      <c r="J302" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K302" s="2">
+        <v>0</v>
+      </c>
+      <c r="L302" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6615059420120921E+62</v>
+      </c>
+      <c r="C303" s="1">
+        <v>30</v>
+      </c>
+      <c r="D303" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E303" s="1">
+        <v>3</v>
+      </c>
+      <c r="F303" s="1">
+        <v>14</v>
+      </c>
+      <c r="G303" s="1">
+        <v>1</v>
+      </c>
+      <c r="H303" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I303" s="1">
+        <v>1</v>
+      </c>
+      <c r="J303" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K303" s="2">
+        <v>0</v>
+      </c>
+      <c r="L303" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <f t="shared" si="7"/>
+        <v>3.9922589130181382E+62</v>
+      </c>
+      <c r="C304" s="1">
+        <v>30</v>
+      </c>
+      <c r="D304" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F304" s="1">
+        <v>14</v>
+      </c>
+      <c r="G304" s="1">
+        <v>1</v>
+      </c>
+      <c r="H304" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I304" s="1">
+        <v>1</v>
+      </c>
+      <c r="J304" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K304" s="2">
+        <v>0</v>
+      </c>
+      <c r="L304" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <f t="shared" si="7"/>
+        <v>5.9883883695272073E+62</v>
+      </c>
+      <c r="C305" s="1">
+        <v>30</v>
+      </c>
+      <c r="D305" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E305" s="1">
+        <v>3</v>
+      </c>
+      <c r="F305" s="1">
+        <v>14</v>
+      </c>
+      <c r="G305" s="1">
+        <v>1</v>
+      </c>
+      <c r="H305" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I305" s="1">
+        <v>1</v>
+      </c>
+      <c r="J305" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K305" s="2">
+        <v>0</v>
+      </c>
+      <c r="L305" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <f t="shared" si="7"/>
+        <v>8.98258255429081E+62</v>
+      </c>
+      <c r="C306" s="1">
+        <v>30</v>
+      </c>
+      <c r="D306" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E306" s="1">
+        <v>3</v>
+      </c>
+      <c r="F306" s="1">
+        <v>14</v>
+      </c>
+      <c r="G306" s="1">
+        <v>1</v>
+      </c>
+      <c r="H306" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I306" s="1">
+        <v>1</v>
+      </c>
+      <c r="J306" s="2">
+        <v>14</v>
+      </c>
+      <c r="K306" s="2">
+        <v>2</v>
+      </c>
+      <c r="L306" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3473873831436215E+63</v>
+      </c>
+      <c r="C307" s="1">
+        <v>30</v>
+      </c>
+      <c r="D307" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E307" s="1">
+        <v>3</v>
+      </c>
+      <c r="F307" s="1">
+        <v>14</v>
+      </c>
+      <c r="G307" s="1">
+        <v>1</v>
+      </c>
+      <c r="H307" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I307" s="1">
+        <v>1</v>
+      </c>
+      <c r="J307" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K307" s="2">
+        <v>0</v>
+      </c>
+      <c r="L307" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0210810747154322E+63</v>
+      </c>
+      <c r="C308" s="1">
+        <v>30</v>
+      </c>
+      <c r="D308" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E308" s="1">
+        <v>3</v>
+      </c>
+      <c r="F308" s="1">
+        <v>14</v>
+      </c>
+      <c r="G308" s="1">
+        <v>1</v>
+      </c>
+      <c r="H308" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I308" s="1">
+        <v>1</v>
+      </c>
+      <c r="J308" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K308" s="2">
+        <v>0</v>
+      </c>
+      <c r="L308" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0316216120731482E+63</v>
+      </c>
+      <c r="C309" s="1">
+        <v>30</v>
+      </c>
+      <c r="D309" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E309" s="1">
+        <v>3</v>
+      </c>
+      <c r="F309" s="1">
+        <v>14</v>
+      </c>
+      <c r="G309" s="1">
+        <v>1</v>
+      </c>
+      <c r="H309" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I309" s="1">
+        <v>1</v>
+      </c>
+      <c r="J309" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K309" s="2">
+        <v>0</v>
+      </c>
+      <c r="L309" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <f t="shared" si="7"/>
+        <v>4.5474324181097225E+63</v>
+      </c>
+      <c r="C310" s="1">
+        <v>30</v>
+      </c>
+      <c r="D310" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E310" s="1">
+        <v>3</v>
+      </c>
+      <c r="F310" s="1">
+        <v>14</v>
+      </c>
+      <c r="G310" s="1">
+        <v>1</v>
+      </c>
+      <c r="H310" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I310" s="1">
+        <v>1</v>
+      </c>
+      <c r="J310" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K310" s="2">
+        <v>0</v>
+      </c>
+      <c r="L310" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22AF21-9153-497D-95C4-7D924C9ED411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57326E-F53A-4572-AF16-4785F396A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +120,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +146,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,7 +161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,8 +171,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,8 +185,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -485,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I298" sqref="I298"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10337,7 +10357,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" ref="B253:B310" si="7">B252*1.5</f>
+        <f t="shared" ref="B253:B301" si="7">B252*1.5</f>
         <v>4.1741157428327365E+53</v>
       </c>
       <c r="C253" s="1">
@@ -12248,8 +12268,8 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <f t="shared" si="7"/>
-        <v>1.7743372946747281E+62</v>
+        <f>B301*1.15</f>
+        <v>1.3603252592506247E+62</v>
       </c>
       <c r="C302" s="1">
         <v>30</v>
@@ -12287,8 +12307,8 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <f t="shared" si="7"/>
-        <v>2.6615059420120921E+62</v>
+        <f>B302*1.15</f>
+        <v>1.5643740481382184E+62</v>
       </c>
       <c r="C303" s="1">
         <v>30</v>
@@ -12326,8 +12346,8 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" si="7"/>
-        <v>3.9922589130181382E+62</v>
+        <f t="shared" ref="B304:B331" si="8">B303*1.15</f>
+        <v>1.7990301553589509E+62</v>
       </c>
       <c r="C304" s="1">
         <v>30</v>
@@ -12365,8 +12385,8 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <f t="shared" si="7"/>
-        <v>5.9883883695272073E+62</v>
+        <f t="shared" si="8"/>
+        <v>2.0688846786627935E+62</v>
       </c>
       <c r="C305" s="1">
         <v>30</v>
@@ -12404,8 +12424,8 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <f t="shared" si="7"/>
-        <v>8.98258255429081E+62</v>
+        <f t="shared" si="8"/>
+        <v>2.3792173804622126E+62</v>
       </c>
       <c r="C306" s="1">
         <v>30</v>
@@ -12443,8 +12463,8 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <f t="shared" si="7"/>
-        <v>1.3473873831436215E+63</v>
+        <f t="shared" si="8"/>
+        <v>2.7360999875315442E+62</v>
       </c>
       <c r="C307" s="1">
         <v>30</v>
@@ -12482,8 +12502,8 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <f t="shared" si="7"/>
-        <v>2.0210810747154322E+63</v>
+        <f t="shared" si="8"/>
+        <v>3.1465149856612754E+62</v>
       </c>
       <c r="C308" s="1">
         <v>30</v>
@@ -12521,8 +12541,8 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <f t="shared" si="7"/>
-        <v>3.0316216120731482E+63</v>
+        <f t="shared" si="8"/>
+        <v>3.6184922335104663E+62</v>
       </c>
       <c r="C309" s="1">
         <v>30</v>
@@ -12556,41 +12576,860 @@
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
+      <c r="A310" s="3">
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <f t="shared" si="7"/>
-        <v>4.5474324181097225E+63</v>
-      </c>
-      <c r="C310" s="1">
-        <v>30</v>
-      </c>
-      <c r="D310" s="1">
-        <v>260000000</v>
-      </c>
-      <c r="E310" s="1">
-        <v>3</v>
-      </c>
-      <c r="F310" s="1">
-        <v>14</v>
-      </c>
-      <c r="G310" s="1">
-        <v>1</v>
-      </c>
-      <c r="H310" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I310" s="1">
-        <v>1</v>
-      </c>
-      <c r="J310" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K310" s="2">
-        <v>0</v>
-      </c>
-      <c r="L310" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1612660685370355E+62</v>
+      </c>
+      <c r="C310" s="3">
+        <v>30</v>
+      </c>
+      <c r="D310" s="3">
+        <v>260000000</v>
+      </c>
+      <c r="E310" s="3">
+        <v>3</v>
+      </c>
+      <c r="F310" s="3">
+        <v>14</v>
+      </c>
+      <c r="G310" s="3">
+        <v>1</v>
+      </c>
+      <c r="H310" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I310" s="3">
+        <v>1</v>
+      </c>
+      <c r="J310" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K310" s="3">
+        <v>0</v>
+      </c>
+      <c r="L310" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7854559788175906E+62</v>
+      </c>
+      <c r="C311" s="1">
+        <v>30</v>
+      </c>
+      <c r="D311" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E311" s="1">
+        <v>3</v>
+      </c>
+      <c r="F311" s="1">
+        <v>14</v>
+      </c>
+      <c r="G311" s="1">
+        <v>1</v>
+      </c>
+      <c r="H311" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I311" s="1">
+        <v>1</v>
+      </c>
+      <c r="J311" s="2">
+        <v>14</v>
+      </c>
+      <c r="K311" s="2">
+        <v>4</v>
+      </c>
+      <c r="L311" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <f t="shared" si="8"/>
+        <v>5.5032743756402285E+62</v>
+      </c>
+      <c r="C312" s="1">
+        <v>30</v>
+      </c>
+      <c r="D312" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>3</v>
+      </c>
+      <c r="F312" s="1">
+        <v>14</v>
+      </c>
+      <c r="G312" s="1">
+        <v>1</v>
+      </c>
+      <c r="H312" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I312" s="1">
+        <v>1</v>
+      </c>
+      <c r="J312" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K312" s="2">
+        <v>0</v>
+      </c>
+      <c r="L312" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <f t="shared" si="8"/>
+        <v>6.3287655319862621E+62</v>
+      </c>
+      <c r="C313" s="1">
+        <v>30</v>
+      </c>
+      <c r="D313" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E313" s="1">
+        <v>3</v>
+      </c>
+      <c r="F313" s="1">
+        <v>14</v>
+      </c>
+      <c r="G313" s="1">
+        <v>1</v>
+      </c>
+      <c r="H313" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I313" s="1">
+        <v>1</v>
+      </c>
+      <c r="J313" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K313" s="2">
+        <v>0</v>
+      </c>
+      <c r="L313" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <f t="shared" si="8"/>
+        <v>7.2780803617842012E+62</v>
+      </c>
+      <c r="C314" s="1">
+        <v>30</v>
+      </c>
+      <c r="D314" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E314" s="1">
+        <v>3</v>
+      </c>
+      <c r="F314" s="1">
+        <v>14</v>
+      </c>
+      <c r="G314" s="1">
+        <v>1</v>
+      </c>
+      <c r="H314" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I314" s="1">
+        <v>1</v>
+      </c>
+      <c r="J314" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K314" s="2">
+        <v>0</v>
+      </c>
+      <c r="L314" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <f t="shared" si="8"/>
+        <v>8.369792416051831E+62</v>
+      </c>
+      <c r="C315" s="1">
+        <v>30</v>
+      </c>
+      <c r="D315" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E315" s="1">
+        <v>3</v>
+      </c>
+      <c r="F315" s="1">
+        <v>14</v>
+      </c>
+      <c r="G315" s="1">
+        <v>1</v>
+      </c>
+      <c r="H315" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I315" s="1">
+        <v>1</v>
+      </c>
+      <c r="J315" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K315" s="2">
+        <v>0</v>
+      </c>
+      <c r="L315" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <f t="shared" si="8"/>
+        <v>9.6252612784596043E+62</v>
+      </c>
+      <c r="C316" s="1">
+        <v>30</v>
+      </c>
+      <c r="D316" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E316" s="1">
+        <v>3</v>
+      </c>
+      <c r="F316" s="1">
+        <v>14</v>
+      </c>
+      <c r="G316" s="1">
+        <v>1</v>
+      </c>
+      <c r="H316" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I316" s="1">
+        <v>1</v>
+      </c>
+      <c r="J316" s="2">
+        <v>14</v>
+      </c>
+      <c r="K316" s="2">
+        <v>4</v>
+      </c>
+      <c r="L316" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1069050470228543E+63</v>
+      </c>
+      <c r="C317" s="1">
+        <v>30</v>
+      </c>
+      <c r="D317" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>3</v>
+      </c>
+      <c r="F317" s="1">
+        <v>14</v>
+      </c>
+      <c r="G317" s="1">
+        <v>1</v>
+      </c>
+      <c r="H317" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I317" s="1">
+        <v>1</v>
+      </c>
+      <c r="J317" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K317" s="2">
+        <v>0</v>
+      </c>
+      <c r="L317" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2729408040762823E+63</v>
+      </c>
+      <c r="C318" s="1">
+        <v>30</v>
+      </c>
+      <c r="D318" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E318" s="1">
+        <v>3</v>
+      </c>
+      <c r="F318" s="1">
+        <v>14</v>
+      </c>
+      <c r="G318" s="1">
+        <v>1</v>
+      </c>
+      <c r="H318" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I318" s="1">
+        <v>1</v>
+      </c>
+      <c r="J318" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K318" s="2">
+        <v>0</v>
+      </c>
+      <c r="L318" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4638819246877245E+63</v>
+      </c>
+      <c r="C319" s="1">
+        <v>30</v>
+      </c>
+      <c r="D319" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E319" s="1">
+        <v>3</v>
+      </c>
+      <c r="F319" s="1">
+        <v>14</v>
+      </c>
+      <c r="G319" s="1">
+        <v>1</v>
+      </c>
+      <c r="H319" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I319" s="1">
+        <v>1</v>
+      </c>
+      <c r="J319" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K319" s="2">
+        <v>0</v>
+      </c>
+      <c r="L319" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <f t="shared" si="8"/>
+        <v>1.683464213390883E+63</v>
+      </c>
+      <c r="C320" s="1">
+        <v>30</v>
+      </c>
+      <c r="D320" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E320" s="1">
+        <v>3</v>
+      </c>
+      <c r="F320" s="1">
+        <v>14</v>
+      </c>
+      <c r="G320" s="1">
+        <v>1</v>
+      </c>
+      <c r="H320" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I320" s="1">
+        <v>1</v>
+      </c>
+      <c r="J320" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K320" s="2">
+        <v>0</v>
+      </c>
+      <c r="L320" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9359838453995151E+63</v>
+      </c>
+      <c r="C321" s="1">
+        <v>30</v>
+      </c>
+      <c r="D321" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E321" s="1">
+        <v>3</v>
+      </c>
+      <c r="F321" s="1">
+        <v>14</v>
+      </c>
+      <c r="G321" s="1">
+        <v>1</v>
+      </c>
+      <c r="H321" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I321" s="1">
+        <v>1</v>
+      </c>
+      <c r="J321" s="2">
+        <v>14</v>
+      </c>
+      <c r="K321" s="2">
+        <v>4</v>
+      </c>
+      <c r="L321" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2263814222094424E+63</v>
+      </c>
+      <c r="C322" s="1">
+        <v>30</v>
+      </c>
+      <c r="D322" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>3</v>
+      </c>
+      <c r="F322" s="1">
+        <v>14</v>
+      </c>
+      <c r="G322" s="1">
+        <v>1</v>
+      </c>
+      <c r="H322" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I322" s="1">
+        <v>1</v>
+      </c>
+      <c r="J322" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K322" s="2">
+        <v>0</v>
+      </c>
+      <c r="L322" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5603386355408587E+63</v>
+      </c>
+      <c r="C323" s="1">
+        <v>30</v>
+      </c>
+      <c r="D323" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E323" s="1">
+        <v>3</v>
+      </c>
+      <c r="F323" s="1">
+        <v>14</v>
+      </c>
+      <c r="G323" s="1">
+        <v>1</v>
+      </c>
+      <c r="H323" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I323" s="1">
+        <v>1</v>
+      </c>
+      <c r="J323" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K323" s="2">
+        <v>0</v>
+      </c>
+      <c r="L323" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <f t="shared" si="8"/>
+        <v>2.9443894308719872E+63</v>
+      </c>
+      <c r="C324" s="1">
+        <v>30</v>
+      </c>
+      <c r="D324" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E324" s="1">
+        <v>3</v>
+      </c>
+      <c r="F324" s="1">
+        <v>14</v>
+      </c>
+      <c r="G324" s="1">
+        <v>1</v>
+      </c>
+      <c r="H324" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I324" s="1">
+        <v>1</v>
+      </c>
+      <c r="J324" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K324" s="2">
+        <v>0</v>
+      </c>
+      <c r="L324" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3860478455027849E+63</v>
+      </c>
+      <c r="C325" s="1">
+        <v>30</v>
+      </c>
+      <c r="D325" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E325" s="1">
+        <v>3</v>
+      </c>
+      <c r="F325" s="1">
+        <v>14</v>
+      </c>
+      <c r="G325" s="1">
+        <v>1</v>
+      </c>
+      <c r="H325" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I325" s="1">
+        <v>1</v>
+      </c>
+      <c r="J325" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K325" s="2">
+        <v>0</v>
+      </c>
+      <c r="L325" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8939550223282027E+63</v>
+      </c>
+      <c r="C326" s="1">
+        <v>30</v>
+      </c>
+      <c r="D326" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E326" s="1">
+        <v>3</v>
+      </c>
+      <c r="F326" s="1">
+        <v>14</v>
+      </c>
+      <c r="G326" s="1">
+        <v>1</v>
+      </c>
+      <c r="H326" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I326" s="1">
+        <v>1</v>
+      </c>
+      <c r="J326" s="2">
+        <v>14</v>
+      </c>
+      <c r="K326" s="2">
+        <v>4</v>
+      </c>
+      <c r="L326" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4780482756774325E+63</v>
+      </c>
+      <c r="C327" s="1">
+        <v>30</v>
+      </c>
+      <c r="D327" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>3</v>
+      </c>
+      <c r="F327" s="1">
+        <v>14</v>
+      </c>
+      <c r="G327" s="1">
+        <v>1</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I327" s="1">
+        <v>1</v>
+      </c>
+      <c r="J327" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K327" s="2">
+        <v>0</v>
+      </c>
+      <c r="L327" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <f t="shared" si="8"/>
+        <v>5.1497555170290471E+63</v>
+      </c>
+      <c r="C328" s="1">
+        <v>30</v>
+      </c>
+      <c r="D328" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E328" s="1">
+        <v>3</v>
+      </c>
+      <c r="F328" s="1">
+        <v>14</v>
+      </c>
+      <c r="G328" s="1">
+        <v>1</v>
+      </c>
+      <c r="H328" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I328" s="1">
+        <v>1</v>
+      </c>
+      <c r="J328" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K328" s="2">
+        <v>0</v>
+      </c>
+      <c r="L328" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9222188445834034E+63</v>
+      </c>
+      <c r="C329" s="1">
+        <v>30</v>
+      </c>
+      <c r="D329" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E329" s="1">
+        <v>3</v>
+      </c>
+      <c r="F329" s="1">
+        <v>14</v>
+      </c>
+      <c r="G329" s="1">
+        <v>1</v>
+      </c>
+      <c r="H329" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I329" s="1">
+        <v>1</v>
+      </c>
+      <c r="J329" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K329" s="2">
+        <v>0</v>
+      </c>
+      <c r="L329" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <f t="shared" si="8"/>
+        <v>6.810551671270913E+63</v>
+      </c>
+      <c r="C330" s="1">
+        <v>30</v>
+      </c>
+      <c r="D330" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E330" s="1">
+        <v>3</v>
+      </c>
+      <c r="F330" s="1">
+        <v>14</v>
+      </c>
+      <c r="G330" s="1">
+        <v>1</v>
+      </c>
+      <c r="H330" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I330" s="1">
+        <v>1</v>
+      </c>
+      <c r="J330" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K330" s="2">
+        <v>0</v>
+      </c>
+      <c r="L330" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <f t="shared" si="8"/>
+        <v>7.8321344219615498E+63</v>
+      </c>
+      <c r="C331" s="1">
+        <v>30</v>
+      </c>
+      <c r="D331" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E331" s="1">
+        <v>3</v>
+      </c>
+      <c r="F331" s="1">
+        <v>14</v>
+      </c>
+      <c r="G331" s="1">
+        <v>1</v>
+      </c>
+      <c r="H331" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I331" s="1">
+        <v>1</v>
+      </c>
+      <c r="J331" s="2">
+        <v>14</v>
+      </c>
+      <c r="K331" s="2">
+        <v>4</v>
+      </c>
+      <c r="L331" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57326E-F53A-4572-AF16-4785F396A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622372B2-E15D-40BC-B943-AB9190D6889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L331"/>
+  <dimension ref="A1:L341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B303" sqref="B303"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12346,7 +12346,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" ref="B304:B331" si="8">B303*1.15</f>
+        <f t="shared" ref="B304:B341" si="8">B303*1.15</f>
         <v>1.7990301553589509E+62</v>
       </c>
       <c r="C304" s="1">
@@ -13430,6 +13430,396 @@
         <v>4</v>
       </c>
       <c r="L331" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <f t="shared" si="8"/>
+        <v>9.0069545852557819E+63</v>
+      </c>
+      <c r="C332" s="1">
+        <v>30</v>
+      </c>
+      <c r="D332" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>3</v>
+      </c>
+      <c r="F332" s="1">
+        <v>14</v>
+      </c>
+      <c r="G332" s="1">
+        <v>1</v>
+      </c>
+      <c r="H332" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I332" s="1">
+        <v>1</v>
+      </c>
+      <c r="J332" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K332" s="2">
+        <v>0</v>
+      </c>
+      <c r="L332" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0357997773044149E+64</v>
+      </c>
+      <c r="C333" s="1">
+        <v>30</v>
+      </c>
+      <c r="D333" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E333" s="1">
+        <v>3</v>
+      </c>
+      <c r="F333" s="1">
+        <v>14</v>
+      </c>
+      <c r="G333" s="1">
+        <v>1</v>
+      </c>
+      <c r="H333" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I333" s="1">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K333" s="2">
+        <v>0</v>
+      </c>
+      <c r="L333" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1911697439000771E+64</v>
+      </c>
+      <c r="C334" s="1">
+        <v>30</v>
+      </c>
+      <c r="D334" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E334" s="1">
+        <v>3</v>
+      </c>
+      <c r="F334" s="1">
+        <v>14</v>
+      </c>
+      <c r="G334" s="1">
+        <v>1</v>
+      </c>
+      <c r="H334" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I334" s="1">
+        <v>1</v>
+      </c>
+      <c r="J334" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K334" s="2">
+        <v>0</v>
+      </c>
+      <c r="L334" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3698452054850885E+64</v>
+      </c>
+      <c r="C335" s="1">
+        <v>30</v>
+      </c>
+      <c r="D335" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E335" s="1">
+        <v>3</v>
+      </c>
+      <c r="F335" s="1">
+        <v>14</v>
+      </c>
+      <c r="G335" s="1">
+        <v>1</v>
+      </c>
+      <c r="H335" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I335" s="1">
+        <v>1</v>
+      </c>
+      <c r="J335" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K335" s="2">
+        <v>0</v>
+      </c>
+      <c r="L335" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5753219863078518E+64</v>
+      </c>
+      <c r="C336" s="1">
+        <v>30</v>
+      </c>
+      <c r="D336" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E336" s="1">
+        <v>3</v>
+      </c>
+      <c r="F336" s="1">
+        <v>14</v>
+      </c>
+      <c r="G336" s="1">
+        <v>1</v>
+      </c>
+      <c r="H336" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I336" s="1">
+        <v>1</v>
+      </c>
+      <c r="J336" s="2">
+        <v>14</v>
+      </c>
+      <c r="K336" s="2">
+        <v>4</v>
+      </c>
+      <c r="L336" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8116202842540293E+64</v>
+      </c>
+      <c r="C337" s="1">
+        <v>30</v>
+      </c>
+      <c r="D337" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E337" s="1">
+        <v>3</v>
+      </c>
+      <c r="F337" s="1">
+        <v>14</v>
+      </c>
+      <c r="G337" s="1">
+        <v>1</v>
+      </c>
+      <c r="H337" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I337" s="1">
+        <v>1</v>
+      </c>
+      <c r="J337" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K337" s="2">
+        <v>0</v>
+      </c>
+      <c r="L337" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <f t="shared" si="8"/>
+        <v>2.0833633268921336E+64</v>
+      </c>
+      <c r="C338" s="1">
+        <v>30</v>
+      </c>
+      <c r="D338" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E338" s="1">
+        <v>3</v>
+      </c>
+      <c r="F338" s="1">
+        <v>14</v>
+      </c>
+      <c r="G338" s="1">
+        <v>1</v>
+      </c>
+      <c r="H338" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I338" s="1">
+        <v>1</v>
+      </c>
+      <c r="J338" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K338" s="2">
+        <v>0</v>
+      </c>
+      <c r="L338" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3958678259259534E+64</v>
+      </c>
+      <c r="C339" s="1">
+        <v>30</v>
+      </c>
+      <c r="D339" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E339" s="1">
+        <v>3</v>
+      </c>
+      <c r="F339" s="1">
+        <v>14</v>
+      </c>
+      <c r="G339" s="1">
+        <v>1</v>
+      </c>
+      <c r="H339" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I339" s="1">
+        <v>1</v>
+      </c>
+      <c r="J339" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K339" s="2">
+        <v>0</v>
+      </c>
+      <c r="L339" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7552479998148463E+64</v>
+      </c>
+      <c r="C340" s="1">
+        <v>30</v>
+      </c>
+      <c r="D340" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E340" s="1">
+        <v>3</v>
+      </c>
+      <c r="F340" s="1">
+        <v>14</v>
+      </c>
+      <c r="G340" s="1">
+        <v>1</v>
+      </c>
+      <c r="H340" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I340" s="1">
+        <v>1</v>
+      </c>
+      <c r="J340" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K340" s="2">
+        <v>0</v>
+      </c>
+      <c r="L340" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1685351997870733E+64</v>
+      </c>
+      <c r="C341" s="1">
+        <v>30</v>
+      </c>
+      <c r="D341" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E341" s="1">
+        <v>3</v>
+      </c>
+      <c r="F341" s="1">
+        <v>14</v>
+      </c>
+      <c r="G341" s="1">
+        <v>1</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I341" s="1">
+        <v>1</v>
+      </c>
+      <c r="J341" s="2">
+        <v>14</v>
+      </c>
+      <c r="K341" s="2">
+        <v>4</v>
+      </c>
+      <c r="L341" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622372B2-E15D-40BC-B943-AB9190D6889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712C532-50FF-4181-B5A8-5666926F9ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L341"/>
+  <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F333" sqref="F333"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12346,7 +12346,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" ref="B304:B341" si="8">B303*1.15</f>
+        <f t="shared" ref="B304:B366" si="8">B303*1.15</f>
         <v>1.7990301553589509E+62</v>
       </c>
       <c r="C304" s="1">
@@ -13820,6 +13820,981 @@
         <v>4</v>
       </c>
       <c r="L341" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <f>B341*1.17</f>
+        <v>3.7071861837508754E+64</v>
+      </c>
+      <c r="C342" s="1">
+        <v>30</v>
+      </c>
+      <c r="D342" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>3</v>
+      </c>
+      <c r="F342" s="1">
+        <v>14</v>
+      </c>
+      <c r="G342" s="1">
+        <v>1</v>
+      </c>
+      <c r="H342" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I342" s="1">
+        <v>1</v>
+      </c>
+      <c r="J342" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K342" s="2">
+        <v>0</v>
+      </c>
+      <c r="L342" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <f t="shared" ref="B343:B366" si="9">B342*1.17</f>
+        <v>4.337407834988524E+64</v>
+      </c>
+      <c r="C343" s="1">
+        <v>30</v>
+      </c>
+      <c r="D343" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E343" s="1">
+        <v>3</v>
+      </c>
+      <c r="F343" s="1">
+        <v>14</v>
+      </c>
+      <c r="G343" s="1">
+        <v>1</v>
+      </c>
+      <c r="H343" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I343" s="1">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K343" s="2">
+        <v>0</v>
+      </c>
+      <c r="L343" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <f t="shared" si="9"/>
+        <v>5.0747671669365727E+64</v>
+      </c>
+      <c r="C344" s="1">
+        <v>30</v>
+      </c>
+      <c r="D344" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E344" s="1">
+        <v>3</v>
+      </c>
+      <c r="F344" s="1">
+        <v>14</v>
+      </c>
+      <c r="G344" s="1">
+        <v>1</v>
+      </c>
+      <c r="H344" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I344" s="1">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K344" s="2">
+        <v>0</v>
+      </c>
+      <c r="L344" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9374775853157894E+64</v>
+      </c>
+      <c r="C345" s="1">
+        <v>30</v>
+      </c>
+      <c r="D345" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E345" s="1">
+        <v>3</v>
+      </c>
+      <c r="F345" s="1">
+        <v>14</v>
+      </c>
+      <c r="G345" s="1">
+        <v>1</v>
+      </c>
+      <c r="H345" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I345" s="1">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K345" s="2">
+        <v>0</v>
+      </c>
+      <c r="L345" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <f t="shared" si="9"/>
+        <v>6.9468487748194732E+64</v>
+      </c>
+      <c r="C346" s="1">
+        <v>30</v>
+      </c>
+      <c r="D346" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E346" s="1">
+        <v>3</v>
+      </c>
+      <c r="F346" s="1">
+        <v>14</v>
+      </c>
+      <c r="G346" s="1">
+        <v>1</v>
+      </c>
+      <c r="H346" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I346" s="1">
+        <v>1</v>
+      </c>
+      <c r="J346" s="2">
+        <v>14</v>
+      </c>
+      <c r="K346" s="2">
+        <v>4</v>
+      </c>
+      <c r="L346" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1278130665387832E+64</v>
+      </c>
+      <c r="C347" s="1">
+        <v>30</v>
+      </c>
+      <c r="D347" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>3</v>
+      </c>
+      <c r="F347" s="1">
+        <v>14</v>
+      </c>
+      <c r="G347" s="1">
+        <v>1</v>
+      </c>
+      <c r="H347" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I347" s="1">
+        <v>1</v>
+      </c>
+      <c r="J347" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K347" s="2">
+        <v>0</v>
+      </c>
+      <c r="L347" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <f t="shared" si="9"/>
+        <v>9.509541287850376E+64</v>
+      </c>
+      <c r="C348" s="1">
+        <v>30</v>
+      </c>
+      <c r="D348" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E348" s="1">
+        <v>3</v>
+      </c>
+      <c r="F348" s="1">
+        <v>14</v>
+      </c>
+      <c r="G348" s="1">
+        <v>1</v>
+      </c>
+      <c r="H348" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I348" s="1">
+        <v>1</v>
+      </c>
+      <c r="J348" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K348" s="2">
+        <v>0</v>
+      </c>
+      <c r="L348" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <f t="shared" si="9"/>
+        <v>1.112616330678494E+65</v>
+      </c>
+      <c r="C349" s="1">
+        <v>30</v>
+      </c>
+      <c r="D349" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3</v>
+      </c>
+      <c r="F349" s="1">
+        <v>14</v>
+      </c>
+      <c r="G349" s="1">
+        <v>1</v>
+      </c>
+      <c r="H349" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I349" s="1">
+        <v>1</v>
+      </c>
+      <c r="J349" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K349" s="2">
+        <v>0</v>
+      </c>
+      <c r="L349" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3017611068938379E+65</v>
+      </c>
+      <c r="C350" s="1">
+        <v>30</v>
+      </c>
+      <c r="D350" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E350" s="1">
+        <v>3</v>
+      </c>
+      <c r="F350" s="1">
+        <v>14</v>
+      </c>
+      <c r="G350" s="1">
+        <v>1</v>
+      </c>
+      <c r="H350" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I350" s="1">
+        <v>1</v>
+      </c>
+      <c r="J350" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K350" s="2">
+        <v>0</v>
+      </c>
+      <c r="L350" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5230604950657904E+65</v>
+      </c>
+      <c r="C351" s="1">
+        <v>30</v>
+      </c>
+      <c r="D351" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E351" s="1">
+        <v>3</v>
+      </c>
+      <c r="F351" s="1">
+        <v>14</v>
+      </c>
+      <c r="G351" s="1">
+        <v>1</v>
+      </c>
+      <c r="H351" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I351" s="1">
+        <v>1</v>
+      </c>
+      <c r="J351" s="2">
+        <v>14</v>
+      </c>
+      <c r="K351" s="2">
+        <v>4</v>
+      </c>
+      <c r="L351" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7819807792269745E+65</v>
+      </c>
+      <c r="C352" s="1">
+        <v>30</v>
+      </c>
+      <c r="D352" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>3</v>
+      </c>
+      <c r="F352" s="1">
+        <v>14</v>
+      </c>
+      <c r="G352" s="1">
+        <v>1</v>
+      </c>
+      <c r="H352" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I352" s="1">
+        <v>1</v>
+      </c>
+      <c r="J352" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K352" s="2">
+        <v>0</v>
+      </c>
+      <c r="L352" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0849175116955601E+65</v>
+      </c>
+      <c r="C353" s="1">
+        <v>30</v>
+      </c>
+      <c r="D353" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E353" s="1">
+        <v>3</v>
+      </c>
+      <c r="F353" s="1">
+        <v>14</v>
+      </c>
+      <c r="G353" s="1">
+        <v>1</v>
+      </c>
+      <c r="H353" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I353" s="1">
+        <v>1</v>
+      </c>
+      <c r="J353" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K353" s="2">
+        <v>0</v>
+      </c>
+      <c r="L353" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <f t="shared" si="9"/>
+        <v>2.439353488683805E+65</v>
+      </c>
+      <c r="C354" s="1">
+        <v>30</v>
+      </c>
+      <c r="D354" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E354" s="1">
+        <v>3</v>
+      </c>
+      <c r="F354" s="1">
+        <v>14</v>
+      </c>
+      <c r="G354" s="1">
+        <v>1</v>
+      </c>
+      <c r="H354" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I354" s="1">
+        <v>1</v>
+      </c>
+      <c r="J354" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K354" s="2">
+        <v>0</v>
+      </c>
+      <c r="L354" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8540435817600517E+65</v>
+      </c>
+      <c r="C355" s="1">
+        <v>30</v>
+      </c>
+      <c r="D355" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E355" s="1">
+        <v>3</v>
+      </c>
+      <c r="F355" s="1">
+        <v>14</v>
+      </c>
+      <c r="G355" s="1">
+        <v>1</v>
+      </c>
+      <c r="H355" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I355" s="1">
+        <v>1</v>
+      </c>
+      <c r="J355" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K355" s="2">
+        <v>0</v>
+      </c>
+      <c r="L355" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3392309906592601E+65</v>
+      </c>
+      <c r="C356" s="1">
+        <v>30</v>
+      </c>
+      <c r="D356" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E356" s="1">
+        <v>3</v>
+      </c>
+      <c r="F356" s="1">
+        <v>14</v>
+      </c>
+      <c r="G356" s="1">
+        <v>1</v>
+      </c>
+      <c r="H356" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I356" s="1">
+        <v>1</v>
+      </c>
+      <c r="J356" s="2">
+        <v>14</v>
+      </c>
+      <c r="K356" s="2">
+        <v>4</v>
+      </c>
+      <c r="L356" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9069002590713343E+65</v>
+      </c>
+      <c r="C357" s="1">
+        <v>30</v>
+      </c>
+      <c r="D357" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>3</v>
+      </c>
+      <c r="F357" s="1">
+        <v>14</v>
+      </c>
+      <c r="G357" s="1">
+        <v>1</v>
+      </c>
+      <c r="H357" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I357" s="1">
+        <v>1</v>
+      </c>
+      <c r="J357" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K357" s="2">
+        <v>0</v>
+      </c>
+      <c r="L357" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <f t="shared" si="9"/>
+        <v>4.5710733031134611E+65</v>
+      </c>
+      <c r="C358" s="1">
+        <v>30</v>
+      </c>
+      <c r="D358" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E358" s="1">
+        <v>3</v>
+      </c>
+      <c r="F358" s="1">
+        <v>14</v>
+      </c>
+      <c r="G358" s="1">
+        <v>1</v>
+      </c>
+      <c r="H358" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I358" s="1">
+        <v>1</v>
+      </c>
+      <c r="J358" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K358" s="2">
+        <v>0</v>
+      </c>
+      <c r="L358" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <f t="shared" si="9"/>
+        <v>5.3481557646427492E+65</v>
+      </c>
+      <c r="C359" s="1">
+        <v>30</v>
+      </c>
+      <c r="D359" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E359" s="1">
+        <v>3</v>
+      </c>
+      <c r="F359" s="1">
+        <v>14</v>
+      </c>
+      <c r="G359" s="1">
+        <v>1</v>
+      </c>
+      <c r="H359" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I359" s="1">
+        <v>1</v>
+      </c>
+      <c r="J359" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K359" s="2">
+        <v>0</v>
+      </c>
+      <c r="L359" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2573422446320164E+65</v>
+      </c>
+      <c r="C360" s="1">
+        <v>30</v>
+      </c>
+      <c r="D360" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E360" s="1">
+        <v>3</v>
+      </c>
+      <c r="F360" s="1">
+        <v>14</v>
+      </c>
+      <c r="G360" s="1">
+        <v>1</v>
+      </c>
+      <c r="H360" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I360" s="1">
+        <v>1</v>
+      </c>
+      <c r="J360" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K360" s="2">
+        <v>0</v>
+      </c>
+      <c r="L360" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <f t="shared" si="9"/>
+        <v>7.3210904262194585E+65</v>
+      </c>
+      <c r="C361" s="1">
+        <v>30</v>
+      </c>
+      <c r="D361" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E361" s="1">
+        <v>3</v>
+      </c>
+      <c r="F361" s="1">
+        <v>14</v>
+      </c>
+      <c r="G361" s="1">
+        <v>1</v>
+      </c>
+      <c r="H361" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I361" s="1">
+        <v>1</v>
+      </c>
+      <c r="J361" s="2">
+        <v>14</v>
+      </c>
+      <c r="K361" s="2">
+        <v>4</v>
+      </c>
+      <c r="L361" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <f t="shared" si="9"/>
+        <v>8.5656757986767668E+65</v>
+      </c>
+      <c r="C362" s="1">
+        <v>30</v>
+      </c>
+      <c r="D362" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>3</v>
+      </c>
+      <c r="F362" s="1">
+        <v>14</v>
+      </c>
+      <c r="G362" s="1">
+        <v>1</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I362" s="1">
+        <v>1</v>
+      </c>
+      <c r="J362" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K362" s="2">
+        <v>0</v>
+      </c>
+      <c r="L362" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0021840684451816E+66</v>
+      </c>
+      <c r="C363" s="1">
+        <v>30</v>
+      </c>
+      <c r="D363" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E363" s="1">
+        <v>3</v>
+      </c>
+      <c r="F363" s="1">
+        <v>14</v>
+      </c>
+      <c r="G363" s="1">
+        <v>1</v>
+      </c>
+      <c r="H363" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I363" s="1">
+        <v>1</v>
+      </c>
+      <c r="J363" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K363" s="2">
+        <v>0</v>
+      </c>
+      <c r="L363" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1725553600808625E+66</v>
+      </c>
+      <c r="C364" s="1">
+        <v>30</v>
+      </c>
+      <c r="D364" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E364" s="1">
+        <v>3</v>
+      </c>
+      <c r="F364" s="1">
+        <v>14</v>
+      </c>
+      <c r="G364" s="1">
+        <v>1</v>
+      </c>
+      <c r="H364" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I364" s="1">
+        <v>1</v>
+      </c>
+      <c r="J364" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K364" s="2">
+        <v>0</v>
+      </c>
+      <c r="L364" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3718897712946091E+66</v>
+      </c>
+      <c r="C365" s="1">
+        <v>30</v>
+      </c>
+      <c r="D365" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E365" s="1">
+        <v>3</v>
+      </c>
+      <c r="F365" s="1">
+        <v>14</v>
+      </c>
+      <c r="G365" s="1">
+        <v>1</v>
+      </c>
+      <c r="H365" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I365" s="1">
+        <v>1</v>
+      </c>
+      <c r="J365" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K365" s="2">
+        <v>0</v>
+      </c>
+      <c r="L365" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <f t="shared" si="9"/>
+        <v>1.6051110324146925E+66</v>
+      </c>
+      <c r="C366" s="1">
+        <v>30</v>
+      </c>
+      <c r="D366" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E366" s="1">
+        <v>3</v>
+      </c>
+      <c r="F366" s="1">
+        <v>14</v>
+      </c>
+      <c r="G366" s="1">
+        <v>1</v>
+      </c>
+      <c r="H366" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I366" s="1">
+        <v>1</v>
+      </c>
+      <c r="J366" s="2">
+        <v>14</v>
+      </c>
+      <c r="K366" s="2">
+        <v>4</v>
+      </c>
+      <c r="L366" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712C532-50FF-4181-B5A8-5666926F9ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E1A1D-A0E0-442A-9012-A94372106481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L366"/>
+  <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12346,7 +12346,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" ref="B304:B366" si="8">B303*1.15</f>
+        <f t="shared" ref="B304:B341" si="8">B303*1.15</f>
         <v>1.7990301553589509E+62</v>
       </c>
       <c r="C304" s="1">
@@ -13867,7 +13867,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <f t="shared" ref="B343:B366" si="9">B342*1.17</f>
+        <f t="shared" ref="B343:B367" si="9">B342*1.17</f>
         <v>4.337407834988524E+64</v>
       </c>
       <c r="C343" s="1">
@@ -14795,6 +14795,786 @@
         <v>4</v>
       </c>
       <c r="L366" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <f>B366*1.2</f>
+        <v>1.9261332388976308E+66</v>
+      </c>
+      <c r="C367" s="1">
+        <v>30</v>
+      </c>
+      <c r="D367" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>3</v>
+      </c>
+      <c r="F367" s="1">
+        <v>14</v>
+      </c>
+      <c r="G367" s="1">
+        <v>1</v>
+      </c>
+      <c r="H367" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I367" s="1">
+        <v>1</v>
+      </c>
+      <c r="J367" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K367" s="2">
+        <v>0</v>
+      </c>
+      <c r="L367" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <f t="shared" ref="B368:B386" si="10">B367*1.2</f>
+        <v>2.3113598866771567E+66</v>
+      </c>
+      <c r="C368" s="1">
+        <v>30</v>
+      </c>
+      <c r="D368" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E368" s="1">
+        <v>3</v>
+      </c>
+      <c r="F368" s="1">
+        <v>14</v>
+      </c>
+      <c r="G368" s="1">
+        <v>1</v>
+      </c>
+      <c r="H368" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I368" s="1">
+        <v>1</v>
+      </c>
+      <c r="J368" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K368" s="2">
+        <v>0</v>
+      </c>
+      <c r="L368" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <f t="shared" si="10"/>
+        <v>2.773631864012588E+66</v>
+      </c>
+      <c r="C369" s="1">
+        <v>30</v>
+      </c>
+      <c r="D369" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E369" s="1">
+        <v>3</v>
+      </c>
+      <c r="F369" s="1">
+        <v>14</v>
+      </c>
+      <c r="G369" s="1">
+        <v>1</v>
+      </c>
+      <c r="H369" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I369" s="1">
+        <v>1</v>
+      </c>
+      <c r="J369" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K369" s="2">
+        <v>0</v>
+      </c>
+      <c r="L369" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <f t="shared" si="10"/>
+        <v>3.3283582368151055E+66</v>
+      </c>
+      <c r="C370" s="1">
+        <v>30</v>
+      </c>
+      <c r="D370" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E370" s="1">
+        <v>3</v>
+      </c>
+      <c r="F370" s="1">
+        <v>14</v>
+      </c>
+      <c r="G370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J370" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K370" s="2">
+        <v>0</v>
+      </c>
+      <c r="L370" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9940298841781265E+66</v>
+      </c>
+      <c r="C371" s="1">
+        <v>30</v>
+      </c>
+      <c r="D371" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E371" s="1">
+        <v>3</v>
+      </c>
+      <c r="F371" s="1">
+        <v>14</v>
+      </c>
+      <c r="G371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I371" s="1">
+        <v>1</v>
+      </c>
+      <c r="J371" s="2">
+        <v>14</v>
+      </c>
+      <c r="K371" s="2">
+        <v>4</v>
+      </c>
+      <c r="L371" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <f t="shared" si="10"/>
+        <v>4.7928358610137513E+66</v>
+      </c>
+      <c r="C372" s="1">
+        <v>30</v>
+      </c>
+      <c r="D372" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E372" s="1">
+        <v>3</v>
+      </c>
+      <c r="F372" s="1">
+        <v>14</v>
+      </c>
+      <c r="G372" s="1">
+        <v>1</v>
+      </c>
+      <c r="H372" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I372" s="1">
+        <v>1</v>
+      </c>
+      <c r="J372" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K372" s="2">
+        <v>0</v>
+      </c>
+      <c r="L372" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <f t="shared" si="10"/>
+        <v>5.7514030332165018E+66</v>
+      </c>
+      <c r="C373" s="1">
+        <v>30</v>
+      </c>
+      <c r="D373" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E373" s="1">
+        <v>3</v>
+      </c>
+      <c r="F373" s="1">
+        <v>14</v>
+      </c>
+      <c r="G373" s="1">
+        <v>1</v>
+      </c>
+      <c r="H373" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I373" s="1">
+        <v>1</v>
+      </c>
+      <c r="J373" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K373" s="2">
+        <v>0</v>
+      </c>
+      <c r="L373" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <f t="shared" si="10"/>
+        <v>6.9016836398598015E+66</v>
+      </c>
+      <c r="C374" s="1">
+        <v>30</v>
+      </c>
+      <c r="D374" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E374" s="1">
+        <v>3</v>
+      </c>
+      <c r="F374" s="1">
+        <v>14</v>
+      </c>
+      <c r="G374" s="1">
+        <v>1</v>
+      </c>
+      <c r="H374" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I374" s="1">
+        <v>1</v>
+      </c>
+      <c r="J374" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K374" s="2">
+        <v>0</v>
+      </c>
+      <c r="L374" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <f t="shared" si="10"/>
+        <v>8.2820203678317609E+66</v>
+      </c>
+      <c r="C375" s="1">
+        <v>30</v>
+      </c>
+      <c r="D375" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E375" s="1">
+        <v>3</v>
+      </c>
+      <c r="F375" s="1">
+        <v>14</v>
+      </c>
+      <c r="G375" s="1">
+        <v>1</v>
+      </c>
+      <c r="H375" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I375" s="1">
+        <v>1</v>
+      </c>
+      <c r="J375" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K375" s="2">
+        <v>0</v>
+      </c>
+      <c r="L375" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <f t="shared" si="10"/>
+        <v>9.9384244413981134E+66</v>
+      </c>
+      <c r="C376" s="1">
+        <v>30</v>
+      </c>
+      <c r="D376" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E376" s="1">
+        <v>3</v>
+      </c>
+      <c r="F376" s="1">
+        <v>14</v>
+      </c>
+      <c r="G376" s="1">
+        <v>1</v>
+      </c>
+      <c r="H376" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I376" s="1">
+        <v>1</v>
+      </c>
+      <c r="J376" s="2">
+        <v>14</v>
+      </c>
+      <c r="K376" s="2">
+        <v>4</v>
+      </c>
+      <c r="L376" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1926109329677736E+67</v>
+      </c>
+      <c r="C377" s="1">
+        <v>30</v>
+      </c>
+      <c r="D377" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E377" s="1">
+        <v>3</v>
+      </c>
+      <c r="F377" s="1">
+        <v>14</v>
+      </c>
+      <c r="G377" s="1">
+        <v>1</v>
+      </c>
+      <c r="H377" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I377" s="1">
+        <v>1</v>
+      </c>
+      <c r="J377" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K377" s="2">
+        <v>0</v>
+      </c>
+      <c r="L377" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4311331195613281E+67</v>
+      </c>
+      <c r="C378" s="1">
+        <v>30</v>
+      </c>
+      <c r="D378" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E378" s="1">
+        <v>3</v>
+      </c>
+      <c r="F378" s="1">
+        <v>14</v>
+      </c>
+      <c r="G378" s="1">
+        <v>1</v>
+      </c>
+      <c r="H378" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I378" s="1">
+        <v>1</v>
+      </c>
+      <c r="J378" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K378" s="2">
+        <v>0</v>
+      </c>
+      <c r="L378" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7173597434735937E+67</v>
+      </c>
+      <c r="C379" s="1">
+        <v>30</v>
+      </c>
+      <c r="D379" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E379" s="1">
+        <v>3</v>
+      </c>
+      <c r="F379" s="1">
+        <v>14</v>
+      </c>
+      <c r="G379" s="1">
+        <v>1</v>
+      </c>
+      <c r="H379" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I379" s="1">
+        <v>1</v>
+      </c>
+      <c r="J379" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K379" s="2">
+        <v>0</v>
+      </c>
+      <c r="L379" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <f t="shared" si="10"/>
+        <v>2.0608316921683125E+67</v>
+      </c>
+      <c r="C380" s="1">
+        <v>30</v>
+      </c>
+      <c r="D380" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E380" s="1">
+        <v>3</v>
+      </c>
+      <c r="F380" s="1">
+        <v>14</v>
+      </c>
+      <c r="G380" s="1">
+        <v>1</v>
+      </c>
+      <c r="H380" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I380" s="1">
+        <v>1</v>
+      </c>
+      <c r="J380" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K380" s="2">
+        <v>0</v>
+      </c>
+      <c r="L380" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <f t="shared" si="10"/>
+        <v>2.472998030601975E+67</v>
+      </c>
+      <c r="C381" s="1">
+        <v>30</v>
+      </c>
+      <c r="D381" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E381" s="1">
+        <v>3</v>
+      </c>
+      <c r="F381" s="1">
+        <v>14</v>
+      </c>
+      <c r="G381" s="1">
+        <v>1</v>
+      </c>
+      <c r="H381" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I381" s="1">
+        <v>1</v>
+      </c>
+      <c r="J381" s="2">
+        <v>14</v>
+      </c>
+      <c r="K381" s="2">
+        <v>4</v>
+      </c>
+      <c r="L381" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <f t="shared" si="10"/>
+        <v>2.9675976367223701E+67</v>
+      </c>
+      <c r="C382" s="1">
+        <v>30</v>
+      </c>
+      <c r="D382" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E382" s="1">
+        <v>3</v>
+      </c>
+      <c r="F382" s="1">
+        <v>14</v>
+      </c>
+      <c r="G382" s="1">
+        <v>1</v>
+      </c>
+      <c r="H382" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I382" s="1">
+        <v>1</v>
+      </c>
+      <c r="J382" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K382" s="2">
+        <v>0</v>
+      </c>
+      <c r="L382" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <f t="shared" si="10"/>
+        <v>3.5611171640668442E+67</v>
+      </c>
+      <c r="C383" s="1">
+        <v>30</v>
+      </c>
+      <c r="D383" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E383" s="1">
+        <v>3</v>
+      </c>
+      <c r="F383" s="1">
+        <v>14</v>
+      </c>
+      <c r="G383" s="1">
+        <v>1</v>
+      </c>
+      <c r="H383" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I383" s="1">
+        <v>1</v>
+      </c>
+      <c r="J383" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K383" s="2">
+        <v>0</v>
+      </c>
+      <c r="L383" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <f t="shared" si="10"/>
+        <v>4.2733405968802127E+67</v>
+      </c>
+      <c r="C384" s="1">
+        <v>30</v>
+      </c>
+      <c r="D384" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E384" s="1">
+        <v>3</v>
+      </c>
+      <c r="F384" s="1">
+        <v>14</v>
+      </c>
+      <c r="G384" s="1">
+        <v>1</v>
+      </c>
+      <c r="H384" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I384" s="1">
+        <v>1</v>
+      </c>
+      <c r="J384" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K384" s="2">
+        <v>0</v>
+      </c>
+      <c r="L384" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <f t="shared" si="10"/>
+        <v>5.1280087162562552E+67</v>
+      </c>
+      <c r="C385" s="1">
+        <v>30</v>
+      </c>
+      <c r="D385" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E385" s="1">
+        <v>3</v>
+      </c>
+      <c r="F385" s="1">
+        <v>14</v>
+      </c>
+      <c r="G385" s="1">
+        <v>1</v>
+      </c>
+      <c r="H385" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I385" s="1">
+        <v>1</v>
+      </c>
+      <c r="J385" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K385" s="2">
+        <v>0</v>
+      </c>
+      <c r="L385" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <f t="shared" si="10"/>
+        <v>6.1536104595075058E+67</v>
+      </c>
+      <c r="C386" s="1">
+        <v>30</v>
+      </c>
+      <c r="D386" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E386" s="1">
+        <v>3</v>
+      </c>
+      <c r="F386" s="1">
+        <v>14</v>
+      </c>
+      <c r="G386" s="1">
+        <v>1</v>
+      </c>
+      <c r="H386" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I386" s="1">
+        <v>1</v>
+      </c>
+      <c r="J386" s="2">
+        <v>14</v>
+      </c>
+      <c r="K386" s="2">
+        <v>4</v>
+      </c>
+      <c r="L386" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E1A1D-A0E0-442A-9012-A94372106481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CE1476-3645-4529-B21B-357BA77EB137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L386"/>
+  <dimension ref="A1:L401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="103.25" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -13867,7 +13867,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <f t="shared" ref="B343:B367" si="9">B342*1.17</f>
+        <f t="shared" ref="B343:B366" si="9">B342*1.17</f>
         <v>4.337407834988524E+64</v>
       </c>
       <c r="C343" s="1">
@@ -14842,7 +14842,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <f t="shared" ref="B368:B386" si="10">B367*1.2</f>
+        <f t="shared" ref="B368:B401" si="10">B367*1.2</f>
         <v>2.3113598866771567E+66</v>
       </c>
       <c r="C368" s="1">
@@ -15575,6 +15575,591 @@
         <v>4</v>
       </c>
       <c r="L386" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <f t="shared" si="10"/>
+        <v>7.3843325514090063E+67</v>
+      </c>
+      <c r="C387" s="1">
+        <v>30</v>
+      </c>
+      <c r="D387" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E387" s="1">
+        <v>3</v>
+      </c>
+      <c r="F387" s="1">
+        <v>14</v>
+      </c>
+      <c r="G387" s="1">
+        <v>1</v>
+      </c>
+      <c r="H387" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I387" s="1">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K387" s="2">
+        <v>0</v>
+      </c>
+      <c r="L387" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <f t="shared" si="10"/>
+        <v>8.8611990616908075E+67</v>
+      </c>
+      <c r="C388" s="1">
+        <v>30</v>
+      </c>
+      <c r="D388" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E388" s="1">
+        <v>3</v>
+      </c>
+      <c r="F388" s="1">
+        <v>14</v>
+      </c>
+      <c r="G388" s="1">
+        <v>1</v>
+      </c>
+      <c r="H388" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I388" s="1">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K388" s="2">
+        <v>0</v>
+      </c>
+      <c r="L388" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0633438874028969E+68</v>
+      </c>
+      <c r="C389" s="1">
+        <v>30</v>
+      </c>
+      <c r="D389" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E389" s="1">
+        <v>3</v>
+      </c>
+      <c r="F389" s="1">
+        <v>14</v>
+      </c>
+      <c r="G389" s="1">
+        <v>1</v>
+      </c>
+      <c r="H389" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I389" s="1">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K389" s="2">
+        <v>0</v>
+      </c>
+      <c r="L389" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2760126648834763E+68</v>
+      </c>
+      <c r="C390" s="1">
+        <v>30</v>
+      </c>
+      <c r="D390" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E390" s="1">
+        <v>3</v>
+      </c>
+      <c r="F390" s="1">
+        <v>14</v>
+      </c>
+      <c r="G390" s="1">
+        <v>1</v>
+      </c>
+      <c r="H390" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I390" s="1">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K390" s="2">
+        <v>0</v>
+      </c>
+      <c r="L390" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5312151978601715E+68</v>
+      </c>
+      <c r="C391" s="1">
+        <v>30</v>
+      </c>
+      <c r="D391" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E391" s="1">
+        <v>3</v>
+      </c>
+      <c r="F391" s="1">
+        <v>14</v>
+      </c>
+      <c r="G391" s="1">
+        <v>1</v>
+      </c>
+      <c r="H391" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I391" s="1">
+        <v>1</v>
+      </c>
+      <c r="J391" s="2">
+        <v>14</v>
+      </c>
+      <c r="K391" s="2">
+        <v>4</v>
+      </c>
+      <c r="L391" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8374582374322057E+68</v>
+      </c>
+      <c r="C392" s="1">
+        <v>30</v>
+      </c>
+      <c r="D392" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>3</v>
+      </c>
+      <c r="F392" s="1">
+        <v>14</v>
+      </c>
+      <c r="G392" s="1">
+        <v>1</v>
+      </c>
+      <c r="H392" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I392" s="1">
+        <v>1</v>
+      </c>
+      <c r="J392" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K392" s="2">
+        <v>0</v>
+      </c>
+      <c r="L392" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <f t="shared" si="10"/>
+        <v>2.2049498849186468E+68</v>
+      </c>
+      <c r="C393" s="1">
+        <v>30</v>
+      </c>
+      <c r="D393" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E393" s="1">
+        <v>3</v>
+      </c>
+      <c r="F393" s="1">
+        <v>14</v>
+      </c>
+      <c r="G393" s="1">
+        <v>1</v>
+      </c>
+      <c r="H393" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I393" s="1">
+        <v>1</v>
+      </c>
+      <c r="J393" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K393" s="2">
+        <v>0</v>
+      </c>
+      <c r="L393" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <f t="shared" si="10"/>
+        <v>2.6459398619023758E+68</v>
+      </c>
+      <c r="C394" s="1">
+        <v>30</v>
+      </c>
+      <c r="D394" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E394" s="1">
+        <v>3</v>
+      </c>
+      <c r="F394" s="1">
+        <v>14</v>
+      </c>
+      <c r="G394" s="1">
+        <v>1</v>
+      </c>
+      <c r="H394" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I394" s="1">
+        <v>1</v>
+      </c>
+      <c r="J394" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K394" s="2">
+        <v>0</v>
+      </c>
+      <c r="L394" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <f t="shared" si="10"/>
+        <v>3.1751278342828509E+68</v>
+      </c>
+      <c r="C395" s="1">
+        <v>30</v>
+      </c>
+      <c r="D395" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E395" s="1">
+        <v>3</v>
+      </c>
+      <c r="F395" s="1">
+        <v>14</v>
+      </c>
+      <c r="G395" s="1">
+        <v>1</v>
+      </c>
+      <c r="H395" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I395" s="1">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K395" s="2">
+        <v>0</v>
+      </c>
+      <c r="L395" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <f t="shared" si="10"/>
+        <v>3.8101534011394209E+68</v>
+      </c>
+      <c r="C396" s="1">
+        <v>30</v>
+      </c>
+      <c r="D396" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E396" s="1">
+        <v>3</v>
+      </c>
+      <c r="F396" s="1">
+        <v>14</v>
+      </c>
+      <c r="G396" s="1">
+        <v>1</v>
+      </c>
+      <c r="H396" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I396" s="1">
+        <v>1</v>
+      </c>
+      <c r="J396" s="2">
+        <v>14</v>
+      </c>
+      <c r="K396" s="2">
+        <v>4</v>
+      </c>
+      <c r="L396" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <f t="shared" si="10"/>
+        <v>4.5721840813673052E+68</v>
+      </c>
+      <c r="C397" s="1">
+        <v>30</v>
+      </c>
+      <c r="D397" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E397" s="1">
+        <v>3</v>
+      </c>
+      <c r="F397" s="1">
+        <v>14</v>
+      </c>
+      <c r="G397" s="1">
+        <v>1</v>
+      </c>
+      <c r="H397" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I397" s="1">
+        <v>1</v>
+      </c>
+      <c r="J397" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K397" s="2">
+        <v>0</v>
+      </c>
+      <c r="L397" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <f t="shared" si="10"/>
+        <v>5.4866208976407665E+68</v>
+      </c>
+      <c r="C398" s="1">
+        <v>30</v>
+      </c>
+      <c r="D398" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E398" s="1">
+        <v>3</v>
+      </c>
+      <c r="F398" s="1">
+        <v>14</v>
+      </c>
+      <c r="G398" s="1">
+        <v>1</v>
+      </c>
+      <c r="H398" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I398" s="1">
+        <v>1</v>
+      </c>
+      <c r="J398" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K398" s="2">
+        <v>0</v>
+      </c>
+      <c r="L398" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <f t="shared" si="10"/>
+        <v>6.58394507716892E+68</v>
+      </c>
+      <c r="C399" s="1">
+        <v>30</v>
+      </c>
+      <c r="D399" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E399" s="1">
+        <v>3</v>
+      </c>
+      <c r="F399" s="1">
+        <v>14</v>
+      </c>
+      <c r="G399" s="1">
+        <v>1</v>
+      </c>
+      <c r="H399" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I399" s="1">
+        <v>1</v>
+      </c>
+      <c r="J399" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K399" s="2">
+        <v>0</v>
+      </c>
+      <c r="L399" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <f t="shared" si="10"/>
+        <v>7.9007340926027032E+68</v>
+      </c>
+      <c r="C400" s="1">
+        <v>30</v>
+      </c>
+      <c r="D400" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E400" s="1">
+        <v>3</v>
+      </c>
+      <c r="F400" s="1">
+        <v>14</v>
+      </c>
+      <c r="G400" s="1">
+        <v>1</v>
+      </c>
+      <c r="H400" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I400" s="1">
+        <v>1</v>
+      </c>
+      <c r="J400" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K400" s="2">
+        <v>0</v>
+      </c>
+      <c r="L400" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <f t="shared" si="10"/>
+        <v>9.4808809111232438E+68</v>
+      </c>
+      <c r="C401" s="1">
+        <v>30</v>
+      </c>
+      <c r="D401" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E401" s="1">
+        <v>3</v>
+      </c>
+      <c r="F401" s="1">
+        <v>14</v>
+      </c>
+      <c r="G401" s="1">
+        <v>1</v>
+      </c>
+      <c r="H401" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I401" s="1">
+        <v>1</v>
+      </c>
+      <c r="J401" s="2">
+        <v>14</v>
+      </c>
+      <c r="K401" s="2">
+        <v>4</v>
+      </c>
+      <c r="L401" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CE1476-3645-4529-B21B-357BA77EB137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C435C8-F53A-414C-A70D-70887B4FF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L401"/>
+  <dimension ref="A1:L416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E395" sqref="E395"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14842,7 +14842,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <f t="shared" ref="B368:B401" si="10">B367*1.2</f>
+        <f t="shared" ref="B368:B416" si="10">B367*1.2</f>
         <v>2.3113598866771567E+66</v>
       </c>
       <c r="C368" s="1">
@@ -16160,6 +16160,591 @@
         <v>4</v>
       </c>
       <c r="L401" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <f>B401*1.3</f>
+        <v>1.2325145184460217E+69</v>
+      </c>
+      <c r="C402" s="1">
+        <v>30</v>
+      </c>
+      <c r="D402" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E402" s="1">
+        <v>3</v>
+      </c>
+      <c r="F402" s="1">
+        <v>14</v>
+      </c>
+      <c r="G402" s="1">
+        <v>1</v>
+      </c>
+      <c r="H402" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I402" s="1">
+        <v>1</v>
+      </c>
+      <c r="J402" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K402" s="2">
+        <v>0</v>
+      </c>
+      <c r="L402" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <f t="shared" ref="B403:B416" si="11">B402*1.3</f>
+        <v>1.6022688739798282E+69</v>
+      </c>
+      <c r="C403" s="1">
+        <v>30</v>
+      </c>
+      <c r="D403" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E403" s="1">
+        <v>3</v>
+      </c>
+      <c r="F403" s="1">
+        <v>14</v>
+      </c>
+      <c r="G403" s="1">
+        <v>1</v>
+      </c>
+      <c r="H403" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I403" s="1">
+        <v>1</v>
+      </c>
+      <c r="J403" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K403" s="2">
+        <v>0</v>
+      </c>
+      <c r="L403" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0829495361737768E+69</v>
+      </c>
+      <c r="C404" s="1">
+        <v>30</v>
+      </c>
+      <c r="D404" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E404" s="1">
+        <v>3</v>
+      </c>
+      <c r="F404" s="1">
+        <v>14</v>
+      </c>
+      <c r="G404" s="1">
+        <v>1</v>
+      </c>
+      <c r="H404" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I404" s="1">
+        <v>1</v>
+      </c>
+      <c r="J404" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K404" s="2">
+        <v>0</v>
+      </c>
+      <c r="L404" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <f t="shared" si="11"/>
+        <v>2.7078343970259098E+69</v>
+      </c>
+      <c r="C405" s="1">
+        <v>30</v>
+      </c>
+      <c r="D405" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E405" s="1">
+        <v>3</v>
+      </c>
+      <c r="F405" s="1">
+        <v>14</v>
+      </c>
+      <c r="G405" s="1">
+        <v>1</v>
+      </c>
+      <c r="H405" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I405" s="1">
+        <v>1</v>
+      </c>
+      <c r="J405" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K405" s="2">
+        <v>0</v>
+      </c>
+      <c r="L405" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <f t="shared" si="11"/>
+        <v>3.5201847161336831E+69</v>
+      </c>
+      <c r="C406" s="1">
+        <v>30</v>
+      </c>
+      <c r="D406" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E406" s="1">
+        <v>3</v>
+      </c>
+      <c r="F406" s="1">
+        <v>14</v>
+      </c>
+      <c r="G406" s="1">
+        <v>1</v>
+      </c>
+      <c r="H406" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I406" s="1">
+        <v>1</v>
+      </c>
+      <c r="J406" s="2">
+        <v>14</v>
+      </c>
+      <c r="K406" s="2">
+        <v>4</v>
+      </c>
+      <c r="L406" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <f t="shared" si="11"/>
+        <v>4.5762401309737885E+69</v>
+      </c>
+      <c r="C407" s="1">
+        <v>30</v>
+      </c>
+      <c r="D407" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E407" s="1">
+        <v>3</v>
+      </c>
+      <c r="F407" s="1">
+        <v>14</v>
+      </c>
+      <c r="G407" s="1">
+        <v>1</v>
+      </c>
+      <c r="H407" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I407" s="1">
+        <v>1</v>
+      </c>
+      <c r="J407" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K407" s="2">
+        <v>0</v>
+      </c>
+      <c r="L407" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <f t="shared" si="11"/>
+        <v>5.9491121702659251E+69</v>
+      </c>
+      <c r="C408" s="1">
+        <v>30</v>
+      </c>
+      <c r="D408" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E408" s="1">
+        <v>3</v>
+      </c>
+      <c r="F408" s="1">
+        <v>14</v>
+      </c>
+      <c r="G408" s="1">
+        <v>1</v>
+      </c>
+      <c r="H408" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I408" s="1">
+        <v>1</v>
+      </c>
+      <c r="J408" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K408" s="2">
+        <v>0</v>
+      </c>
+      <c r="L408" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <f t="shared" si="11"/>
+        <v>7.7338458213457023E+69</v>
+      </c>
+      <c r="C409" s="1">
+        <v>30</v>
+      </c>
+      <c r="D409" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E409" s="1">
+        <v>3</v>
+      </c>
+      <c r="F409" s="1">
+        <v>14</v>
+      </c>
+      <c r="G409" s="1">
+        <v>1</v>
+      </c>
+      <c r="H409" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I409" s="1">
+        <v>1</v>
+      </c>
+      <c r="J409" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K409" s="2">
+        <v>0</v>
+      </c>
+      <c r="L409" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0053999567749413E+70</v>
+      </c>
+      <c r="C410" s="1">
+        <v>30</v>
+      </c>
+      <c r="D410" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E410" s="1">
+        <v>3</v>
+      </c>
+      <c r="F410" s="1">
+        <v>14</v>
+      </c>
+      <c r="G410" s="1">
+        <v>1</v>
+      </c>
+      <c r="H410" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I410" s="1">
+        <v>1</v>
+      </c>
+      <c r="J410" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K410" s="2">
+        <v>0</v>
+      </c>
+      <c r="L410" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3070199438074238E+70</v>
+      </c>
+      <c r="C411" s="1">
+        <v>30</v>
+      </c>
+      <c r="D411" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E411" s="1">
+        <v>3</v>
+      </c>
+      <c r="F411" s="1">
+        <v>14</v>
+      </c>
+      <c r="G411" s="1">
+        <v>1</v>
+      </c>
+      <c r="H411" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I411" s="1">
+        <v>1</v>
+      </c>
+      <c r="J411" s="2">
+        <v>14</v>
+      </c>
+      <c r="K411" s="2">
+        <v>4</v>
+      </c>
+      <c r="L411" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <f t="shared" si="11"/>
+        <v>1.699125926949651E+70</v>
+      </c>
+      <c r="C412" s="1">
+        <v>30</v>
+      </c>
+      <c r="D412" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E412" s="1">
+        <v>3</v>
+      </c>
+      <c r="F412" s="1">
+        <v>14</v>
+      </c>
+      <c r="G412" s="1">
+        <v>1</v>
+      </c>
+      <c r="H412" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I412" s="1">
+        <v>1</v>
+      </c>
+      <c r="J412" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K412" s="2">
+        <v>0</v>
+      </c>
+      <c r="L412" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <f t="shared" si="11"/>
+        <v>2.2088637050345463E+70</v>
+      </c>
+      <c r="C413" s="1">
+        <v>30</v>
+      </c>
+      <c r="D413" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E413" s="1">
+        <v>3</v>
+      </c>
+      <c r="F413" s="1">
+        <v>14</v>
+      </c>
+      <c r="G413" s="1">
+        <v>1</v>
+      </c>
+      <c r="H413" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I413" s="1">
+        <v>1</v>
+      </c>
+      <c r="J413" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K413" s="2">
+        <v>0</v>
+      </c>
+      <c r="L413" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <f t="shared" si="11"/>
+        <v>2.8715228165449105E+70</v>
+      </c>
+      <c r="C414" s="1">
+        <v>30</v>
+      </c>
+      <c r="D414" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E414" s="1">
+        <v>3</v>
+      </c>
+      <c r="F414" s="1">
+        <v>14</v>
+      </c>
+      <c r="G414" s="1">
+        <v>1</v>
+      </c>
+      <c r="H414" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I414" s="1">
+        <v>1</v>
+      </c>
+      <c r="J414" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K414" s="2">
+        <v>0</v>
+      </c>
+      <c r="L414" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <f t="shared" si="11"/>
+        <v>3.7329796615083837E+70</v>
+      </c>
+      <c r="C415" s="1">
+        <v>30</v>
+      </c>
+      <c r="D415" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E415" s="1">
+        <v>3</v>
+      </c>
+      <c r="F415" s="1">
+        <v>14</v>
+      </c>
+      <c r="G415" s="1">
+        <v>1</v>
+      </c>
+      <c r="H415" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I415" s="1">
+        <v>1</v>
+      </c>
+      <c r="J415" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K415" s="2">
+        <v>0</v>
+      </c>
+      <c r="L415" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <f t="shared" si="11"/>
+        <v>4.852873559960899E+70</v>
+      </c>
+      <c r="C416" s="1">
+        <v>30</v>
+      </c>
+      <c r="D416" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E416" s="1">
+        <v>3</v>
+      </c>
+      <c r="F416" s="1">
+        <v>14</v>
+      </c>
+      <c r="G416" s="1">
+        <v>1</v>
+      </c>
+      <c r="H416" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I416" s="1">
+        <v>1</v>
+      </c>
+      <c r="J416" s="2">
+        <v>14</v>
+      </c>
+      <c r="K416" s="2">
+        <v>4</v>
+      </c>
+      <c r="L416" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C435C8-F53A-414C-A70D-70887B4FF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0CCFBF-39E8-463D-8170-9F2D3470DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L416"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L438" sqref="L438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14842,7 +14842,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <f t="shared" ref="B368:B416" si="10">B367*1.2</f>
+        <f t="shared" ref="B368:B401" si="10">B367*1.2</f>
         <v>2.3113598866771567E+66</v>
       </c>
       <c r="C368" s="1">
@@ -16207,7 +16207,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <f t="shared" ref="B403:B416" si="11">B402*1.3</f>
+        <f t="shared" ref="B403:B451" si="11">B402*1.3</f>
         <v>1.6022688739798282E+69</v>
       </c>
       <c r="C403" s="1">
@@ -16745,6 +16745,1371 @@
         <v>4</v>
       </c>
       <c r="L416" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <f t="shared" si="11"/>
+        <v>6.3087356279491693E+70</v>
+      </c>
+      <c r="C417" s="1">
+        <v>30</v>
+      </c>
+      <c r="D417" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E417" s="1">
+        <v>3</v>
+      </c>
+      <c r="F417" s="1">
+        <v>14</v>
+      </c>
+      <c r="G417" s="1">
+        <v>1</v>
+      </c>
+      <c r="H417" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I417" s="1">
+        <v>1</v>
+      </c>
+      <c r="J417" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K417" s="2">
+        <v>0</v>
+      </c>
+      <c r="L417" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2013563163339199E+70</v>
+      </c>
+      <c r="C418" s="1">
+        <v>30</v>
+      </c>
+      <c r="D418" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E418" s="1">
+        <v>3</v>
+      </c>
+      <c r="F418" s="1">
+        <v>14</v>
+      </c>
+      <c r="G418" s="1">
+        <v>1</v>
+      </c>
+      <c r="H418" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I418" s="1">
+        <v>1</v>
+      </c>
+      <c r="J418" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K418" s="2">
+        <v>0</v>
+      </c>
+      <c r="L418" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0661763211234096E+71</v>
+      </c>
+      <c r="C419" s="1">
+        <v>30</v>
+      </c>
+      <c r="D419" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E419" s="1">
+        <v>3</v>
+      </c>
+      <c r="F419" s="1">
+        <v>14</v>
+      </c>
+      <c r="G419" s="1">
+        <v>1</v>
+      </c>
+      <c r="H419" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I419" s="1">
+        <v>1</v>
+      </c>
+      <c r="J419" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K419" s="2">
+        <v>0</v>
+      </c>
+      <c r="L419" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3860292174604326E+71</v>
+      </c>
+      <c r="C420" s="1">
+        <v>30</v>
+      </c>
+      <c r="D420" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E420" s="1">
+        <v>3</v>
+      </c>
+      <c r="F420" s="1">
+        <v>14</v>
+      </c>
+      <c r="G420" s="1">
+        <v>1</v>
+      </c>
+      <c r="H420" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I420" s="1">
+        <v>1</v>
+      </c>
+      <c r="J420" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K420" s="2">
+        <v>0</v>
+      </c>
+      <c r="L420" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8018379826985624E+71</v>
+      </c>
+      <c r="C421" s="1">
+        <v>30</v>
+      </c>
+      <c r="D421" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E421" s="1">
+        <v>3</v>
+      </c>
+      <c r="F421" s="1">
+        <v>14</v>
+      </c>
+      <c r="G421" s="1">
+        <v>1</v>
+      </c>
+      <c r="H421" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I421" s="1">
+        <v>1</v>
+      </c>
+      <c r="J421" s="2">
+        <v>14</v>
+      </c>
+      <c r="K421" s="2">
+        <v>4</v>
+      </c>
+      <c r="L421" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3423893775081315E+71</v>
+      </c>
+      <c r="C422" s="1">
+        <v>30</v>
+      </c>
+      <c r="D422" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E422" s="1">
+        <v>3</v>
+      </c>
+      <c r="F422" s="1">
+        <v>14</v>
+      </c>
+      <c r="G422" s="1">
+        <v>1</v>
+      </c>
+      <c r="H422" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I422" s="1">
+        <v>1</v>
+      </c>
+      <c r="J422" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K422" s="2">
+        <v>0</v>
+      </c>
+      <c r="L422" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <f t="shared" si="11"/>
+        <v>3.0451061907605708E+71</v>
+      </c>
+      <c r="C423" s="1">
+        <v>30</v>
+      </c>
+      <c r="D423" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E423" s="1">
+        <v>3</v>
+      </c>
+      <c r="F423" s="1">
+        <v>14</v>
+      </c>
+      <c r="G423" s="1">
+        <v>1</v>
+      </c>
+      <c r="H423" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I423" s="1">
+        <v>1</v>
+      </c>
+      <c r="J423" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K423" s="2">
+        <v>0</v>
+      </c>
+      <c r="L423" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <f t="shared" si="11"/>
+        <v>3.9586380479887423E+71</v>
+      </c>
+      <c r="C424" s="1">
+        <v>30</v>
+      </c>
+      <c r="D424" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E424" s="1">
+        <v>3</v>
+      </c>
+      <c r="F424" s="1">
+        <v>14</v>
+      </c>
+      <c r="G424" s="1">
+        <v>1</v>
+      </c>
+      <c r="H424" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I424" s="1">
+        <v>1</v>
+      </c>
+      <c r="J424" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K424" s="2">
+        <v>0</v>
+      </c>
+      <c r="L424" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <f t="shared" si="11"/>
+        <v>5.1462294623853655E+71</v>
+      </c>
+      <c r="C425" s="1">
+        <v>30</v>
+      </c>
+      <c r="D425" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E425" s="1">
+        <v>3</v>
+      </c>
+      <c r="F425" s="1">
+        <v>14</v>
+      </c>
+      <c r="G425" s="1">
+        <v>1</v>
+      </c>
+      <c r="H425" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I425" s="1">
+        <v>1</v>
+      </c>
+      <c r="J425" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K425" s="2">
+        <v>0</v>
+      </c>
+      <c r="L425" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <f t="shared" si="11"/>
+        <v>6.6900983011009754E+71</v>
+      </c>
+      <c r="C426" s="1">
+        <v>30</v>
+      </c>
+      <c r="D426" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E426" s="1">
+        <v>3</v>
+      </c>
+      <c r="F426" s="1">
+        <v>14</v>
+      </c>
+      <c r="G426" s="1">
+        <v>1</v>
+      </c>
+      <c r="H426" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I426" s="1">
+        <v>1</v>
+      </c>
+      <c r="J426" s="2">
+        <v>14</v>
+      </c>
+      <c r="K426" s="2">
+        <v>4</v>
+      </c>
+      <c r="L426" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <f t="shared" si="11"/>
+        <v>8.6971277914312684E+71</v>
+      </c>
+      <c r="C427" s="1">
+        <v>30</v>
+      </c>
+      <c r="D427" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E427" s="1">
+        <v>3</v>
+      </c>
+      <c r="F427" s="1">
+        <v>14</v>
+      </c>
+      <c r="G427" s="1">
+        <v>1</v>
+      </c>
+      <c r="H427" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I427" s="1">
+        <v>1</v>
+      </c>
+      <c r="J427" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K427" s="2">
+        <v>0</v>
+      </c>
+      <c r="L427" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1306266128860649E+72</v>
+      </c>
+      <c r="C428" s="1">
+        <v>30</v>
+      </c>
+      <c r="D428" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E428" s="1">
+        <v>3</v>
+      </c>
+      <c r="F428" s="1">
+        <v>14</v>
+      </c>
+      <c r="G428" s="1">
+        <v>1</v>
+      </c>
+      <c r="H428" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I428" s="1">
+        <v>1</v>
+      </c>
+      <c r="J428" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K428" s="2">
+        <v>0</v>
+      </c>
+      <c r="L428" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4698145967518845E+72</v>
+      </c>
+      <c r="C429" s="1">
+        <v>30</v>
+      </c>
+      <c r="D429" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E429" s="1">
+        <v>3</v>
+      </c>
+      <c r="F429" s="1">
+        <v>14</v>
+      </c>
+      <c r="G429" s="1">
+        <v>1</v>
+      </c>
+      <c r="H429" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I429" s="1">
+        <v>1</v>
+      </c>
+      <c r="J429" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K429" s="2">
+        <v>0</v>
+      </c>
+      <c r="L429" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <f t="shared" si="11"/>
+        <v>1.9107589757774501E+72</v>
+      </c>
+      <c r="C430" s="1">
+        <v>30</v>
+      </c>
+      <c r="D430" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E430" s="1">
+        <v>3</v>
+      </c>
+      <c r="F430" s="1">
+        <v>14</v>
+      </c>
+      <c r="G430" s="1">
+        <v>1</v>
+      </c>
+      <c r="H430" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I430" s="1">
+        <v>1</v>
+      </c>
+      <c r="J430" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K430" s="2">
+        <v>0</v>
+      </c>
+      <c r="L430" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4839866685106852E+72</v>
+      </c>
+      <c r="C431" s="1">
+        <v>30</v>
+      </c>
+      <c r="D431" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E431" s="1">
+        <v>3</v>
+      </c>
+      <c r="F431" s="1">
+        <v>14</v>
+      </c>
+      <c r="G431" s="1">
+        <v>1</v>
+      </c>
+      <c r="H431" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I431" s="1">
+        <v>1</v>
+      </c>
+      <c r="J431" s="2">
+        <v>14</v>
+      </c>
+      <c r="K431" s="2">
+        <v>4</v>
+      </c>
+      <c r="L431" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <f t="shared" si="11"/>
+        <v>3.2291826690638907E+72</v>
+      </c>
+      <c r="C432" s="1">
+        <v>30</v>
+      </c>
+      <c r="D432" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E432" s="1">
+        <v>3</v>
+      </c>
+      <c r="F432" s="1">
+        <v>14</v>
+      </c>
+      <c r="G432" s="1">
+        <v>1</v>
+      </c>
+      <c r="H432" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I432" s="1">
+        <v>1</v>
+      </c>
+      <c r="J432" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K432" s="2">
+        <v>0</v>
+      </c>
+      <c r="L432" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <f t="shared" si="11"/>
+        <v>4.1979374697830585E+72</v>
+      </c>
+      <c r="C433" s="1">
+        <v>30</v>
+      </c>
+      <c r="D433" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E433" s="1">
+        <v>3</v>
+      </c>
+      <c r="F433" s="1">
+        <v>14</v>
+      </c>
+      <c r="G433" s="1">
+        <v>1</v>
+      </c>
+      <c r="H433" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I433" s="1">
+        <v>1</v>
+      </c>
+      <c r="J433" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K433" s="2">
+        <v>0</v>
+      </c>
+      <c r="L433" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <f t="shared" si="11"/>
+        <v>5.4573187107179762E+72</v>
+      </c>
+      <c r="C434" s="1">
+        <v>30</v>
+      </c>
+      <c r="D434" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E434" s="1">
+        <v>3</v>
+      </c>
+      <c r="F434" s="1">
+        <v>14</v>
+      </c>
+      <c r="G434" s="1">
+        <v>1</v>
+      </c>
+      <c r="H434" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I434" s="1">
+        <v>1</v>
+      </c>
+      <c r="J434" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K434" s="2">
+        <v>0</v>
+      </c>
+      <c r="L434" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <f t="shared" si="11"/>
+        <v>7.09451432393337E+72</v>
+      </c>
+      <c r="C435" s="1">
+        <v>30</v>
+      </c>
+      <c r="D435" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E435" s="1">
+        <v>3</v>
+      </c>
+      <c r="F435" s="1">
+        <v>14</v>
+      </c>
+      <c r="G435" s="1">
+        <v>1</v>
+      </c>
+      <c r="H435" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I435" s="1">
+        <v>1</v>
+      </c>
+      <c r="J435" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K435" s="2">
+        <v>0</v>
+      </c>
+      <c r="L435" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <f t="shared" si="11"/>
+        <v>9.2228686211133819E+72</v>
+      </c>
+      <c r="C436" s="1">
+        <v>30</v>
+      </c>
+      <c r="D436" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E436" s="1">
+        <v>3</v>
+      </c>
+      <c r="F436" s="1">
+        <v>14</v>
+      </c>
+      <c r="G436" s="1">
+        <v>1</v>
+      </c>
+      <c r="H436" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I436" s="1">
+        <v>1</v>
+      </c>
+      <c r="J436" s="2">
+        <v>14</v>
+      </c>
+      <c r="K436" s="2">
+        <v>4</v>
+      </c>
+      <c r="L436" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1989729207447396E+73</v>
+      </c>
+      <c r="C437" s="1">
+        <v>30</v>
+      </c>
+      <c r="D437" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E437" s="1">
+        <v>3</v>
+      </c>
+      <c r="F437" s="1">
+        <v>14</v>
+      </c>
+      <c r="G437" s="1">
+        <v>1</v>
+      </c>
+      <c r="H437" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I437" s="1">
+        <v>1</v>
+      </c>
+      <c r="J437" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K437" s="2">
+        <v>0</v>
+      </c>
+      <c r="L437" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5586647969681614E+73</v>
+      </c>
+      <c r="C438" s="1">
+        <v>30</v>
+      </c>
+      <c r="D438" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E438" s="1">
+        <v>3</v>
+      </c>
+      <c r="F438" s="1">
+        <v>14</v>
+      </c>
+      <c r="G438" s="1">
+        <v>1</v>
+      </c>
+      <c r="H438" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I438" s="1">
+        <v>1</v>
+      </c>
+      <c r="J438" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K438" s="2">
+        <v>0</v>
+      </c>
+      <c r="L438" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <f t="shared" si="11"/>
+        <v>2.02626423605861E+73</v>
+      </c>
+      <c r="C439" s="1">
+        <v>30</v>
+      </c>
+      <c r="D439" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E439" s="1">
+        <v>3</v>
+      </c>
+      <c r="F439" s="1">
+        <v>14</v>
+      </c>
+      <c r="G439" s="1">
+        <v>1</v>
+      </c>
+      <c r="H439" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I439" s="1">
+        <v>1</v>
+      </c>
+      <c r="J439" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K439" s="2">
+        <v>0</v>
+      </c>
+      <c r="L439" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <f t="shared" si="11"/>
+        <v>2.6341435068761932E+73</v>
+      </c>
+      <c r="C440" s="1">
+        <v>30</v>
+      </c>
+      <c r="D440" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E440" s="1">
+        <v>3</v>
+      </c>
+      <c r="F440" s="1">
+        <v>14</v>
+      </c>
+      <c r="G440" s="1">
+        <v>1</v>
+      </c>
+      <c r="H440" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I440" s="1">
+        <v>1</v>
+      </c>
+      <c r="J440" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K440" s="2">
+        <v>0</v>
+      </c>
+      <c r="L440" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <f t="shared" si="11"/>
+        <v>3.4243865589390512E+73</v>
+      </c>
+      <c r="C441" s="1">
+        <v>30</v>
+      </c>
+      <c r="D441" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E441" s="1">
+        <v>3</v>
+      </c>
+      <c r="F441" s="1">
+        <v>14</v>
+      </c>
+      <c r="G441" s="1">
+        <v>1</v>
+      </c>
+      <c r="H441" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I441" s="1">
+        <v>1</v>
+      </c>
+      <c r="J441" s="2">
+        <v>14</v>
+      </c>
+      <c r="K441" s="2">
+        <v>4</v>
+      </c>
+      <c r="L441" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <f t="shared" si="11"/>
+        <v>4.4517025266207669E+73</v>
+      </c>
+      <c r="C442" s="1">
+        <v>30</v>
+      </c>
+      <c r="D442" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E442" s="1">
+        <v>3</v>
+      </c>
+      <c r="F442" s="1">
+        <v>14</v>
+      </c>
+      <c r="G442" s="1">
+        <v>1</v>
+      </c>
+      <c r="H442" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I442" s="1">
+        <v>1</v>
+      </c>
+      <c r="J442" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K442" s="2">
+        <v>0</v>
+      </c>
+      <c r="L442" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <f t="shared" si="11"/>
+        <v>5.7872132846069974E+73</v>
+      </c>
+      <c r="C443" s="1">
+        <v>30</v>
+      </c>
+      <c r="D443" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E443" s="1">
+        <v>3</v>
+      </c>
+      <c r="F443" s="1">
+        <v>14</v>
+      </c>
+      <c r="G443" s="1">
+        <v>1</v>
+      </c>
+      <c r="H443" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I443" s="1">
+        <v>1</v>
+      </c>
+      <c r="J443" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K443" s="2">
+        <v>0</v>
+      </c>
+      <c r="L443" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <f t="shared" si="11"/>
+        <v>7.523377269989097E+73</v>
+      </c>
+      <c r="C444" s="1">
+        <v>30</v>
+      </c>
+      <c r="D444" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E444" s="1">
+        <v>3</v>
+      </c>
+      <c r="F444" s="1">
+        <v>14</v>
+      </c>
+      <c r="G444" s="1">
+        <v>1</v>
+      </c>
+      <c r="H444" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I444" s="1">
+        <v>1</v>
+      </c>
+      <c r="J444" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K444" s="2">
+        <v>0</v>
+      </c>
+      <c r="L444" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <f t="shared" si="11"/>
+        <v>9.780390450985827E+73</v>
+      </c>
+      <c r="C445" s="1">
+        <v>30</v>
+      </c>
+      <c r="D445" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E445" s="1">
+        <v>3</v>
+      </c>
+      <c r="F445" s="1">
+        <v>14</v>
+      </c>
+      <c r="G445" s="1">
+        <v>1</v>
+      </c>
+      <c r="H445" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I445" s="1">
+        <v>1</v>
+      </c>
+      <c r="J445" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K445" s="2">
+        <v>0</v>
+      </c>
+      <c r="L445" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2714507586281577E+74</v>
+      </c>
+      <c r="C446" s="1">
+        <v>30</v>
+      </c>
+      <c r="D446" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E446" s="1">
+        <v>3</v>
+      </c>
+      <c r="F446" s="1">
+        <v>14</v>
+      </c>
+      <c r="G446" s="1">
+        <v>1</v>
+      </c>
+      <c r="H446" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I446" s="1">
+        <v>1</v>
+      </c>
+      <c r="J446" s="2">
+        <v>14</v>
+      </c>
+      <c r="K446" s="2">
+        <v>4</v>
+      </c>
+      <c r="L446" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <f t="shared" si="11"/>
+        <v>1.6528859862166051E+74</v>
+      </c>
+      <c r="C447" s="1">
+        <v>30</v>
+      </c>
+      <c r="D447" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E447" s="1">
+        <v>3</v>
+      </c>
+      <c r="F447" s="1">
+        <v>14</v>
+      </c>
+      <c r="G447" s="1">
+        <v>1</v>
+      </c>
+      <c r="H447" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I447" s="1">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K447" s="2">
+        <v>0</v>
+      </c>
+      <c r="L447" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <f t="shared" si="11"/>
+        <v>2.1487517820815867E+74</v>
+      </c>
+      <c r="C448" s="1">
+        <v>30</v>
+      </c>
+      <c r="D448" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E448" s="1">
+        <v>3</v>
+      </c>
+      <c r="F448" s="1">
+        <v>14</v>
+      </c>
+      <c r="G448" s="1">
+        <v>1</v>
+      </c>
+      <c r="H448" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I448" s="1">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K448" s="2">
+        <v>0</v>
+      </c>
+      <c r="L448" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <f t="shared" si="11"/>
+        <v>2.7933773167060629E+74</v>
+      </c>
+      <c r="C449" s="1">
+        <v>30</v>
+      </c>
+      <c r="D449" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E449" s="1">
+        <v>3</v>
+      </c>
+      <c r="F449" s="1">
+        <v>14</v>
+      </c>
+      <c r="G449" s="1">
+        <v>1</v>
+      </c>
+      <c r="H449" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I449" s="1">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K449" s="2">
+        <v>0</v>
+      </c>
+      <c r="L449" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <f t="shared" si="11"/>
+        <v>3.631390511717882E+74</v>
+      </c>
+      <c r="C450" s="1">
+        <v>30</v>
+      </c>
+      <c r="D450" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E450" s="1">
+        <v>3</v>
+      </c>
+      <c r="F450" s="1">
+        <v>14</v>
+      </c>
+      <c r="G450" s="1">
+        <v>1</v>
+      </c>
+      <c r="H450" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I450" s="1">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K450" s="2">
+        <v>0</v>
+      </c>
+      <c r="L450" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <f t="shared" si="11"/>
+        <v>4.7208076652332468E+74</v>
+      </c>
+      <c r="C451" s="1">
+        <v>30</v>
+      </c>
+      <c r="D451" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F451" s="1">
+        <v>14</v>
+      </c>
+      <c r="G451" s="1">
+        <v>1</v>
+      </c>
+      <c r="H451" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I451" s="1">
+        <v>1</v>
+      </c>
+      <c r="J451" s="2">
+        <v>14</v>
+      </c>
+      <c r="K451" s="2">
+        <v>4</v>
+      </c>
+      <c r="L451" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0CCFBF-39E8-463D-8170-9F2D3470DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC351100-C167-4D9D-A98E-EDDFFFAA2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L438" sqref="L438"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G455" sqref="G455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16207,7 +16207,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <f t="shared" ref="B403:B451" si="11">B402*1.3</f>
+        <f t="shared" ref="B403:B456" si="11">B402*1.3</f>
         <v>1.6022688739798282E+69</v>
       </c>
       <c r="C403" s="1">
@@ -18110,6 +18110,201 @@
         <v>4</v>
       </c>
       <c r="L451" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1370499648032208E+74</v>
+      </c>
+      <c r="C452" s="1">
+        <v>30</v>
+      </c>
+      <c r="D452" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E452" s="1">
+        <v>3</v>
+      </c>
+      <c r="F452" s="1">
+        <v>14</v>
+      </c>
+      <c r="G452" s="1">
+        <v>1</v>
+      </c>
+      <c r="H452" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I452" s="1">
+        <v>1</v>
+      </c>
+      <c r="J452" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K452" s="2">
+        <v>0</v>
+      </c>
+      <c r="L452" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <f t="shared" si="11"/>
+        <v>7.978164954244187E+74</v>
+      </c>
+      <c r="C453" s="1">
+        <v>30</v>
+      </c>
+      <c r="D453" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E453" s="1">
+        <v>3</v>
+      </c>
+      <c r="F453" s="1">
+        <v>14</v>
+      </c>
+      <c r="G453" s="1">
+        <v>1</v>
+      </c>
+      <c r="H453" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I453" s="1">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K453" s="2">
+        <v>0</v>
+      </c>
+      <c r="L453" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0371614440517443E+75</v>
+      </c>
+      <c r="C454" s="1">
+        <v>30</v>
+      </c>
+      <c r="D454" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E454" s="1">
+        <v>3</v>
+      </c>
+      <c r="F454" s="1">
+        <v>14</v>
+      </c>
+      <c r="G454" s="1">
+        <v>1</v>
+      </c>
+      <c r="H454" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I454" s="1">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K454" s="2">
+        <v>0</v>
+      </c>
+      <c r="L454" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3483098772672677E+75</v>
+      </c>
+      <c r="C455" s="1">
+        <v>30</v>
+      </c>
+      <c r="D455" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E455" s="1">
+        <v>3</v>
+      </c>
+      <c r="F455" s="1">
+        <v>14</v>
+      </c>
+      <c r="G455" s="1">
+        <v>1</v>
+      </c>
+      <c r="H455" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I455" s="1">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K455" s="2">
+        <v>0</v>
+      </c>
+      <c r="L455" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <f t="shared" si="11"/>
+        <v>1.752802840447448E+75</v>
+      </c>
+      <c r="C456" s="1">
+        <v>30</v>
+      </c>
+      <c r="D456" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E456" s="1">
+        <v>3</v>
+      </c>
+      <c r="F456" s="1">
+        <v>14</v>
+      </c>
+      <c r="G456" s="1">
+        <v>1</v>
+      </c>
+      <c r="H456" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I456" s="1">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2">
+        <v>14</v>
+      </c>
+      <c r="K456" s="2">
+        <v>4</v>
+      </c>
+      <c r="L456" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC351100-C167-4D9D-A98E-EDDFFFAA2545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC52EB-FA81-44F4-8393-43F4F8F7460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L456"/>
+  <dimension ref="A1:L476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G455" sqref="G455"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16207,7 +16207,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="2">
-        <f t="shared" ref="B403:B456" si="11">B402*1.3</f>
+        <f t="shared" ref="B403:B467" si="11">B402*1.3</f>
         <v>1.6022688739798282E+69</v>
       </c>
       <c r="C403" s="1">
@@ -18305,6 +18305,786 @@
         <v>4</v>
       </c>
       <c r="L456" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <f t="shared" si="11"/>
+        <v>2.2786436925816826E+75</v>
+      </c>
+      <c r="C457" s="1">
+        <v>30</v>
+      </c>
+      <c r="D457" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E457" s="1">
+        <v>3</v>
+      </c>
+      <c r="F457" s="1">
+        <v>14</v>
+      </c>
+      <c r="G457" s="1">
+        <v>1</v>
+      </c>
+      <c r="H457" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I457" s="1">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K457" s="2">
+        <v>0</v>
+      </c>
+      <c r="L457" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <f t="shared" si="11"/>
+        <v>2.9622368003561876E+75</v>
+      </c>
+      <c r="C458" s="1">
+        <v>30</v>
+      </c>
+      <c r="D458" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E458" s="1">
+        <v>3</v>
+      </c>
+      <c r="F458" s="1">
+        <v>14</v>
+      </c>
+      <c r="G458" s="1">
+        <v>1</v>
+      </c>
+      <c r="H458" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I458" s="1">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K458" s="2">
+        <v>0</v>
+      </c>
+      <c r="L458" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <f t="shared" si="11"/>
+        <v>3.8509078404630442E+75</v>
+      </c>
+      <c r="C459" s="1">
+        <v>30</v>
+      </c>
+      <c r="D459" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E459" s="1">
+        <v>3</v>
+      </c>
+      <c r="F459" s="1">
+        <v>14</v>
+      </c>
+      <c r="G459" s="1">
+        <v>1</v>
+      </c>
+      <c r="H459" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I459" s="1">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K459" s="2">
+        <v>0</v>
+      </c>
+      <c r="L459" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0061801926019576E+75</v>
+      </c>
+      <c r="C460" s="1">
+        <v>30</v>
+      </c>
+      <c r="D460" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E460" s="1">
+        <v>3</v>
+      </c>
+      <c r="F460" s="1">
+        <v>14</v>
+      </c>
+      <c r="G460" s="1">
+        <v>1</v>
+      </c>
+      <c r="H460" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I460" s="1">
+        <v>1</v>
+      </c>
+      <c r="J460" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K460" s="2">
+        <v>0</v>
+      </c>
+      <c r="L460" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5080342503825449E+75</v>
+      </c>
+      <c r="C461" s="1">
+        <v>30</v>
+      </c>
+      <c r="D461" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E461" s="1">
+        <v>3</v>
+      </c>
+      <c r="F461" s="1">
+        <v>14</v>
+      </c>
+      <c r="G461" s="1">
+        <v>1</v>
+      </c>
+      <c r="H461" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I461" s="1">
+        <v>1</v>
+      </c>
+      <c r="J461" s="2">
+        <v>14</v>
+      </c>
+      <c r="K461" s="2">
+        <v>4</v>
+      </c>
+      <c r="L461" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <f t="shared" si="11"/>
+        <v>8.4604445254973087E+75</v>
+      </c>
+      <c r="C462" s="1">
+        <v>30</v>
+      </c>
+      <c r="D462" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E462" s="1">
+        <v>3</v>
+      </c>
+      <c r="F462" s="1">
+        <v>14</v>
+      </c>
+      <c r="G462" s="1">
+        <v>1</v>
+      </c>
+      <c r="H462" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I462" s="1">
+        <v>1</v>
+      </c>
+      <c r="J462" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K462" s="2">
+        <v>0</v>
+      </c>
+      <c r="L462" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0998577883146502E+76</v>
+      </c>
+      <c r="C463" s="1">
+        <v>30</v>
+      </c>
+      <c r="D463" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E463" s="1">
+        <v>3</v>
+      </c>
+      <c r="F463" s="1">
+        <v>14</v>
+      </c>
+      <c r="G463" s="1">
+        <v>1</v>
+      </c>
+      <c r="H463" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I463" s="1">
+        <v>1</v>
+      </c>
+      <c r="J463" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K463" s="2">
+        <v>0</v>
+      </c>
+      <c r="L463" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <f t="shared" si="11"/>
+        <v>1.4298151248090455E+76</v>
+      </c>
+      <c r="C464" s="1">
+        <v>30</v>
+      </c>
+      <c r="D464" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E464" s="1">
+        <v>3</v>
+      </c>
+      <c r="F464" s="1">
+        <v>14</v>
+      </c>
+      <c r="G464" s="1">
+        <v>1</v>
+      </c>
+      <c r="H464" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I464" s="1">
+        <v>1</v>
+      </c>
+      <c r="J464" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K464" s="2">
+        <v>0</v>
+      </c>
+      <c r="L464" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <f t="shared" si="11"/>
+        <v>1.858759662251759E+76</v>
+      </c>
+      <c r="C465" s="1">
+        <v>30</v>
+      </c>
+      <c r="D465" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E465" s="1">
+        <v>3</v>
+      </c>
+      <c r="F465" s="1">
+        <v>14</v>
+      </c>
+      <c r="G465" s="1">
+        <v>1</v>
+      </c>
+      <c r="H465" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I465" s="1">
+        <v>1</v>
+      </c>
+      <c r="J465" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K465" s="2">
+        <v>0</v>
+      </c>
+      <c r="L465" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <f t="shared" si="11"/>
+        <v>2.4163875609272868E+76</v>
+      </c>
+      <c r="C466" s="1">
+        <v>30</v>
+      </c>
+      <c r="D466" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E466" s="1">
+        <v>3</v>
+      </c>
+      <c r="F466" s="1">
+        <v>14</v>
+      </c>
+      <c r="G466" s="1">
+        <v>1</v>
+      </c>
+      <c r="H466" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I466" s="1">
+        <v>1</v>
+      </c>
+      <c r="J466" s="2">
+        <v>14</v>
+      </c>
+      <c r="K466" s="2">
+        <v>4</v>
+      </c>
+      <c r="L466" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <f t="shared" si="11"/>
+        <v>3.1413038292054728E+76</v>
+      </c>
+      <c r="C467" s="1">
+        <v>30</v>
+      </c>
+      <c r="D467" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E467" s="1">
+        <v>3</v>
+      </c>
+      <c r="F467" s="1">
+        <v>14</v>
+      </c>
+      <c r="G467" s="1">
+        <v>1</v>
+      </c>
+      <c r="H467" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I467" s="1">
+        <v>1</v>
+      </c>
+      <c r="J467" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K467" s="2">
+        <v>0</v>
+      </c>
+      <c r="L467" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <f t="shared" ref="B468:B476" si="12">B467*1.3</f>
+        <v>4.0836949779671151E+76</v>
+      </c>
+      <c r="C468" s="1">
+        <v>30</v>
+      </c>
+      <c r="D468" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E468" s="1">
+        <v>3</v>
+      </c>
+      <c r="F468" s="1">
+        <v>14</v>
+      </c>
+      <c r="G468" s="1">
+        <v>1</v>
+      </c>
+      <c r="H468" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I468" s="1">
+        <v>1</v>
+      </c>
+      <c r="J468" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K468" s="2">
+        <v>0</v>
+      </c>
+      <c r="L468" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <f t="shared" si="12"/>
+        <v>5.3088034713572496E+76</v>
+      </c>
+      <c r="C469" s="1">
+        <v>30</v>
+      </c>
+      <c r="D469" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E469" s="1">
+        <v>3</v>
+      </c>
+      <c r="F469" s="1">
+        <v>14</v>
+      </c>
+      <c r="G469" s="1">
+        <v>1</v>
+      </c>
+      <c r="H469" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I469" s="1">
+        <v>1</v>
+      </c>
+      <c r="J469" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K469" s="2">
+        <v>0</v>
+      </c>
+      <c r="L469" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <f t="shared" si="12"/>
+        <v>6.901444512764425E+76</v>
+      </c>
+      <c r="C470" s="1">
+        <v>30</v>
+      </c>
+      <c r="D470" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E470" s="1">
+        <v>3</v>
+      </c>
+      <c r="F470" s="1">
+        <v>14</v>
+      </c>
+      <c r="G470" s="1">
+        <v>1</v>
+      </c>
+      <c r="H470" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I470" s="1">
+        <v>1</v>
+      </c>
+      <c r="J470" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K470" s="2">
+        <v>0</v>
+      </c>
+      <c r="L470" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <f t="shared" si="12"/>
+        <v>8.9718778665937531E+76</v>
+      </c>
+      <c r="C471" s="1">
+        <v>30</v>
+      </c>
+      <c r="D471" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E471" s="1">
+        <v>3</v>
+      </c>
+      <c r="F471" s="1">
+        <v>14</v>
+      </c>
+      <c r="G471" s="1">
+        <v>1</v>
+      </c>
+      <c r="H471" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I471" s="1">
+        <v>1</v>
+      </c>
+      <c r="J471" s="2">
+        <v>14</v>
+      </c>
+      <c r="K471" s="2">
+        <v>4</v>
+      </c>
+      <c r="L471" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <f t="shared" si="12"/>
+        <v>1.166344122657188E+77</v>
+      </c>
+      <c r="C472" s="1">
+        <v>30</v>
+      </c>
+      <c r="D472" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E472" s="1">
+        <v>3</v>
+      </c>
+      <c r="F472" s="1">
+        <v>14</v>
+      </c>
+      <c r="G472" s="1">
+        <v>1</v>
+      </c>
+      <c r="H472" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I472" s="1">
+        <v>1</v>
+      </c>
+      <c r="J472" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K472" s="2">
+        <v>0</v>
+      </c>
+      <c r="L472" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5162473594543445E+77</v>
+      </c>
+      <c r="C473" s="1">
+        <v>30</v>
+      </c>
+      <c r="D473" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E473" s="1">
+        <v>3</v>
+      </c>
+      <c r="F473" s="1">
+        <v>14</v>
+      </c>
+      <c r="G473" s="1">
+        <v>1</v>
+      </c>
+      <c r="H473" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I473" s="1">
+        <v>1</v>
+      </c>
+      <c r="J473" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K473" s="2">
+        <v>0</v>
+      </c>
+      <c r="L473" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <f t="shared" si="12"/>
+        <v>1.971121567290648E+77</v>
+      </c>
+      <c r="C474" s="1">
+        <v>30</v>
+      </c>
+      <c r="D474" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E474" s="1">
+        <v>3</v>
+      </c>
+      <c r="F474" s="1">
+        <v>14</v>
+      </c>
+      <c r="G474" s="1">
+        <v>1</v>
+      </c>
+      <c r="H474" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I474" s="1">
+        <v>1</v>
+      </c>
+      <c r="J474" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K474" s="2">
+        <v>0</v>
+      </c>
+      <c r="L474" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <f t="shared" si="12"/>
+        <v>2.5624580374778424E+77</v>
+      </c>
+      <c r="C475" s="1">
+        <v>30</v>
+      </c>
+      <c r="D475" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E475" s="1">
+        <v>3</v>
+      </c>
+      <c r="F475" s="1">
+        <v>14</v>
+      </c>
+      <c r="G475" s="1">
+        <v>1</v>
+      </c>
+      <c r="H475" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I475" s="1">
+        <v>1</v>
+      </c>
+      <c r="J475" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K475" s="2">
+        <v>0</v>
+      </c>
+      <c r="L475" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <f t="shared" si="12"/>
+        <v>3.3311954487211955E+77</v>
+      </c>
+      <c r="C476" s="1">
+        <v>30</v>
+      </c>
+      <c r="D476" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E476" s="1">
+        <v>3</v>
+      </c>
+      <c r="F476" s="1">
+        <v>14</v>
+      </c>
+      <c r="G476" s="1">
+        <v>1</v>
+      </c>
+      <c r="H476" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I476" s="1">
+        <v>1</v>
+      </c>
+      <c r="J476" s="2">
+        <v>14</v>
+      </c>
+      <c r="K476" s="2">
+        <v>4</v>
+      </c>
+      <c r="L476" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC52EB-FA81-44F4-8393-43F4F8F7460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A64BD31-033C-4192-94CE-AE1FDA7C1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L476"/>
+  <dimension ref="A1:L486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B485" sqref="B485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18742,7 +18742,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" ref="B468:B476" si="12">B467*1.3</f>
+        <f t="shared" ref="B468:B486" si="12">B467*1.3</f>
         <v>4.0836949779671151E+76</v>
       </c>
       <c r="C468" s="1">
@@ -19085,6 +19085,396 @@
         <v>4</v>
       </c>
       <c r="L476" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <f t="shared" si="12"/>
+        <v>4.3305540833375543E+77</v>
+      </c>
+      <c r="C477" s="1">
+        <v>30</v>
+      </c>
+      <c r="D477" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E477" s="1">
+        <v>3</v>
+      </c>
+      <c r="F477" s="1">
+        <v>14</v>
+      </c>
+      <c r="G477" s="1">
+        <v>1</v>
+      </c>
+      <c r="H477" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I477" s="1">
+        <v>1</v>
+      </c>
+      <c r="J477" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K477" s="2">
+        <v>0</v>
+      </c>
+      <c r="L477" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <f t="shared" si="12"/>
+        <v>5.6297203083388208E+77</v>
+      </c>
+      <c r="C478" s="1">
+        <v>30</v>
+      </c>
+      <c r="D478" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E478" s="1">
+        <v>3</v>
+      </c>
+      <c r="F478" s="1">
+        <v>14</v>
+      </c>
+      <c r="G478" s="1">
+        <v>1</v>
+      </c>
+      <c r="H478" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I478" s="1">
+        <v>1</v>
+      </c>
+      <c r="J478" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K478" s="2">
+        <v>0</v>
+      </c>
+      <c r="L478" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <f t="shared" si="12"/>
+        <v>7.3186364008404676E+77</v>
+      </c>
+      <c r="C479" s="1">
+        <v>30</v>
+      </c>
+      <c r="D479" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E479" s="1">
+        <v>3</v>
+      </c>
+      <c r="F479" s="1">
+        <v>14</v>
+      </c>
+      <c r="G479" s="1">
+        <v>1</v>
+      </c>
+      <c r="H479" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I479" s="1">
+        <v>1</v>
+      </c>
+      <c r="J479" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K479" s="2">
+        <v>0</v>
+      </c>
+      <c r="L479" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <f t="shared" si="12"/>
+        <v>9.5142273210926089E+77</v>
+      </c>
+      <c r="C480" s="1">
+        <v>30</v>
+      </c>
+      <c r="D480" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E480" s="1">
+        <v>3</v>
+      </c>
+      <c r="F480" s="1">
+        <v>14</v>
+      </c>
+      <c r="G480" s="1">
+        <v>1</v>
+      </c>
+      <c r="H480" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I480" s="1">
+        <v>1</v>
+      </c>
+      <c r="J480" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K480" s="2">
+        <v>0</v>
+      </c>
+      <c r="L480" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2368495517420391E+78</v>
+      </c>
+      <c r="C481" s="1">
+        <v>30</v>
+      </c>
+      <c r="D481" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E481" s="1">
+        <v>3</v>
+      </c>
+      <c r="F481" s="1">
+        <v>14</v>
+      </c>
+      <c r="G481" s="1">
+        <v>1</v>
+      </c>
+      <c r="H481" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I481" s="1">
+        <v>1</v>
+      </c>
+      <c r="J481" s="2">
+        <v>14</v>
+      </c>
+      <c r="K481" s="2">
+        <v>4</v>
+      </c>
+      <c r="L481" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6079044172646509E+78</v>
+      </c>
+      <c r="C482" s="1">
+        <v>30</v>
+      </c>
+      <c r="D482" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E482" s="1">
+        <v>3</v>
+      </c>
+      <c r="F482" s="1">
+        <v>14</v>
+      </c>
+      <c r="G482" s="1">
+        <v>1</v>
+      </c>
+      <c r="H482" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I482" s="1">
+        <v>1</v>
+      </c>
+      <c r="J482" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K482" s="2">
+        <v>0</v>
+      </c>
+      <c r="L482" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <f t="shared" si="12"/>
+        <v>2.0902757424440461E+78</v>
+      </c>
+      <c r="C483" s="1">
+        <v>30</v>
+      </c>
+      <c r="D483" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E483" s="1">
+        <v>3</v>
+      </c>
+      <c r="F483" s="1">
+        <v>14</v>
+      </c>
+      <c r="G483" s="1">
+        <v>1</v>
+      </c>
+      <c r="H483" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I483" s="1">
+        <v>1</v>
+      </c>
+      <c r="J483" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K483" s="2">
+        <v>0</v>
+      </c>
+      <c r="L483" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <f t="shared" si="12"/>
+        <v>2.7173584651772602E+78</v>
+      </c>
+      <c r="C484" s="1">
+        <v>30</v>
+      </c>
+      <c r="D484" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E484" s="1">
+        <v>3</v>
+      </c>
+      <c r="F484" s="1">
+        <v>14</v>
+      </c>
+      <c r="G484" s="1">
+        <v>1</v>
+      </c>
+      <c r="H484" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I484" s="1">
+        <v>1</v>
+      </c>
+      <c r="J484" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K484" s="2">
+        <v>0</v>
+      </c>
+      <c r="L484" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <f t="shared" si="12"/>
+        <v>3.5325660047304383E+78</v>
+      </c>
+      <c r="C485" s="1">
+        <v>30</v>
+      </c>
+      <c r="D485" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E485" s="1">
+        <v>3</v>
+      </c>
+      <c r="F485" s="1">
+        <v>14</v>
+      </c>
+      <c r="G485" s="1">
+        <v>1</v>
+      </c>
+      <c r="H485" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I485" s="1">
+        <v>1</v>
+      </c>
+      <c r="J485" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K485" s="2">
+        <v>0</v>
+      </c>
+      <c r="L485" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <f t="shared" si="12"/>
+        <v>4.5923358061495699E+78</v>
+      </c>
+      <c r="C486" s="1">
+        <v>30</v>
+      </c>
+      <c r="D486" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E486" s="1">
+        <v>3</v>
+      </c>
+      <c r="F486" s="1">
+        <v>14</v>
+      </c>
+      <c r="G486" s="1">
+        <v>1</v>
+      </c>
+      <c r="H486" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I486" s="1">
+        <v>1</v>
+      </c>
+      <c r="J486" s="2">
+        <v>14</v>
+      </c>
+      <c r="K486" s="2">
+        <v>4</v>
+      </c>
+      <c r="L486" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A64BD31-033C-4192-94CE-AE1FDA7C1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC331E0C-E15A-497B-9CEB-DAC0D5186743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L486"/>
+  <dimension ref="A1:L491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B485" sqref="B485"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J486" sqref="J486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18742,7 +18742,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" ref="B468:B486" si="12">B467*1.3</f>
+        <f t="shared" ref="B468:B491" si="12">B467*1.3</f>
         <v>4.0836949779671151E+76</v>
       </c>
       <c r="C468" s="1">
@@ -19475,6 +19475,201 @@
         <v>4</v>
       </c>
       <c r="L486" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <f t="shared" si="12"/>
+        <v>5.9700365479944413E+78</v>
+      </c>
+      <c r="C487" s="1">
+        <v>30</v>
+      </c>
+      <c r="D487" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E487" s="1">
+        <v>3</v>
+      </c>
+      <c r="F487" s="1">
+        <v>14</v>
+      </c>
+      <c r="G487" s="1">
+        <v>1</v>
+      </c>
+      <c r="H487" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I487" s="1">
+        <v>1</v>
+      </c>
+      <c r="J487" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K487" s="2">
+        <v>0</v>
+      </c>
+      <c r="L487" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <f t="shared" si="12"/>
+        <v>7.7610475123927734E+78</v>
+      </c>
+      <c r="C488" s="1">
+        <v>30</v>
+      </c>
+      <c r="D488" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E488" s="1">
+        <v>3</v>
+      </c>
+      <c r="F488" s="1">
+        <v>14</v>
+      </c>
+      <c r="G488" s="1">
+        <v>1</v>
+      </c>
+      <c r="H488" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I488" s="1">
+        <v>1</v>
+      </c>
+      <c r="J488" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K488" s="2">
+        <v>0</v>
+      </c>
+      <c r="L488" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0089361766110606E+79</v>
+      </c>
+      <c r="C489" s="1">
+        <v>30</v>
+      </c>
+      <c r="D489" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E489" s="1">
+        <v>3</v>
+      </c>
+      <c r="F489" s="1">
+        <v>14</v>
+      </c>
+      <c r="G489" s="1">
+        <v>1</v>
+      </c>
+      <c r="H489" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I489" s="1">
+        <v>1</v>
+      </c>
+      <c r="J489" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K489" s="2">
+        <v>0</v>
+      </c>
+      <c r="L489" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3116170295943787E+79</v>
+      </c>
+      <c r="C490" s="1">
+        <v>30</v>
+      </c>
+      <c r="D490" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E490" s="1">
+        <v>3</v>
+      </c>
+      <c r="F490" s="1">
+        <v>14</v>
+      </c>
+      <c r="G490" s="1">
+        <v>1</v>
+      </c>
+      <c r="H490" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I490" s="1">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K490" s="2">
+        <v>0</v>
+      </c>
+      <c r="L490" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7051021384726924E+79</v>
+      </c>
+      <c r="C491" s="1">
+        <v>30</v>
+      </c>
+      <c r="D491" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E491" s="1">
+        <v>3</v>
+      </c>
+      <c r="F491" s="1">
+        <v>14</v>
+      </c>
+      <c r="G491" s="1">
+        <v>1</v>
+      </c>
+      <c r="H491" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I491" s="1">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2">
+        <v>14</v>
+      </c>
+      <c r="K491" s="2">
+        <v>4</v>
+      </c>
+      <c r="L491" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC331E0C-E15A-497B-9CEB-DAC0D5186743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E9FA41-77A7-4FBA-8537-8F787BDD80E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L491"/>
+  <dimension ref="A1:L510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J486" sqref="J486"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J506" sqref="J506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18742,7 +18742,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" ref="B468:B491" si="12">B467*1.3</f>
+        <f t="shared" ref="B468:B510" si="12">B467*1.3</f>
         <v>4.0836949779671151E+76</v>
       </c>
       <c r="C468" s="1">
@@ -19670,6 +19670,747 @@
         <v>4</v>
       </c>
       <c r="L491" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2166327800145001E+79</v>
+      </c>
+      <c r="C492" s="1">
+        <v>30</v>
+      </c>
+      <c r="D492" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E492" s="1">
+        <v>3</v>
+      </c>
+      <c r="F492" s="1">
+        <v>14</v>
+      </c>
+      <c r="G492" s="1">
+        <v>1</v>
+      </c>
+      <c r="H492" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I492" s="1">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K492" s="2">
+        <v>0</v>
+      </c>
+      <c r="L492" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8816226140188501E+79</v>
+      </c>
+      <c r="C493" s="1">
+        <v>30</v>
+      </c>
+      <c r="D493" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E493" s="1">
+        <v>3</v>
+      </c>
+      <c r="F493" s="1">
+        <v>14</v>
+      </c>
+      <c r="G493" s="1">
+        <v>1</v>
+      </c>
+      <c r="H493" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I493" s="1">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K493" s="2">
+        <v>0</v>
+      </c>
+      <c r="L493" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <f t="shared" si="12"/>
+        <v>3.7461093982245054E+79</v>
+      </c>
+      <c r="C494" s="1">
+        <v>30</v>
+      </c>
+      <c r="D494" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E494" s="1">
+        <v>3</v>
+      </c>
+      <c r="F494" s="1">
+        <v>14</v>
+      </c>
+      <c r="G494" s="1">
+        <v>1</v>
+      </c>
+      <c r="H494" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I494" s="1">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K494" s="2">
+        <v>0</v>
+      </c>
+      <c r="L494" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <f t="shared" si="12"/>
+        <v>4.8699422176918572E+79</v>
+      </c>
+      <c r="C495" s="1">
+        <v>30</v>
+      </c>
+      <c r="D495" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E495" s="1">
+        <v>3</v>
+      </c>
+      <c r="F495" s="1">
+        <v>14</v>
+      </c>
+      <c r="G495" s="1">
+        <v>1</v>
+      </c>
+      <c r="H495" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I495" s="1">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K495" s="2">
+        <v>0</v>
+      </c>
+      <c r="L495" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <f t="shared" si="12"/>
+        <v>6.3309248829994152E+79</v>
+      </c>
+      <c r="C496" s="1">
+        <v>30</v>
+      </c>
+      <c r="D496" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E496" s="1">
+        <v>3</v>
+      </c>
+      <c r="F496" s="1">
+        <v>14</v>
+      </c>
+      <c r="G496" s="1">
+        <v>1</v>
+      </c>
+      <c r="H496" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I496" s="1">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2">
+        <v>14</v>
+      </c>
+      <c r="K496" s="2">
+        <v>4</v>
+      </c>
+      <c r="L496" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <f t="shared" si="12"/>
+        <v>8.2302023478992398E+79</v>
+      </c>
+      <c r="C497" s="1">
+        <v>30</v>
+      </c>
+      <c r="D497" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E497" s="1">
+        <v>3</v>
+      </c>
+      <c r="F497" s="1">
+        <v>14</v>
+      </c>
+      <c r="G497" s="1">
+        <v>1</v>
+      </c>
+      <c r="H497" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I497" s="1">
+        <v>1</v>
+      </c>
+      <c r="J497" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K497" s="2">
+        <v>0</v>
+      </c>
+      <c r="L497" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0699263052269012E+80</v>
+      </c>
+      <c r="C498" s="1">
+        <v>30</v>
+      </c>
+      <c r="D498" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E498" s="1">
+        <v>3</v>
+      </c>
+      <c r="F498" s="1">
+        <v>14</v>
+      </c>
+      <c r="G498" s="1">
+        <v>1</v>
+      </c>
+      <c r="H498" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I498" s="1">
+        <v>1</v>
+      </c>
+      <c r="J498" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K498" s="2">
+        <v>0</v>
+      </c>
+      <c r="L498" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3909041967949717E+80</v>
+      </c>
+      <c r="C499" s="1">
+        <v>30</v>
+      </c>
+      <c r="D499" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E499" s="1">
+        <v>3</v>
+      </c>
+      <c r="F499" s="1">
+        <v>14</v>
+      </c>
+      <c r="G499" s="1">
+        <v>1</v>
+      </c>
+      <c r="H499" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I499" s="1">
+        <v>1</v>
+      </c>
+      <c r="J499" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K499" s="2">
+        <v>0</v>
+      </c>
+      <c r="L499" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <f t="shared" si="12"/>
+        <v>1.8081754558334632E+80</v>
+      </c>
+      <c r="C500" s="1">
+        <v>30</v>
+      </c>
+      <c r="D500" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E500" s="1">
+        <v>3</v>
+      </c>
+      <c r="F500" s="1">
+        <v>14</v>
+      </c>
+      <c r="G500" s="1">
+        <v>1</v>
+      </c>
+      <c r="H500" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I500" s="1">
+        <v>1</v>
+      </c>
+      <c r="J500" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K500" s="2">
+        <v>0</v>
+      </c>
+      <c r="L500" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3506280925835023E+80</v>
+      </c>
+      <c r="C501" s="1">
+        <v>30</v>
+      </c>
+      <c r="D501" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E501" s="1">
+        <v>3</v>
+      </c>
+      <c r="F501" s="1">
+        <v>14</v>
+      </c>
+      <c r="G501" s="1">
+        <v>1</v>
+      </c>
+      <c r="H501" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I501" s="1">
+        <v>1</v>
+      </c>
+      <c r="J501" s="2">
+        <v>14</v>
+      </c>
+      <c r="K501" s="2">
+        <v>4</v>
+      </c>
+      <c r="L501" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <f t="shared" si="12"/>
+        <v>3.0558165203585533E+80</v>
+      </c>
+      <c r="C502" s="1">
+        <v>30</v>
+      </c>
+      <c r="D502" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E502" s="1">
+        <v>3</v>
+      </c>
+      <c r="F502" s="1">
+        <v>14</v>
+      </c>
+      <c r="G502" s="1">
+        <v>1</v>
+      </c>
+      <c r="H502" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I502" s="1">
+        <v>1</v>
+      </c>
+      <c r="J502" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K502" s="2">
+        <v>0</v>
+      </c>
+      <c r="L502" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9725614764661192E+80</v>
+      </c>
+      <c r="C503" s="1">
+        <v>30</v>
+      </c>
+      <c r="D503" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E503" s="1">
+        <v>3</v>
+      </c>
+      <c r="F503" s="1">
+        <v>14</v>
+      </c>
+      <c r="G503" s="1">
+        <v>1</v>
+      </c>
+      <c r="H503" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I503" s="1">
+        <v>1</v>
+      </c>
+      <c r="J503" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K503" s="2">
+        <v>0</v>
+      </c>
+      <c r="L503" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <f t="shared" si="12"/>
+        <v>5.1643299194059553E+80</v>
+      </c>
+      <c r="C504" s="1">
+        <v>30</v>
+      </c>
+      <c r="D504" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E504" s="1">
+        <v>3</v>
+      </c>
+      <c r="F504" s="1">
+        <v>14</v>
+      </c>
+      <c r="G504" s="1">
+        <v>1</v>
+      </c>
+      <c r="H504" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I504" s="1">
+        <v>1</v>
+      </c>
+      <c r="J504" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K504" s="2">
+        <v>0</v>
+      </c>
+      <c r="L504" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7136288952277422E+80</v>
+      </c>
+      <c r="C505" s="1">
+        <v>30</v>
+      </c>
+      <c r="D505" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E505" s="1">
+        <v>3</v>
+      </c>
+      <c r="F505" s="1">
+        <v>14</v>
+      </c>
+      <c r="G505" s="1">
+        <v>1</v>
+      </c>
+      <c r="H505" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I505" s="1">
+        <v>1</v>
+      </c>
+      <c r="J505" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K505" s="2">
+        <v>0</v>
+      </c>
+      <c r="L505" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <f t="shared" si="12"/>
+        <v>8.7277175637960646E+80</v>
+      </c>
+      <c r="C506" s="1">
+        <v>30</v>
+      </c>
+      <c r="D506" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E506" s="1">
+        <v>3</v>
+      </c>
+      <c r="F506" s="1">
+        <v>14</v>
+      </c>
+      <c r="G506" s="1">
+        <v>1</v>
+      </c>
+      <c r="H506" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I506" s="1">
+        <v>1</v>
+      </c>
+      <c r="J506" s="2">
+        <v>14</v>
+      </c>
+      <c r="K506" s="2">
+        <v>4</v>
+      </c>
+      <c r="L506" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <f t="shared" si="12"/>
+        <v>1.1346032832934884E+81</v>
+      </c>
+      <c r="C507" s="1">
+        <v>30</v>
+      </c>
+      <c r="D507" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E507" s="1">
+        <v>3</v>
+      </c>
+      <c r="F507" s="1">
+        <v>14</v>
+      </c>
+      <c r="G507" s="1">
+        <v>1</v>
+      </c>
+      <c r="H507" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I507" s="1">
+        <v>1</v>
+      </c>
+      <c r="J507" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K507" s="2">
+        <v>0</v>
+      </c>
+      <c r="L507" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4749842682815351E+81</v>
+      </c>
+      <c r="C508" s="1">
+        <v>30</v>
+      </c>
+      <c r="D508" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E508" s="1">
+        <v>3</v>
+      </c>
+      <c r="F508" s="1">
+        <v>14</v>
+      </c>
+      <c r="G508" s="1">
+        <v>1</v>
+      </c>
+      <c r="H508" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I508" s="1">
+        <v>1</v>
+      </c>
+      <c r="J508" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K508" s="2">
+        <v>0</v>
+      </c>
+      <c r="L508" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9174795487659955E+81</v>
+      </c>
+      <c r="C509" s="1">
+        <v>30</v>
+      </c>
+      <c r="D509" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E509" s="1">
+        <v>3</v>
+      </c>
+      <c r="F509" s="1">
+        <v>14</v>
+      </c>
+      <c r="G509" s="1">
+        <v>1</v>
+      </c>
+      <c r="H509" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I509" s="1">
+        <v>1</v>
+      </c>
+      <c r="J509" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K509" s="2">
+        <v>0</v>
+      </c>
+      <c r="L509" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <f t="shared" si="12"/>
+        <v>2.4927234133957942E+81</v>
+      </c>
+      <c r="C510" s="1">
+        <v>30</v>
+      </c>
+      <c r="D510" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E510" s="1">
+        <v>3</v>
+      </c>
+      <c r="F510" s="1">
+        <v>14</v>
+      </c>
+      <c r="G510" s="1">
+        <v>1</v>
+      </c>
+      <c r="H510" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I510" s="1">
+        <v>1</v>
+      </c>
+      <c r="J510" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K510" s="2">
+        <v>0</v>
+      </c>
+      <c r="L510" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E9FA41-77A7-4FBA-8537-8F787BDD80E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C73F1F-E556-43F5-A859-5EA78236C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L510"/>
+  <dimension ref="A1:L530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J506" sqref="J506"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18742,7 +18742,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" ref="B468:B510" si="12">B467*1.3</f>
+        <f t="shared" ref="B468:B530" si="12">B467*1.3</f>
         <v>4.0836949779671151E+76</v>
       </c>
       <c r="C468" s="1">
@@ -20411,6 +20411,786 @@
         <v>0</v>
       </c>
       <c r="L510" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <f t="shared" si="12"/>
+        <v>3.2405404374145324E+81</v>
+      </c>
+      <c r="C511" s="1">
+        <v>30</v>
+      </c>
+      <c r="D511" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E511" s="1">
+        <v>3</v>
+      </c>
+      <c r="F511" s="1">
+        <v>14</v>
+      </c>
+      <c r="G511" s="1">
+        <v>1</v>
+      </c>
+      <c r="H511" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I511" s="1">
+        <v>1</v>
+      </c>
+      <c r="J511" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K511" s="2">
+        <v>0</v>
+      </c>
+      <c r="L511" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <f t="shared" si="12"/>
+        <v>4.2127025686388923E+81</v>
+      </c>
+      <c r="C512" s="1">
+        <v>30</v>
+      </c>
+      <c r="D512" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E512" s="1">
+        <v>3</v>
+      </c>
+      <c r="F512" s="1">
+        <v>14</v>
+      </c>
+      <c r="G512" s="1">
+        <v>1</v>
+      </c>
+      <c r="H512" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I512" s="1">
+        <v>1</v>
+      </c>
+      <c r="J512" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K512" s="2">
+        <v>0</v>
+      </c>
+      <c r="L512" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <f t="shared" si="12"/>
+        <v>5.4765133392305604E+81</v>
+      </c>
+      <c r="C513" s="1">
+        <v>30</v>
+      </c>
+      <c r="D513" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E513" s="1">
+        <v>3</v>
+      </c>
+      <c r="F513" s="1">
+        <v>14</v>
+      </c>
+      <c r="G513" s="1">
+        <v>1</v>
+      </c>
+      <c r="H513" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I513" s="1">
+        <v>1</v>
+      </c>
+      <c r="J513" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K513" s="2">
+        <v>0</v>
+      </c>
+      <c r="L513" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <f t="shared" si="12"/>
+        <v>7.1194673409997289E+81</v>
+      </c>
+      <c r="C514" s="1">
+        <v>30</v>
+      </c>
+      <c r="D514" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E514" s="1">
+        <v>3</v>
+      </c>
+      <c r="F514" s="1">
+        <v>14</v>
+      </c>
+      <c r="G514" s="1">
+        <v>1</v>
+      </c>
+      <c r="H514" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I514" s="1">
+        <v>1</v>
+      </c>
+      <c r="J514" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K514" s="2">
+        <v>0</v>
+      </c>
+      <c r="L514" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <f t="shared" si="12"/>
+        <v>9.2553075432996485E+81</v>
+      </c>
+      <c r="C515" s="1">
+        <v>30</v>
+      </c>
+      <c r="D515" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E515" s="1">
+        <v>3</v>
+      </c>
+      <c r="F515" s="1">
+        <v>14</v>
+      </c>
+      <c r="G515" s="1">
+        <v>1</v>
+      </c>
+      <c r="H515" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I515" s="1">
+        <v>1</v>
+      </c>
+      <c r="J515" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K515" s="2">
+        <v>0</v>
+      </c>
+      <c r="L515" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2031899806289544E+82</v>
+      </c>
+      <c r="C516" s="1">
+        <v>30</v>
+      </c>
+      <c r="D516" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E516" s="1">
+        <v>3</v>
+      </c>
+      <c r="F516" s="1">
+        <v>14</v>
+      </c>
+      <c r="G516" s="1">
+        <v>1</v>
+      </c>
+      <c r="H516" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I516" s="1">
+        <v>1</v>
+      </c>
+      <c r="J516" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K516" s="2">
+        <v>0</v>
+      </c>
+      <c r="L516" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5641469748176407E+82</v>
+      </c>
+      <c r="C517" s="1">
+        <v>30</v>
+      </c>
+      <c r="D517" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E517" s="1">
+        <v>3</v>
+      </c>
+      <c r="F517" s="1">
+        <v>14</v>
+      </c>
+      <c r="G517" s="1">
+        <v>1</v>
+      </c>
+      <c r="H517" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I517" s="1">
+        <v>1</v>
+      </c>
+      <c r="J517" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K517" s="2">
+        <v>0</v>
+      </c>
+      <c r="L517" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <f t="shared" si="12"/>
+        <v>2.033391067262933E+82</v>
+      </c>
+      <c r="C518" s="1">
+        <v>30</v>
+      </c>
+      <c r="D518" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E518" s="1">
+        <v>3</v>
+      </c>
+      <c r="F518" s="1">
+        <v>14</v>
+      </c>
+      <c r="G518" s="1">
+        <v>1</v>
+      </c>
+      <c r="H518" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I518" s="1">
+        <v>1</v>
+      </c>
+      <c r="J518" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K518" s="2">
+        <v>0</v>
+      </c>
+      <c r="L518" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <f t="shared" si="12"/>
+        <v>2.6434083874418131E+82</v>
+      </c>
+      <c r="C519" s="1">
+        <v>30</v>
+      </c>
+      <c r="D519" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E519" s="1">
+        <v>3</v>
+      </c>
+      <c r="F519" s="1">
+        <v>14</v>
+      </c>
+      <c r="G519" s="1">
+        <v>1</v>
+      </c>
+      <c r="H519" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I519" s="1">
+        <v>1</v>
+      </c>
+      <c r="J519" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K519" s="2">
+        <v>0</v>
+      </c>
+      <c r="L519" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4364309036743574E+82</v>
+      </c>
+      <c r="C520" s="1">
+        <v>30</v>
+      </c>
+      <c r="D520" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E520" s="1">
+        <v>3</v>
+      </c>
+      <c r="F520" s="1">
+        <v>14</v>
+      </c>
+      <c r="G520" s="1">
+        <v>1</v>
+      </c>
+      <c r="H520" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I520" s="1">
+        <v>1</v>
+      </c>
+      <c r="J520" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K520" s="2">
+        <v>0</v>
+      </c>
+      <c r="L520" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <f t="shared" si="12"/>
+        <v>4.4673601747766644E+82</v>
+      </c>
+      <c r="C521" s="1">
+        <v>30</v>
+      </c>
+      <c r="D521" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E521" s="1">
+        <v>3</v>
+      </c>
+      <c r="F521" s="1">
+        <v>14</v>
+      </c>
+      <c r="G521" s="1">
+        <v>1</v>
+      </c>
+      <c r="H521" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I521" s="1">
+        <v>1</v>
+      </c>
+      <c r="J521" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K521" s="2">
+        <v>0</v>
+      </c>
+      <c r="L521" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <f t="shared" si="12"/>
+        <v>5.8075682272096641E+82</v>
+      </c>
+      <c r="C522" s="1">
+        <v>30</v>
+      </c>
+      <c r="D522" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E522" s="1">
+        <v>3</v>
+      </c>
+      <c r="F522" s="1">
+        <v>14</v>
+      </c>
+      <c r="G522" s="1">
+        <v>1</v>
+      </c>
+      <c r="H522" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I522" s="1">
+        <v>1</v>
+      </c>
+      <c r="J522" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K522" s="2">
+        <v>0</v>
+      </c>
+      <c r="L522" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <f t="shared" si="12"/>
+        <v>7.5498386953725636E+82</v>
+      </c>
+      <c r="C523" s="1">
+        <v>30</v>
+      </c>
+      <c r="D523" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E523" s="1">
+        <v>3</v>
+      </c>
+      <c r="F523" s="1">
+        <v>14</v>
+      </c>
+      <c r="G523" s="1">
+        <v>1</v>
+      </c>
+      <c r="H523" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I523" s="1">
+        <v>1</v>
+      </c>
+      <c r="J523" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K523" s="2">
+        <v>0</v>
+      </c>
+      <c r="L523" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <f t="shared" si="12"/>
+        <v>9.8147903039843332E+82</v>
+      </c>
+      <c r="C524" s="1">
+        <v>30</v>
+      </c>
+      <c r="D524" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E524" s="1">
+        <v>3</v>
+      </c>
+      <c r="F524" s="1">
+        <v>14</v>
+      </c>
+      <c r="G524" s="1">
+        <v>1</v>
+      </c>
+      <c r="H524" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I524" s="1">
+        <v>1</v>
+      </c>
+      <c r="J524" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K524" s="2">
+        <v>0</v>
+      </c>
+      <c r="L524" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2759227395179633E+83</v>
+      </c>
+      <c r="C525" s="1">
+        <v>30</v>
+      </c>
+      <c r="D525" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E525" s="1">
+        <v>3</v>
+      </c>
+      <c r="F525" s="1">
+        <v>14</v>
+      </c>
+      <c r="G525" s="1">
+        <v>1</v>
+      </c>
+      <c r="H525" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I525" s="1">
+        <v>1</v>
+      </c>
+      <c r="J525" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K525" s="2">
+        <v>0</v>
+      </c>
+      <c r="L525" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6586995613733522E+83</v>
+      </c>
+      <c r="C526" s="1">
+        <v>30</v>
+      </c>
+      <c r="D526" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E526" s="1">
+        <v>3</v>
+      </c>
+      <c r="F526" s="1">
+        <v>14</v>
+      </c>
+      <c r="G526" s="1">
+        <v>1</v>
+      </c>
+      <c r="H526" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I526" s="1">
+        <v>1</v>
+      </c>
+      <c r="J526" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K526" s="2">
+        <v>0</v>
+      </c>
+      <c r="L526" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <f t="shared" si="12"/>
+        <v>2.1563094297853579E+83</v>
+      </c>
+      <c r="C527" s="1">
+        <v>30</v>
+      </c>
+      <c r="D527" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E527" s="1">
+        <v>3</v>
+      </c>
+      <c r="F527" s="1">
+        <v>14</v>
+      </c>
+      <c r="G527" s="1">
+        <v>1</v>
+      </c>
+      <c r="H527" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I527" s="1">
+        <v>1</v>
+      </c>
+      <c r="J527" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K527" s="2">
+        <v>0</v>
+      </c>
+      <c r="L527" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8032022587209656E+83</v>
+      </c>
+      <c r="C528" s="1">
+        <v>30</v>
+      </c>
+      <c r="D528" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E528" s="1">
+        <v>3</v>
+      </c>
+      <c r="F528" s="1">
+        <v>14</v>
+      </c>
+      <c r="G528" s="1">
+        <v>1</v>
+      </c>
+      <c r="H528" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I528" s="1">
+        <v>1</v>
+      </c>
+      <c r="J528" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K528" s="2">
+        <v>0</v>
+      </c>
+      <c r="L528" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <f t="shared" si="12"/>
+        <v>3.6441629363372555E+83</v>
+      </c>
+      <c r="C529" s="1">
+        <v>30</v>
+      </c>
+      <c r="D529" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E529" s="1">
+        <v>3</v>
+      </c>
+      <c r="F529" s="1">
+        <v>14</v>
+      </c>
+      <c r="G529" s="1">
+        <v>1</v>
+      </c>
+      <c r="H529" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I529" s="1">
+        <v>1</v>
+      </c>
+      <c r="J529" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K529" s="2">
+        <v>0</v>
+      </c>
+      <c r="L529" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <f t="shared" si="12"/>
+        <v>4.7374118172384325E+83</v>
+      </c>
+      <c r="C530" s="1">
+        <v>30</v>
+      </c>
+      <c r="D530" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E530" s="1">
+        <v>3</v>
+      </c>
+      <c r="F530" s="1">
+        <v>14</v>
+      </c>
+      <c r="G530" s="1">
+        <v>1</v>
+      </c>
+      <c r="H530" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I530" s="1">
+        <v>1</v>
+      </c>
+      <c r="J530" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K530" s="2">
+        <v>0</v>
+      </c>
+      <c r="L530" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C73F1F-E556-43F5-A859-5EA78236C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E68CEEC-087F-433C-9605-2384A8EAE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L530"/>
+  <dimension ref="A1:L542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
+      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C529" sqref="C529:L542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18742,7 +18742,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="2">
-        <f t="shared" ref="B468:B530" si="12">B467*1.3</f>
+        <f t="shared" ref="B468:B531" si="12">B467*1.3</f>
         <v>4.0836949779671151E+76</v>
       </c>
       <c r="C468" s="1">
@@ -21191,6 +21191,474 @@
         <v>0</v>
       </c>
       <c r="L530" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <f t="shared" si="12"/>
+        <v>6.1586353624099621E+83</v>
+      </c>
+      <c r="C531" s="1">
+        <v>30</v>
+      </c>
+      <c r="D531" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E531" s="1">
+        <v>3</v>
+      </c>
+      <c r="F531" s="1">
+        <v>14</v>
+      </c>
+      <c r="G531" s="1">
+        <v>1</v>
+      </c>
+      <c r="H531" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I531" s="1">
+        <v>1</v>
+      </c>
+      <c r="J531" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K531" s="2">
+        <v>0</v>
+      </c>
+      <c r="L531" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <f t="shared" ref="B532:B542" si="13">B531*1.3</f>
+        <v>8.0062259711329512E+83</v>
+      </c>
+      <c r="C532" s="1">
+        <v>30</v>
+      </c>
+      <c r="D532" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E532" s="1">
+        <v>3</v>
+      </c>
+      <c r="F532" s="1">
+        <v>14</v>
+      </c>
+      <c r="G532" s="1">
+        <v>1</v>
+      </c>
+      <c r="H532" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I532" s="1">
+        <v>1</v>
+      </c>
+      <c r="J532" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K532" s="2">
+        <v>0</v>
+      </c>
+      <c r="L532" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0408093762472837E+84</v>
+      </c>
+      <c r="C533" s="1">
+        <v>30</v>
+      </c>
+      <c r="D533" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E533" s="1">
+        <v>3</v>
+      </c>
+      <c r="F533" s="1">
+        <v>14</v>
+      </c>
+      <c r="G533" s="1">
+        <v>1</v>
+      </c>
+      <c r="H533" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I533" s="1">
+        <v>1</v>
+      </c>
+      <c r="J533" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K533" s="2">
+        <v>0</v>
+      </c>
+      <c r="L533" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3530521891214688E+84</v>
+      </c>
+      <c r="C534" s="1">
+        <v>30</v>
+      </c>
+      <c r="D534" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E534" s="1">
+        <v>3</v>
+      </c>
+      <c r="F534" s="1">
+        <v>14</v>
+      </c>
+      <c r="G534" s="1">
+        <v>1</v>
+      </c>
+      <c r="H534" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I534" s="1">
+        <v>1</v>
+      </c>
+      <c r="J534" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K534" s="2">
+        <v>0</v>
+      </c>
+      <c r="L534" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7589678458579094E+84</v>
+      </c>
+      <c r="C535" s="1">
+        <v>30</v>
+      </c>
+      <c r="D535" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E535" s="1">
+        <v>3</v>
+      </c>
+      <c r="F535" s="1">
+        <v>14</v>
+      </c>
+      <c r="G535" s="1">
+        <v>1</v>
+      </c>
+      <c r="H535" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I535" s="1">
+        <v>1</v>
+      </c>
+      <c r="J535" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K535" s="2">
+        <v>0</v>
+      </c>
+      <c r="L535" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2866581996152823E+84</v>
+      </c>
+      <c r="C536" s="1">
+        <v>30</v>
+      </c>
+      <c r="D536" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E536" s="1">
+        <v>3</v>
+      </c>
+      <c r="F536" s="1">
+        <v>14</v>
+      </c>
+      <c r="G536" s="1">
+        <v>1</v>
+      </c>
+      <c r="H536" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I536" s="1">
+        <v>1</v>
+      </c>
+      <c r="J536" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K536" s="2">
+        <v>0</v>
+      </c>
+      <c r="L536" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <f t="shared" si="13"/>
+        <v>2.9726556594998671E+84</v>
+      </c>
+      <c r="C537" s="1">
+        <v>30</v>
+      </c>
+      <c r="D537" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E537" s="1">
+        <v>3</v>
+      </c>
+      <c r="F537" s="1">
+        <v>14</v>
+      </c>
+      <c r="G537" s="1">
+        <v>1</v>
+      </c>
+      <c r="H537" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I537" s="1">
+        <v>1</v>
+      </c>
+      <c r="J537" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K537" s="2">
+        <v>0</v>
+      </c>
+      <c r="L537" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <f t="shared" si="13"/>
+        <v>3.8644523573498274E+84</v>
+      </c>
+      <c r="C538" s="1">
+        <v>30</v>
+      </c>
+      <c r="D538" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E538" s="1">
+        <v>3</v>
+      </c>
+      <c r="F538" s="1">
+        <v>14</v>
+      </c>
+      <c r="G538" s="1">
+        <v>1</v>
+      </c>
+      <c r="H538" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I538" s="1">
+        <v>1</v>
+      </c>
+      <c r="J538" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K538" s="2">
+        <v>0</v>
+      </c>
+      <c r="L538" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <f t="shared" si="13"/>
+        <v>5.0237880645547757E+84</v>
+      </c>
+      <c r="C539" s="1">
+        <v>30</v>
+      </c>
+      <c r="D539" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E539" s="1">
+        <v>3</v>
+      </c>
+      <c r="F539" s="1">
+        <v>14</v>
+      </c>
+      <c r="G539" s="1">
+        <v>1</v>
+      </c>
+      <c r="H539" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I539" s="1">
+        <v>1</v>
+      </c>
+      <c r="J539" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K539" s="2">
+        <v>0</v>
+      </c>
+      <c r="L539" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <f t="shared" si="13"/>
+        <v>6.5309244839212083E+84</v>
+      </c>
+      <c r="C540" s="1">
+        <v>30</v>
+      </c>
+      <c r="D540" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E540" s="1">
+        <v>3</v>
+      </c>
+      <c r="F540" s="1">
+        <v>14</v>
+      </c>
+      <c r="G540" s="1">
+        <v>1</v>
+      </c>
+      <c r="H540" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I540" s="1">
+        <v>1</v>
+      </c>
+      <c r="J540" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K540" s="2">
+        <v>0</v>
+      </c>
+      <c r="L540" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <f t="shared" si="13"/>
+        <v>8.4902018290975706E+84</v>
+      </c>
+      <c r="C541" s="1">
+        <v>30</v>
+      </c>
+      <c r="D541" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E541" s="1">
+        <v>3</v>
+      </c>
+      <c r="F541" s="1">
+        <v>14</v>
+      </c>
+      <c r="G541" s="1">
+        <v>1</v>
+      </c>
+      <c r="H541" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I541" s="1">
+        <v>1</v>
+      </c>
+      <c r="J541" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K541" s="2">
+        <v>0</v>
+      </c>
+      <c r="L541" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1037262377826842E+85</v>
+      </c>
+      <c r="C542" s="1">
+        <v>30</v>
+      </c>
+      <c r="D542" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E542" s="1">
+        <v>3</v>
+      </c>
+      <c r="F542" s="1">
+        <v>14</v>
+      </c>
+      <c r="G542" s="1">
+        <v>1</v>
+      </c>
+      <c r="H542" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I542" s="1">
+        <v>1</v>
+      </c>
+      <c r="J542" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K542" s="2">
+        <v>0</v>
+      </c>
+      <c r="L542" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E68CEEC-087F-433C-9605-2384A8EAE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03633639-9AB7-4443-AAB3-CF6446A94571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L542"/>
+  <dimension ref="A1:L568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C529" sqref="C529:L542"/>
+      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20444,10 +20444,10 @@
         <v>1</v>
       </c>
       <c r="J511" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K511" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L511" s="1">
         <v>13</v>
@@ -20639,10 +20639,10 @@
         <v>1</v>
       </c>
       <c r="J516" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K516" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L516" s="1">
         <v>13</v>
@@ -20834,10 +20834,10 @@
         <v>1</v>
       </c>
       <c r="J521" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K521" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L521" s="1">
         <v>13</v>
@@ -21029,10 +21029,10 @@
         <v>1</v>
       </c>
       <c r="J526" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K526" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L526" s="1">
         <v>13</v>
@@ -21224,10 +21224,10 @@
         <v>1</v>
       </c>
       <c r="J531" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K531" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L531" s="1">
         <v>13</v>
@@ -21238,7 +21238,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <f t="shared" ref="B532:B542" si="13">B531*1.3</f>
+        <f t="shared" ref="B532:B568" si="13">B531*1.3</f>
         <v>8.0062259711329512E+83</v>
       </c>
       <c r="C532" s="1">
@@ -21419,10 +21419,10 @@
         <v>1</v>
       </c>
       <c r="J536" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K536" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L536" s="1">
         <v>13</v>
@@ -21614,10 +21614,10 @@
         <v>1</v>
       </c>
       <c r="J541" s="2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="K541" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L541" s="1">
         <v>13</v>
@@ -21659,6 +21659,1020 @@
         <v>0</v>
       </c>
       <c r="L542" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <f t="shared" si="13"/>
+        <v>1.4348441091174894E+85</v>
+      </c>
+      <c r="C543" s="1">
+        <v>30</v>
+      </c>
+      <c r="D543" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E543" s="1">
+        <v>3</v>
+      </c>
+      <c r="F543" s="1">
+        <v>14</v>
+      </c>
+      <c r="G543" s="1">
+        <v>1</v>
+      </c>
+      <c r="H543" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I543" s="1">
+        <v>1</v>
+      </c>
+      <c r="J543" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K543" s="2">
+        <v>0</v>
+      </c>
+      <c r="L543" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <f t="shared" si="13"/>
+        <v>1.8652973418527364E+85</v>
+      </c>
+      <c r="C544" s="1">
+        <v>30</v>
+      </c>
+      <c r="D544" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E544" s="1">
+        <v>3</v>
+      </c>
+      <c r="F544" s="1">
+        <v>14</v>
+      </c>
+      <c r="G544" s="1">
+        <v>1</v>
+      </c>
+      <c r="H544" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I544" s="1">
+        <v>1</v>
+      </c>
+      <c r="J544" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K544" s="2">
+        <v>0</v>
+      </c>
+      <c r="L544" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <f t="shared" si="13"/>
+        <v>2.4248865444085574E+85</v>
+      </c>
+      <c r="C545" s="1">
+        <v>30</v>
+      </c>
+      <c r="D545" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E545" s="1">
+        <v>3</v>
+      </c>
+      <c r="F545" s="1">
+        <v>14</v>
+      </c>
+      <c r="G545" s="1">
+        <v>1</v>
+      </c>
+      <c r="H545" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I545" s="1">
+        <v>1</v>
+      </c>
+      <c r="J545" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K545" s="2">
+        <v>0</v>
+      </c>
+      <c r="L545" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <f t="shared" si="13"/>
+        <v>3.1523525077311248E+85</v>
+      </c>
+      <c r="C546" s="1">
+        <v>30</v>
+      </c>
+      <c r="D546" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E546" s="1">
+        <v>3</v>
+      </c>
+      <c r="F546" s="1">
+        <v>14</v>
+      </c>
+      <c r="G546" s="1">
+        <v>1</v>
+      </c>
+      <c r="H546" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I546" s="1">
+        <v>1</v>
+      </c>
+      <c r="J546" s="2">
+        <v>14</v>
+      </c>
+      <c r="K546" s="2">
+        <v>4</v>
+      </c>
+      <c r="L546" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <f t="shared" si="13"/>
+        <v>4.0980582600504621E+85</v>
+      </c>
+      <c r="C547" s="1">
+        <v>30</v>
+      </c>
+      <c r="D547" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E547" s="1">
+        <v>3</v>
+      </c>
+      <c r="F547" s="1">
+        <v>14</v>
+      </c>
+      <c r="G547" s="1">
+        <v>1</v>
+      </c>
+      <c r="H547" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I547" s="1">
+        <v>1</v>
+      </c>
+      <c r="J547" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K547" s="2">
+        <v>0</v>
+      </c>
+      <c r="L547" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <f t="shared" si="13"/>
+        <v>5.3274757380656011E+85</v>
+      </c>
+      <c r="C548" s="1">
+        <v>30</v>
+      </c>
+      <c r="D548" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E548" s="1">
+        <v>3</v>
+      </c>
+      <c r="F548" s="1">
+        <v>14</v>
+      </c>
+      <c r="G548" s="1">
+        <v>1</v>
+      </c>
+      <c r="H548" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I548" s="1">
+        <v>1</v>
+      </c>
+      <c r="J548" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K548" s="2">
+        <v>0</v>
+      </c>
+      <c r="L548" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <f t="shared" si="13"/>
+        <v>6.9257184594852822E+85</v>
+      </c>
+      <c r="C549" s="1">
+        <v>30</v>
+      </c>
+      <c r="D549" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E549" s="1">
+        <v>3</v>
+      </c>
+      <c r="F549" s="1">
+        <v>14</v>
+      </c>
+      <c r="G549" s="1">
+        <v>1</v>
+      </c>
+      <c r="H549" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I549" s="1">
+        <v>1</v>
+      </c>
+      <c r="J549" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K549" s="2">
+        <v>0</v>
+      </c>
+      <c r="L549" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <f t="shared" si="13"/>
+        <v>9.0034339973308667E+85</v>
+      </c>
+      <c r="C550" s="1">
+        <v>30</v>
+      </c>
+      <c r="D550" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E550" s="1">
+        <v>3</v>
+      </c>
+      <c r="F550" s="1">
+        <v>14</v>
+      </c>
+      <c r="G550" s="1">
+        <v>1</v>
+      </c>
+      <c r="H550" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I550" s="1">
+        <v>1</v>
+      </c>
+      <c r="J550" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K550" s="2">
+        <v>0</v>
+      </c>
+      <c r="L550" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <f t="shared" si="13"/>
+        <v>1.1704464196530127E+86</v>
+      </c>
+      <c r="C551" s="1">
+        <v>30</v>
+      </c>
+      <c r="D551" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E551" s="1">
+        <v>3</v>
+      </c>
+      <c r="F551" s="1">
+        <v>14</v>
+      </c>
+      <c r="G551" s="1">
+        <v>1</v>
+      </c>
+      <c r="H551" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I551" s="1">
+        <v>1</v>
+      </c>
+      <c r="J551" s="2">
+        <v>14</v>
+      </c>
+      <c r="K551" s="2">
+        <v>4</v>
+      </c>
+      <c r="L551" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5215803455489165E+86</v>
+      </c>
+      <c r="C552" s="1">
+        <v>30</v>
+      </c>
+      <c r="D552" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E552" s="1">
+        <v>3</v>
+      </c>
+      <c r="F552" s="1">
+        <v>14</v>
+      </c>
+      <c r="G552" s="1">
+        <v>1</v>
+      </c>
+      <c r="H552" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I552" s="1">
+        <v>1</v>
+      </c>
+      <c r="J552" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K552" s="2">
+        <v>0</v>
+      </c>
+      <c r="L552" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9780544492135914E+86</v>
+      </c>
+      <c r="C553" s="1">
+        <v>30</v>
+      </c>
+      <c r="D553" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E553" s="1">
+        <v>3</v>
+      </c>
+      <c r="F553" s="1">
+        <v>14</v>
+      </c>
+      <c r="G553" s="1">
+        <v>1</v>
+      </c>
+      <c r="H553" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I553" s="1">
+        <v>1</v>
+      </c>
+      <c r="J553" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K553" s="2">
+        <v>0</v>
+      </c>
+      <c r="L553" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5714707839776688E+86</v>
+      </c>
+      <c r="C554" s="1">
+        <v>30</v>
+      </c>
+      <c r="D554" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E554" s="1">
+        <v>3</v>
+      </c>
+      <c r="F554" s="1">
+        <v>14</v>
+      </c>
+      <c r="G554" s="1">
+        <v>1</v>
+      </c>
+      <c r="H554" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I554" s="1">
+        <v>1</v>
+      </c>
+      <c r="J554" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K554" s="2">
+        <v>0</v>
+      </c>
+      <c r="L554" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3429120191709695E+86</v>
+      </c>
+      <c r="C555" s="1">
+        <v>30</v>
+      </c>
+      <c r="D555" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E555" s="1">
+        <v>3</v>
+      </c>
+      <c r="F555" s="1">
+        <v>14</v>
+      </c>
+      <c r="G555" s="1">
+        <v>1</v>
+      </c>
+      <c r="H555" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I555" s="1">
+        <v>1</v>
+      </c>
+      <c r="J555" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K555" s="2">
+        <v>0</v>
+      </c>
+      <c r="L555" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <f t="shared" si="13"/>
+        <v>4.3457856249222606E+86</v>
+      </c>
+      <c r="C556" s="1">
+        <v>30</v>
+      </c>
+      <c r="D556" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E556" s="1">
+        <v>3</v>
+      </c>
+      <c r="F556" s="1">
+        <v>14</v>
+      </c>
+      <c r="G556" s="1">
+        <v>1</v>
+      </c>
+      <c r="H556" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I556" s="1">
+        <v>1</v>
+      </c>
+      <c r="J556" s="2">
+        <v>14</v>
+      </c>
+      <c r="K556" s="2">
+        <v>4</v>
+      </c>
+      <c r="L556" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <f t="shared" si="13"/>
+        <v>5.6495213123989387E+86</v>
+      </c>
+      <c r="C557" s="1">
+        <v>30</v>
+      </c>
+      <c r="D557" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E557" s="1">
+        <v>3</v>
+      </c>
+      <c r="F557" s="1">
+        <v>14</v>
+      </c>
+      <c r="G557" s="1">
+        <v>1</v>
+      </c>
+      <c r="H557" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I557" s="1">
+        <v>1</v>
+      </c>
+      <c r="J557" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K557" s="2">
+        <v>0</v>
+      </c>
+      <c r="L557" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <f t="shared" si="13"/>
+        <v>7.3443777061186203E+86</v>
+      </c>
+      <c r="C558" s="1">
+        <v>30</v>
+      </c>
+      <c r="D558" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E558" s="1">
+        <v>3</v>
+      </c>
+      <c r="F558" s="1">
+        <v>14</v>
+      </c>
+      <c r="G558" s="1">
+        <v>1</v>
+      </c>
+      <c r="H558" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I558" s="1">
+        <v>1</v>
+      </c>
+      <c r="J558" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K558" s="2">
+        <v>0</v>
+      </c>
+      <c r="L558" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <f t="shared" si="13"/>
+        <v>9.5476910179542071E+86</v>
+      </c>
+      <c r="C559" s="1">
+        <v>30</v>
+      </c>
+      <c r="D559" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E559" s="1">
+        <v>3</v>
+      </c>
+      <c r="F559" s="1">
+        <v>14</v>
+      </c>
+      <c r="G559" s="1">
+        <v>1</v>
+      </c>
+      <c r="H559" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I559" s="1">
+        <v>1</v>
+      </c>
+      <c r="J559" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K559" s="2">
+        <v>0</v>
+      </c>
+      <c r="L559" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2411998323340469E+87</v>
+      </c>
+      <c r="C560" s="1">
+        <v>30</v>
+      </c>
+      <c r="D560" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E560" s="1">
+        <v>3</v>
+      </c>
+      <c r="F560" s="1">
+        <v>14</v>
+      </c>
+      <c r="G560" s="1">
+        <v>1</v>
+      </c>
+      <c r="H560" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I560" s="1">
+        <v>1</v>
+      </c>
+      <c r="J560" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K560" s="2">
+        <v>0</v>
+      </c>
+      <c r="L560" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <f t="shared" si="13"/>
+        <v>1.6135597820342611E+87</v>
+      </c>
+      <c r="C561" s="1">
+        <v>30</v>
+      </c>
+      <c r="D561" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E561" s="1">
+        <v>3</v>
+      </c>
+      <c r="F561" s="1">
+        <v>14</v>
+      </c>
+      <c r="G561" s="1">
+        <v>1</v>
+      </c>
+      <c r="H561" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I561" s="1">
+        <v>1</v>
+      </c>
+      <c r="J561" s="2">
+        <v>14</v>
+      </c>
+      <c r="K561" s="2">
+        <v>4</v>
+      </c>
+      <c r="L561" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0976277166445396E+87</v>
+      </c>
+      <c r="C562" s="1">
+        <v>30</v>
+      </c>
+      <c r="D562" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E562" s="1">
+        <v>3</v>
+      </c>
+      <c r="F562" s="1">
+        <v>14</v>
+      </c>
+      <c r="G562" s="1">
+        <v>1</v>
+      </c>
+      <c r="H562" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I562" s="1">
+        <v>1</v>
+      </c>
+      <c r="J562" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K562" s="2">
+        <v>0</v>
+      </c>
+      <c r="L562" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <f t="shared" si="13"/>
+        <v>2.7269160316379017E+87</v>
+      </c>
+      <c r="C563" s="1">
+        <v>30</v>
+      </c>
+      <c r="D563" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E563" s="1">
+        <v>3</v>
+      </c>
+      <c r="F563" s="1">
+        <v>14</v>
+      </c>
+      <c r="G563" s="1">
+        <v>1</v>
+      </c>
+      <c r="H563" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I563" s="1">
+        <v>1</v>
+      </c>
+      <c r="J563" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K563" s="2">
+        <v>0</v>
+      </c>
+      <c r="L563" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <f t="shared" si="13"/>
+        <v>3.5449908411292722E+87</v>
+      </c>
+      <c r="C564" s="1">
+        <v>30</v>
+      </c>
+      <c r="D564" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E564" s="1">
+        <v>3</v>
+      </c>
+      <c r="F564" s="1">
+        <v>14</v>
+      </c>
+      <c r="G564" s="1">
+        <v>1</v>
+      </c>
+      <c r="H564" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I564" s="1">
+        <v>1</v>
+      </c>
+      <c r="J564" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K564" s="2">
+        <v>0</v>
+      </c>
+      <c r="L564" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <f t="shared" si="13"/>
+        <v>4.6084880934680536E+87</v>
+      </c>
+      <c r="C565" s="1">
+        <v>30</v>
+      </c>
+      <c r="D565" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E565" s="1">
+        <v>3</v>
+      </c>
+      <c r="F565" s="1">
+        <v>14</v>
+      </c>
+      <c r="G565" s="1">
+        <v>1</v>
+      </c>
+      <c r="H565" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I565" s="1">
+        <v>1</v>
+      </c>
+      <c r="J565" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K565" s="2">
+        <v>0</v>
+      </c>
+      <c r="L565" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <f t="shared" si="13"/>
+        <v>5.9910345215084701E+87</v>
+      </c>
+      <c r="C566" s="1">
+        <v>30</v>
+      </c>
+      <c r="D566" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E566" s="1">
+        <v>3</v>
+      </c>
+      <c r="F566" s="1">
+        <v>14</v>
+      </c>
+      <c r="G566" s="1">
+        <v>1</v>
+      </c>
+      <c r="H566" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I566" s="1">
+        <v>1</v>
+      </c>
+      <c r="J566" s="2">
+        <v>14</v>
+      </c>
+      <c r="K566" s="2">
+        <v>4</v>
+      </c>
+      <c r="L566" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <f t="shared" si="13"/>
+        <v>7.788344877961011E+87</v>
+      </c>
+      <c r="C567" s="1">
+        <v>30</v>
+      </c>
+      <c r="D567" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E567" s="1">
+        <v>3</v>
+      </c>
+      <c r="F567" s="1">
+        <v>14</v>
+      </c>
+      <c r="G567" s="1">
+        <v>1</v>
+      </c>
+      <c r="H567" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I567" s="1">
+        <v>1</v>
+      </c>
+      <c r="J567" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K567" s="2">
+        <v>0</v>
+      </c>
+      <c r="L567" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0124848341349315E+88</v>
+      </c>
+      <c r="C568" s="1">
+        <v>30</v>
+      </c>
+      <c r="D568" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E568" s="1">
+        <v>3</v>
+      </c>
+      <c r="F568" s="1">
+        <v>14</v>
+      </c>
+      <c r="G568" s="1">
+        <v>1</v>
+      </c>
+      <c r="H568" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I568" s="1">
+        <v>1</v>
+      </c>
+      <c r="J568" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K568" s="2">
+        <v>0</v>
+      </c>
+      <c r="L568" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03633639-9AB7-4443-AAB3-CF6446A94571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857DA225-83D6-4E74-978F-F7EE5A41FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L568"/>
+  <dimension ref="A1:L578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A552" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E570" sqref="E570"/>
+      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K574" sqref="K574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21238,7 +21238,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="2">
-        <f t="shared" ref="B532:B568" si="13">B531*1.3</f>
+        <f t="shared" ref="B532:B578" si="13">B531*1.3</f>
         <v>8.0062259711329512E+83</v>
       </c>
       <c r="C532" s="1">
@@ -22673,6 +22673,396 @@
         <v>0</v>
       </c>
       <c r="L568" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3162302843754111E+88</v>
+      </c>
+      <c r="C569" s="1">
+        <v>30</v>
+      </c>
+      <c r="D569" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E569" s="1">
+        <v>3</v>
+      </c>
+      <c r="F569" s="1">
+        <v>14</v>
+      </c>
+      <c r="G569" s="1">
+        <v>1</v>
+      </c>
+      <c r="H569" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I569" s="1">
+        <v>1</v>
+      </c>
+      <c r="J569" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K569" s="2">
+        <v>0</v>
+      </c>
+      <c r="L569" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7110993696880344E+88</v>
+      </c>
+      <c r="C570" s="1">
+        <v>30</v>
+      </c>
+      <c r="D570" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E570" s="1">
+        <v>3</v>
+      </c>
+      <c r="F570" s="1">
+        <v>14</v>
+      </c>
+      <c r="G570" s="1">
+        <v>1</v>
+      </c>
+      <c r="H570" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I570" s="1">
+        <v>1</v>
+      </c>
+      <c r="J570" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K570" s="2">
+        <v>0</v>
+      </c>
+      <c r="L570" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2244291805944449E+88</v>
+      </c>
+      <c r="C571" s="1">
+        <v>30</v>
+      </c>
+      <c r="D571" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E571" s="1">
+        <v>3</v>
+      </c>
+      <c r="F571" s="1">
+        <v>14</v>
+      </c>
+      <c r="G571" s="1">
+        <v>1</v>
+      </c>
+      <c r="H571" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I571" s="1">
+        <v>1</v>
+      </c>
+      <c r="J571" s="2">
+        <v>14</v>
+      </c>
+      <c r="K571" s="2">
+        <v>4</v>
+      </c>
+      <c r="L571" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <f t="shared" si="13"/>
+        <v>2.8917579347727786E+88</v>
+      </c>
+      <c r="C572" s="1">
+        <v>30</v>
+      </c>
+      <c r="D572" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E572" s="1">
+        <v>3</v>
+      </c>
+      <c r="F572" s="1">
+        <v>14</v>
+      </c>
+      <c r="G572" s="1">
+        <v>1</v>
+      </c>
+      <c r="H572" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I572" s="1">
+        <v>1</v>
+      </c>
+      <c r="J572" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K572" s="2">
+        <v>0</v>
+      </c>
+      <c r="L572" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <f t="shared" si="13"/>
+        <v>3.7592853152046125E+88</v>
+      </c>
+      <c r="C573" s="1">
+        <v>30</v>
+      </c>
+      <c r="D573" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E573" s="1">
+        <v>3</v>
+      </c>
+      <c r="F573" s="1">
+        <v>14</v>
+      </c>
+      <c r="G573" s="1">
+        <v>1</v>
+      </c>
+      <c r="H573" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I573" s="1">
+        <v>1</v>
+      </c>
+      <c r="J573" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K573" s="2">
+        <v>0</v>
+      </c>
+      <c r="L573" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <f t="shared" si="13"/>
+        <v>4.8870709097659962E+88</v>
+      </c>
+      <c r="C574" s="1">
+        <v>30</v>
+      </c>
+      <c r="D574" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E574" s="1">
+        <v>3</v>
+      </c>
+      <c r="F574" s="1">
+        <v>14</v>
+      </c>
+      <c r="G574" s="1">
+        <v>1</v>
+      </c>
+      <c r="H574" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I574" s="1">
+        <v>1</v>
+      </c>
+      <c r="J574" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K574" s="2">
+        <v>0</v>
+      </c>
+      <c r="L574" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <f t="shared" si="13"/>
+        <v>6.3531921826957955E+88</v>
+      </c>
+      <c r="C575" s="1">
+        <v>30</v>
+      </c>
+      <c r="D575" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E575" s="1">
+        <v>3</v>
+      </c>
+      <c r="F575" s="1">
+        <v>14</v>
+      </c>
+      <c r="G575" s="1">
+        <v>1</v>
+      </c>
+      <c r="H575" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I575" s="1">
+        <v>1</v>
+      </c>
+      <c r="J575" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K575" s="2">
+        <v>0</v>
+      </c>
+      <c r="L575" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <f t="shared" si="13"/>
+        <v>8.2591498375045349E+88</v>
+      </c>
+      <c r="C576" s="1">
+        <v>30</v>
+      </c>
+      <c r="D576" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E576" s="1">
+        <v>3</v>
+      </c>
+      <c r="F576" s="1">
+        <v>14</v>
+      </c>
+      <c r="G576" s="1">
+        <v>1</v>
+      </c>
+      <c r="H576" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I576" s="1">
+        <v>1</v>
+      </c>
+      <c r="J576" s="2">
+        <v>14</v>
+      </c>
+      <c r="K576" s="2">
+        <v>4</v>
+      </c>
+      <c r="L576" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0736894788755895E+89</v>
+      </c>
+      <c r="C577" s="1">
+        <v>30</v>
+      </c>
+      <c r="D577" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E577" s="1">
+        <v>3</v>
+      </c>
+      <c r="F577" s="1">
+        <v>14</v>
+      </c>
+      <c r="G577" s="1">
+        <v>1</v>
+      </c>
+      <c r="H577" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I577" s="1">
+        <v>1</v>
+      </c>
+      <c r="J577" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K577" s="2">
+        <v>0</v>
+      </c>
+      <c r="L577" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3957963225382665E+89</v>
+      </c>
+      <c r="C578" s="1">
+        <v>30</v>
+      </c>
+      <c r="D578" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E578" s="1">
+        <v>3</v>
+      </c>
+      <c r="F578" s="1">
+        <v>14</v>
+      </c>
+      <c r="G578" s="1">
+        <v>1</v>
+      </c>
+      <c r="H578" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I578" s="1">
+        <v>1</v>
+      </c>
+      <c r="J578" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K578" s="2">
+        <v>0</v>
+      </c>
+      <c r="L578" s="1">
         <v>13</v>
       </c>
     </row>
